--- a/docs/DB_DDL_helper_template.xlsx
+++ b/docs/DB_DDL_helper_template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="19080" windowHeight="6855" tabRatio="759" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="19080" windowHeight="6855" tabRatio="759" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CORE DDL" sheetId="1" r:id="rId1"/>
@@ -566,7 +566,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Jesse Abdul:</t>
         </r>
@@ -575,7 +575,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 DML to populate a given reference table based on the given data table field</t>
@@ -614,7 +614,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Jesse Abdul:</t>
         </r>
@@ -623,7 +623,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Example</t>
@@ -648,7 +648,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Jesse Abdul:</t>
         </r>
@@ -657,7 +657,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Example</t>
@@ -682,7 +682,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Jesse Abdul:</t>
         </r>
@@ -691,7 +691,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Example</t>
@@ -716,7 +716,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Jesse Abdul:</t>
         </r>
@@ -725,7 +725,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Example</t>
@@ -737,7 +737,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1189" uniqueCount="255">
   <si>
     <t>TABLE NAME</t>
   </si>
@@ -1095,13 +1095,421 @@
   </si>
   <si>
     <t>The date/time the tagged commit was authored</t>
+  </si>
+  <si>
+    <t>PRI_PROJ_RES</t>
+  </si>
+  <si>
+    <t>RES_ID</t>
+  </si>
+  <si>
+    <t>RES_CATEGORY</t>
+  </si>
+  <si>
+    <t>RES_TAG_CONV</t>
+  </si>
+  <si>
+    <t>RES_NAME</t>
+  </si>
+  <si>
+    <t>RES_COLOR_CODE</t>
+  </si>
+  <si>
+    <t>RES_URL</t>
+  </si>
+  <si>
+    <t>Primary key for the PRI_PROJ_RES table</t>
+  </si>
+  <si>
+    <t>Foreign key reference to the project record</t>
+  </si>
+  <si>
+    <t>The resource category (free form text) - examples values include Development Tool, Data Management Tool, Centralized Database Applications</t>
+  </si>
+  <si>
+    <t>Tag Naming convention used to identify the given project resource's version</t>
+  </si>
+  <si>
+    <t>The name of the project resource</t>
+  </si>
+  <si>
+    <t>The color code for the project resource</t>
+  </si>
+  <si>
+    <t>The URL for the project resource (this is blank when the repository URL is the same as the resource URL)</t>
+  </si>
+  <si>
+    <t>PRI_RES_SCOPES</t>
+  </si>
+  <si>
+    <t>PRI_RES_TYPES</t>
+  </si>
+  <si>
+    <t>RES_TYPE_ID</t>
+  </si>
+  <si>
+    <t>RES_SCOPE_ID</t>
+  </si>
+  <si>
+    <t>Resource Scopes</t>
+  </si>
+  <si>
+    <t>Resource Types</t>
+  </si>
+  <si>
+    <t>SCOPE</t>
+  </si>
+  <si>
+    <t>TYPE</t>
+  </si>
+  <si>
+    <t>Foreign key reference to the resource type</t>
+  </si>
+  <si>
+    <t>Foreign key reference to the resource scope</t>
+  </si>
+  <si>
+    <t>RES_SCOPE_CODE</t>
+  </si>
+  <si>
+    <t>RES_SCOPE_NAME</t>
+  </si>
+  <si>
+    <t>RES_SCOPE_DESC</t>
+  </si>
+  <si>
+    <t>RES_TYPE_CODE</t>
+  </si>
+  <si>
+    <t>RES_TYPE_NAME</t>
+  </si>
+  <si>
+    <t>RES_TYPE_DESC</t>
+  </si>
+  <si>
+    <t>PRI_PROJ_RES_V</t>
+  </si>
+  <si>
+    <t>Tag Naming convention used to identify the given project resource's version.  The suffix is required to be a series of period-delimited numbers (e.g. for a naming convention of db_module_packager_v the tag value of db_module_packager_v1.13.4 is valid)</t>
+  </si>
+  <si>
+    <t>Code for the given Resource Scope</t>
+  </si>
+  <si>
+    <t>Name of the given Resource Scope</t>
+  </si>
+  <si>
+    <t>Description for the given Resource Scope</t>
+  </si>
+  <si>
+    <t>Code for the given Resource Type</t>
+  </si>
+  <si>
+    <t>Name of the given Resource Type</t>
+  </si>
+  <si>
+    <t>Description for the given Resource Type</t>
+  </si>
+  <si>
+    <t>PRI_PROJ_V</t>
+  </si>
+  <si>
+    <t>VERS_NUM</t>
+  </si>
+  <si>
+    <t>VERS_NUM_SCORE</t>
+  </si>
+  <si>
+    <t>PRI_RES_TAG_VERS_V</t>
+  </si>
+  <si>
+    <t>MAX_TAG_AUTHOR</t>
+  </si>
+  <si>
+    <t>MAX_TAG_DTM</t>
+  </si>
+  <si>
+    <t>MAX_TAG_NAME</t>
+  </si>
+  <si>
+    <t>MAX_VERS_NUM</t>
+  </si>
+  <si>
+    <t>PRI_PROJ_MAX_VERS_V</t>
+  </si>
+  <si>
+    <t>The author of the commit for the current version of the resource</t>
+  </si>
+  <si>
+    <t>The date/time of the commit for the current version of the resource</t>
+  </si>
+  <si>
+    <t>The tag name of the commit for the current version of the resource</t>
+  </si>
+  <si>
+    <t>The parsed version number of the commit for the current version of the resource</t>
+  </si>
+  <si>
+    <t>The parsed version number of the commit for the defined tag naming conventions for the corresponding resource</t>
+  </si>
+  <si>
+    <t>The version number score for the parsed version number of the commit for the defined tag naming conventions for the corresponding resource.  This number is used to determine the maximum (current) version of the resource</t>
+  </si>
+  <si>
+    <t>RES_MAX_VERS_NUM</t>
+  </si>
+  <si>
+    <t>CURR_VERS_COUNT</t>
+  </si>
+  <si>
+    <t>OLD_VERS_COUNT</t>
+  </si>
+  <si>
+    <t>TOTAL_IMPL_PROJ</t>
+  </si>
+  <si>
+    <t>ASSOC_PROJ_CD_LIST</t>
+  </si>
+  <si>
+    <t>PRI_RES_PROJ_TAG_MAX_SUM_V</t>
+  </si>
+  <si>
+    <t>RES_MAX_TAG_ID</t>
+  </si>
+  <si>
+    <t>TAG_PROJ_MAX_TAG_ID</t>
+  </si>
+  <si>
+    <t>TAG_PROJ_MAX_VERS_NUM</t>
+  </si>
+  <si>
+    <t>TAG_MAX_VERS_YN</t>
+  </si>
+  <si>
+    <t>TAG_PROJ_ID</t>
+  </si>
+  <si>
+    <t>TAG_VC_PROJ_ID</t>
+  </si>
+  <si>
+    <t>TAG_PROJ_NAME</t>
+  </si>
+  <si>
+    <t>TAG_PROJ_DESC</t>
+  </si>
+  <si>
+    <t>TAG_SSH_URL</t>
+  </si>
+  <si>
+    <t>TAG_HTTP_URL</t>
+  </si>
+  <si>
+    <t>TAG_README_URL</t>
+  </si>
+  <si>
+    <t>TAG_AVATAR_URL</t>
+  </si>
+  <si>
+    <t>TAG_PROJ_CREATE_DTM</t>
+  </si>
+  <si>
+    <t>TAG_PROJ_UPDATE_DTM</t>
+  </si>
+  <si>
+    <t>TAG_PROJ_VISIBILITY</t>
+  </si>
+  <si>
+    <t>TAG_PROJ_NAME_SPACE</t>
+  </si>
+  <si>
+    <t>TAG_PROJ_SOURCE</t>
+  </si>
+  <si>
+    <t>PRI_RES_PROJ_TAG_MAX_V</t>
+  </si>
+  <si>
+    <t>The TAG_ID value associated with the highest version number of the given resource</t>
+  </si>
+  <si>
+    <t>The parsed version number for the maximum installed version of the given resource</t>
+  </si>
+  <si>
+    <t>The TAG_ID value associated with the highest version number of the project associated with the given resource (identified by TAG_PROJ_ID)</t>
+  </si>
+  <si>
+    <t>The parsed version number associated with the highest version number of the project associated with the given resource (identified by TAG_PROJ_ID)</t>
+  </si>
+  <si>
+    <t>Flag to indicate if the resource's maximum version is the same as the maximum version implemented on the associated project (Y) or not (N).  This is used to identify implementations that are out of date</t>
+  </si>
+  <si>
+    <t>Primary key for the PRI_PROJ table for the project associated with the given resource</t>
+  </si>
+  <si>
+    <t>Unique numeric ID of the project in the given version control system for the project associated with the given resource</t>
+  </si>
+  <si>
+    <t>Name of the project associated with the given resource</t>
+  </si>
+  <si>
+    <t>Description of the project project associated with the given resource</t>
+  </si>
+  <si>
+    <t>SSH URL for the project project associated with the given resource</t>
+  </si>
+  <si>
+    <t>HTTP URL for the project project associated with the given resource</t>
+  </si>
+  <si>
+    <t>Readme URL for the project project associated with the given resource</t>
+  </si>
+  <si>
+    <t>Avatar URL for the project project associated with the given resource</t>
+  </si>
+  <si>
+    <t>The date/time the project associated with the given resource was created</t>
+  </si>
+  <si>
+    <t>The date/time the project associated with the given resource was last updated</t>
+  </si>
+  <si>
+    <t>The visibility for the project (public, internal, private) associated with the given resource</t>
+  </si>
+  <si>
+    <t>project name including the namespace prefix associated with the given resource</t>
+  </si>
+  <si>
+    <t>the source of the project record (e.g. PIFSC GitLab, GitHub, manual entry) associated with the given resource</t>
+  </si>
+  <si>
+    <t>The number of projects that have implemented the given resource that are not the same as the current version</t>
+  </si>
+  <si>
+    <t>The number of projects that have implemented the given resource that are the same as the current version</t>
+  </si>
+  <si>
+    <t>The total number of projects that have implemented the given resource</t>
+  </si>
+  <si>
+    <t>A comma-delimited list of projects and associated highest version number that have implemented the given resource</t>
+  </si>
+  <si>
+    <t>PRI_PROJ_RES_TAG_MAX_SUM_V</t>
+  </si>
+  <si>
+    <t>ASSOC_RES_CD_LIST</t>
+  </si>
+  <si>
+    <t>TOTAL_IMPL_RES</t>
+  </si>
+  <si>
+    <t>PRI_PROJ_RES_TAG_MAX_V</t>
+  </si>
+  <si>
+    <t>RES_AVATAR_URL</t>
+  </si>
+  <si>
+    <t>RES_HTTP_URL</t>
+  </si>
+  <si>
+    <t>RES_PROJ_CREATE_DTM</t>
+  </si>
+  <si>
+    <t>RES_PROJ_DESC</t>
+  </si>
+  <si>
+    <t>RES_PROJ_ID</t>
+  </si>
+  <si>
+    <t>RES_PROJ_NAME</t>
+  </si>
+  <si>
+    <t>RES_PROJ_NAME_SPACE</t>
+  </si>
+  <si>
+    <t>RES_PROJ_SOURCE</t>
+  </si>
+  <si>
+    <t>RES_PROJ_UPDATE_DTM</t>
+  </si>
+  <si>
+    <t>RES_PROJ_VISIBILITY</t>
+  </si>
+  <si>
+    <t>RES_README_URL</t>
+  </si>
+  <si>
+    <t>RES_SSH_URL</t>
+  </si>
+  <si>
+    <t>RES_VC_PROJ_ID</t>
+  </si>
+  <si>
+    <t>RES_VERS_STATUS</t>
+  </si>
+  <si>
+    <t>Flag to indicate if the implemented resource version for the given project is the same as the maximum resource version (Y) or not (N).  This is used to identify implementations that are out of date</t>
+  </si>
+  <si>
+    <t>Flag to indicate if the implemented resource version for the given project is the same as the maximum resource version (Current Version) or not (Update Available).  This is used to identify implementations that are out of date</t>
+  </si>
+  <si>
+    <t>Resource Project</t>
+  </si>
+  <si>
+    <t>Unique numeric ID of the resource project in the given version control system</t>
+  </si>
+  <si>
+    <t>Name of the resource project</t>
+  </si>
+  <si>
+    <t>Description of the resource project</t>
+  </si>
+  <si>
+    <t>SSH URL for the resource project</t>
+  </si>
+  <si>
+    <t>HTTP URL for the resource project</t>
+  </si>
+  <si>
+    <t>Readme URL for the resource project</t>
+  </si>
+  <si>
+    <t>Avatar URL for the resource project</t>
+  </si>
+  <si>
+    <t>The date/time the resource project was created</t>
+  </si>
+  <si>
+    <t>The date/time the resource project was last updated</t>
+  </si>
+  <si>
+    <t>The visibility for the resource project (public, internal, private)</t>
+  </si>
+  <si>
+    <t>the source of the resource project record (e.g. PIFSC GitLab, GitHub, manual entry)</t>
+  </si>
+  <si>
+    <t>resource project name including the namespace prefix</t>
+  </si>
+  <si>
+    <t>The number of implemented resources that have been implemented by the project that are not the same as the current version of the resource</t>
+  </si>
+  <si>
+    <t>The number of implemented resources that have been implemented by the project that are the same as the current version of the resource</t>
+  </si>
+  <si>
+    <t>The total number of project resources that have been implemented in the given project</t>
+  </si>
+  <si>
+    <t>A comma-delimited list of project resources and associated highest version number that have been implemented by the project.  If the current version implemented in the project is the same as the current version of the resource the project name is preceded by a "(CV)" prefix to indicate it is the current version and if not the "(UA)" prefix is used to indicate there is an update available</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1142,19 +1550,6 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1557,12 +1952,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA32"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <pane xSplit="8655" ySplit="900" topLeftCell="R1" activePane="bottomRight"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="8655" ySplit="900" topLeftCell="T1" activePane="bottomRight"/>
       <selection activeCell="G1" sqref="G1"/>
       <selection pane="topRight" activeCell="X1" sqref="X1"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
-      <selection pane="bottomRight" activeCell="R6" sqref="R6"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2714,12 +3109,16 @@
       </c>
     </row>
     <row r="7" spans="1:27" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
+      <c r="A7" s="19" t="s">
+        <v>119</v>
+      </c>
       <c r="B7" s="16" t="str">
         <f t="shared" si="25"/>
         <v>Yes</v>
       </c>
-      <c r="C7" s="19"/>
+      <c r="C7" s="19" t="s">
+        <v>120</v>
+      </c>
       <c r="D7" s="16" t="str">
         <f t="shared" si="26"/>
         <v>Yes</v>
@@ -2727,71 +3126,71 @@
       <c r="E7" s="19"/>
       <c r="F7" s="16" t="str">
         <f t="shared" si="15"/>
-        <v>_SEQ</v>
+        <v>PRI_PROJ_RES_SEQ</v>
       </c>
       <c r="G7" s="22" t="str">
         <f t="shared" si="27"/>
-        <v>CREATE SEQUENCE _SEQ INCREMENT BY 1 START WITH 1;</v>
+        <v>CREATE SEQUENCE PRI_PROJ_RES_SEQ INCREMENT BY 1 START WITH 1;</v>
       </c>
       <c r="H7" s="22" t="str">
         <f t="shared" si="8"/>
-        <v>ALTER TABLE  ADD (CREATE_DATE DATE );</v>
+        <v>ALTER TABLE PRI_PROJ_RES ADD (CREATE_DATE DATE );</v>
       </c>
       <c r="I7" s="22" t="str">
         <f t="shared" si="9"/>
-        <v>ALTER TABLE  ADD (CREATED_BY VARCHAR2(30) );</v>
+        <v>ALTER TABLE PRI_PROJ_RES ADD (CREATED_BY VARCHAR2(30) );</v>
       </c>
       <c r="J7" s="22" t="str">
         <f t="shared" si="10"/>
-        <v>ALTER TABLE  ADD (LAST_MOD_DATE DATE );</v>
+        <v>ALTER TABLE PRI_PROJ_RES ADD (LAST_MOD_DATE DATE );</v>
       </c>
       <c r="K7" s="22" t="str">
         <f t="shared" si="11"/>
-        <v>ALTER TABLE  ADD (LAST_MOD_BY VARCHAR2(30) );</v>
+        <v>ALTER TABLE PRI_PROJ_RES ADD (LAST_MOD_BY VARCHAR2(30) );</v>
       </c>
       <c r="L7" s="22" t="str">
         <f t="shared" si="16"/>
-        <v>COMMENT ON COLUMN .CREATE_DATE IS 'The date on which this record was created in the database';</v>
+        <v>COMMENT ON COLUMN PRI_PROJ_RES.CREATE_DATE IS 'The date on which this record was created in the database';</v>
       </c>
       <c r="M7" s="22" t="str">
         <f t="shared" si="17"/>
-        <v>COMMENT ON COLUMN .CREATED_BY IS 'The Oracle username of the person creating this record in the database';</v>
+        <v>COMMENT ON COLUMN PRI_PROJ_RES.CREATED_BY IS 'The Oracle username of the person creating this record in the database';</v>
       </c>
       <c r="N7" s="22" t="str">
         <f t="shared" si="18"/>
-        <v>COMMENT ON COLUMN .LAST_MOD_DATE IS 'The last date on which any of the data in this record was changed';</v>
+        <v>COMMENT ON COLUMN PRI_PROJ_RES.LAST_MOD_DATE IS 'The last date on which any of the data in this record was changed';</v>
       </c>
       <c r="O7" s="22" t="str">
         <f t="shared" si="19"/>
-        <v>COMMENT ON COLUMN .LAST_MOD_BY IS 'The Oracle username of the person making the most recent change to this record';</v>
+        <v>COMMENT ON COLUMN PRI_PROJ_RES.LAST_MOD_BY IS 'The Oracle username of the person making the most recent change to this record';</v>
       </c>
       <c r="P7" s="23" t="str">
         <f t="shared" si="20"/>
-        <v>COMMENT ON TABLE  IS '';</v>
+        <v>COMMENT ON TABLE PRI_PROJ_RES IS '';</v>
       </c>
       <c r="Q7" s="22" t="str">
         <f t="shared" si="21"/>
-        <v>COMMENT ON COLUMN . IS 'Primary Key for the  table';</v>
+        <v>COMMENT ON COLUMN PRI_PROJ_RES.RES_ID IS 'Primary Key for the PRI_PROJ_RES table';</v>
       </c>
       <c r="R7" s="23" t="str">
         <f t="shared" si="22"/>
         <v xml:space="preserve">create or replace TRIGGER 
-_AUTO_BRI 
-before insert on 
+PRI_PROJ_RES_AUTO_BRI 
+before insert on PRI_PROJ_RES
 for each row
 begin
-  select _SEQ.nextval into :new. from dual;
+  select PRI_PROJ_RES_SEQ.nextval into :new.RES_ID from dual;
 end;
 /
 </v>
       </c>
       <c r="S7" s="23" t="str">
         <f t="shared" si="23"/>
-        <v xml:space="preserve">create or replace TRIGGER _AUTO_BRI
-before insert on 
+        <v xml:space="preserve">create or replace TRIGGER PRI_PROJ_RES_AUTO_BRI
+before insert on PRI_PROJ_RES
 for each row
 begin
-  select _SEQ.nextval into :new. from dual;
+  select PRI_PROJ_RES_SEQ.nextval into :new.RES_ID from dual;
   :NEW.CREATE_DATE := SYSDATE;
   :NEW.CREATED_BY := nvl(v('APP_USER'),user);
 end;
@@ -2800,9 +3199,9 @@
       </c>
       <c r="T7" s="23" t="str">
         <f t="shared" si="24"/>
-        <v xml:space="preserve">CREATE OR REPLACE TRIGGER _AUTO_BRU BEFORE
+        <v xml:space="preserve">CREATE OR REPLACE TRIGGER PRI_PROJ_RES_AUTO_BRU BEFORE
   UPDATE
-    ON  FOR EACH ROW 
+    ON PRI_PROJ_RES FOR EACH ROW 
     BEGIN 
       :NEW.LAST_MOD_DATE := SYSDATE;
       :NEW.LAST_MOD_BY := nvl(v('APP_USER'),user);
@@ -2814,28 +3213,29 @@
       <c r="W7" s="19"/>
       <c r="X7" s="27" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">CREATE TABLE  
+        <v xml:space="preserve">CREATE TABLE PRI_PROJ_RES 
 (
-   NUMBER NOT NULL 
+  RES_ID NUMBER NOT NULL 
 , _CODE VARCHAR2(50) 
 , _NAME VARCHAR2(200) NOT NULL 
 , _DESC VARCHAR2(500) 
-, CONSTRAINT _PK PRIMARY KEY 
+, CONSTRAINT PRI_PROJ_RES_PK PRIMARY KEY 
   (
+    RES_ID 
   )
   ENABLE 
 );
-COMMENT ON COLUMN . IS 'Primary key for the  table';
-COMMENT ON COLUMN ._CODE IS 'Code for the given ';
-COMMENT ON COLUMN ._NAME IS 'Name of the given ';
-COMMENT ON COLUMN ._DESC IS 'Description for the given ';
-COMMENT ON TABLE  IS 'Reference Table for storing  information';
-ALTER TABLE  ADD CONSTRAINT _U1 UNIQUE 
+COMMENT ON COLUMN PRI_PROJ_RES.RES_ID IS 'Primary key for the  table';
+COMMENT ON COLUMN PRI_PROJ_RES._CODE IS 'Code for the given ';
+COMMENT ON COLUMN PRI_PROJ_RES._NAME IS 'Name of the given ';
+COMMENT ON COLUMN PRI_PROJ_RES._DESC IS 'Description for the given ';
+COMMENT ON TABLE PRI_PROJ_RES IS 'Reference Table for storing  information';
+ALTER TABLE PRI_PROJ_RES ADD CONSTRAINT PRI_PROJ_RES_U1 UNIQUE 
 (
   _CODE 
 )
 ENABLE;
-ALTER TABLE  ADD CONSTRAINT _U2 UNIQUE 
+ALTER TABLE PRI_PROJ_RES ADD CONSTRAINT PRI_PROJ_RES_U2 UNIQUE 
 (
   _NAME 
 )
@@ -2844,43 +3244,49 @@
       </c>
       <c r="Y7" s="27" t="str">
         <f t="shared" si="7"/>
-        <v>insert into  (_NAME) SELECT distinct [FIELDNAME] from [TABLENAME] where [FIELDNAME] IS NOT NULL AND [FIELDNAME] &lt;&gt; 'NA';</v>
+        <v>insert into PRI_PROJ_RES (_NAME) SELECT distinct [FIELDNAME] from [TABLENAME] where [FIELDNAME] IS NOT NULL AND [FIELDNAME] &lt;&gt; 'NA';</v>
       </c>
       <c r="Z7" s="16" t="str">
         <f t="shared" si="13"/>
-        <v>DROP TRIGGER "bi_";</v>
+        <v>DROP TRIGGER "bi_PRI_PROJ_RES";</v>
       </c>
       <c r="AA7" s="28" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">--Define the foreign key reference from [TABLENAME] to  and associate the reference records appropriately
---Populate the foreign key reference on [TABLENAME] to the reference table 
-UPDATE [TABLENAME] SET TEMP_DATA = ,  = NULL;
+        <v xml:space="preserve">--Define the foreign key reference from [TABLENAME] to PRI_PROJ_RES and associate the reference records appropriately
+--Populate the foreign key reference on [TABLENAME] to the reference table PRI_PROJ_RES
+UPDATE [TABLENAME] SET TEMP_DATA = RES_ID, RES_ID = NULL;
 --modify the existing column
 ALTER TABLE [TABLENAME]  
-MODIFY ( NUMBER );
+MODIFY (RES_ID NUMBER );
 --create the foreign key reference index:
-CREATE INDEX [INDEXNAME] ON [TABLENAME] ();
+CREATE INDEX [INDEXNAME] ON [TABLENAME] (RES_ID);
 --create the foreign key constraint:
 ALTER TABLE [TABLENAME]
 ADD CONSTRAINT [FKNAME] FOREIGN KEY
 (
+  RES_ID
 )
-REFERENCES 
+REFERENCES PRI_PROJ_RES
 (
+  RES_ID
 )
 ENABLE;
 --populate the foreign key field with the reference table relationship:
-UPDATE [TABLENAME] SET  = (SELECT  FROM  WHERE _NAME = [TABLENAME].TEMP_DATA);
+UPDATE [TABLENAME] SET RES_ID = (SELECT RES_ID FROM PRI_PROJ_RES WHERE _NAME = [TABLENAME].TEMP_DATA);
 </v>
       </c>
     </row>
     <row r="8" spans="1:27" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
+      <c r="A8" s="19" t="s">
+        <v>133</v>
+      </c>
       <c r="B8" s="16" t="str">
         <f t="shared" si="25"/>
         <v>Yes</v>
       </c>
-      <c r="C8" s="19"/>
+      <c r="C8" s="19" t="s">
+        <v>136</v>
+      </c>
       <c r="D8" s="16" t="str">
         <f t="shared" si="26"/>
         <v>Yes</v>
@@ -2888,71 +3294,71 @@
       <c r="E8" s="19"/>
       <c r="F8" s="16" t="str">
         <f t="shared" si="15"/>
-        <v>_SEQ</v>
+        <v>PRI_RES_SCOPES_SEQ</v>
       </c>
       <c r="G8" s="22" t="str">
         <f t="shared" si="27"/>
-        <v>CREATE SEQUENCE _SEQ INCREMENT BY 1 START WITH 1;</v>
+        <v>CREATE SEQUENCE PRI_RES_SCOPES_SEQ INCREMENT BY 1 START WITH 1;</v>
       </c>
       <c r="H8" s="22" t="str">
         <f t="shared" si="8"/>
-        <v>ALTER TABLE  ADD (CREATE_DATE DATE );</v>
+        <v>ALTER TABLE PRI_RES_SCOPES ADD (CREATE_DATE DATE );</v>
       </c>
       <c r="I8" s="22" t="str">
         <f t="shared" si="9"/>
-        <v>ALTER TABLE  ADD (CREATED_BY VARCHAR2(30) );</v>
+        <v>ALTER TABLE PRI_RES_SCOPES ADD (CREATED_BY VARCHAR2(30) );</v>
       </c>
       <c r="J8" s="22" t="str">
         <f t="shared" si="10"/>
-        <v>ALTER TABLE  ADD (LAST_MOD_DATE DATE );</v>
+        <v>ALTER TABLE PRI_RES_SCOPES ADD (LAST_MOD_DATE DATE );</v>
       </c>
       <c r="K8" s="22" t="str">
         <f t="shared" si="11"/>
-        <v>ALTER TABLE  ADD (LAST_MOD_BY VARCHAR2(30) );</v>
+        <v>ALTER TABLE PRI_RES_SCOPES ADD (LAST_MOD_BY VARCHAR2(30) );</v>
       </c>
       <c r="L8" s="22" t="str">
         <f t="shared" si="16"/>
-        <v>COMMENT ON COLUMN .CREATE_DATE IS 'The date on which this record was created in the database';</v>
+        <v>COMMENT ON COLUMN PRI_RES_SCOPES.CREATE_DATE IS 'The date on which this record was created in the database';</v>
       </c>
       <c r="M8" s="22" t="str">
         <f t="shared" si="17"/>
-        <v>COMMENT ON COLUMN .CREATED_BY IS 'The Oracle username of the person creating this record in the database';</v>
+        <v>COMMENT ON COLUMN PRI_RES_SCOPES.CREATED_BY IS 'The Oracle username of the person creating this record in the database';</v>
       </c>
       <c r="N8" s="22" t="str">
         <f t="shared" si="18"/>
-        <v>COMMENT ON COLUMN .LAST_MOD_DATE IS 'The last date on which any of the data in this record was changed';</v>
+        <v>COMMENT ON COLUMN PRI_RES_SCOPES.LAST_MOD_DATE IS 'The last date on which any of the data in this record was changed';</v>
       </c>
       <c r="O8" s="22" t="str">
         <f t="shared" si="19"/>
-        <v>COMMENT ON COLUMN .LAST_MOD_BY IS 'The Oracle username of the person making the most recent change to this record';</v>
+        <v>COMMENT ON COLUMN PRI_RES_SCOPES.LAST_MOD_BY IS 'The Oracle username of the person making the most recent change to this record';</v>
       </c>
       <c r="P8" s="23" t="str">
         <f t="shared" si="20"/>
-        <v>COMMENT ON TABLE  IS '';</v>
+        <v>COMMENT ON TABLE PRI_RES_SCOPES IS '';</v>
       </c>
       <c r="Q8" s="22" t="str">
         <f t="shared" si="21"/>
-        <v>COMMENT ON COLUMN . IS 'Primary Key for the  table';</v>
+        <v>COMMENT ON COLUMN PRI_RES_SCOPES.RES_SCOPE_ID IS 'Primary Key for the PRI_RES_SCOPES table';</v>
       </c>
       <c r="R8" s="23" t="str">
         <f t="shared" si="22"/>
         <v xml:space="preserve">create or replace TRIGGER 
-_AUTO_BRI 
-before insert on 
+PRI_RES_SCOPES_AUTO_BRI 
+before insert on PRI_RES_SCOPES
 for each row
 begin
-  select _SEQ.nextval into :new. from dual;
+  select PRI_RES_SCOPES_SEQ.nextval into :new.RES_SCOPE_ID from dual;
 end;
 /
 </v>
       </c>
       <c r="S8" s="23" t="str">
         <f t="shared" si="23"/>
-        <v xml:space="preserve">create or replace TRIGGER _AUTO_BRI
-before insert on 
+        <v xml:space="preserve">create or replace TRIGGER PRI_RES_SCOPES_AUTO_BRI
+before insert on PRI_RES_SCOPES
 for each row
 begin
-  select _SEQ.nextval into :new. from dual;
+  select PRI_RES_SCOPES_SEQ.nextval into :new.RES_SCOPE_ID from dual;
   :NEW.CREATE_DATE := SYSDATE;
   :NEW.CREATED_BY := nvl(v('APP_USER'),user);
 end;
@@ -2961,9 +3367,9 @@
       </c>
       <c r="T8" s="23" t="str">
         <f t="shared" si="24"/>
-        <v xml:space="preserve">CREATE OR REPLACE TRIGGER _AUTO_BRU BEFORE
+        <v xml:space="preserve">CREATE OR REPLACE TRIGGER PRI_RES_SCOPES_AUTO_BRU BEFORE
   UPDATE
-    ON  FOR EACH ROW 
+    ON PRI_RES_SCOPES FOR EACH ROW 
     BEGIN 
       :NEW.LAST_MOD_DATE := SYSDATE;
       :NEW.LAST_MOD_BY := nvl(v('APP_USER'),user);
@@ -2971,77 +3377,88 @@
 /
 </v>
       </c>
-      <c r="V8" s="19"/>
-      <c r="W8" s="19"/>
+      <c r="V8" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="W8" s="19" t="s">
+        <v>139</v>
+      </c>
       <c r="X8" s="27" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">CREATE TABLE  
+        <v xml:space="preserve">CREATE TABLE PRI_RES_SCOPES 
 (
-   NUMBER NOT NULL 
-, _CODE VARCHAR2(50) 
-, _NAME VARCHAR2(200) NOT NULL 
-, _DESC VARCHAR2(500) 
-, CONSTRAINT _PK PRIMARY KEY 
+  RES_SCOPE_ID NUMBER NOT NULL 
+, SCOPE_CODE VARCHAR2(50) 
+, SCOPE_NAME VARCHAR2(200) NOT NULL 
+, SCOPE_DESC VARCHAR2(500) 
+, CONSTRAINT PRI_RES_SCOPES_PK PRIMARY KEY 
   (
+    RES_SCOPE_ID 
   )
   ENABLE 
 );
-COMMENT ON COLUMN . IS 'Primary key for the  table';
-COMMENT ON COLUMN ._CODE IS 'Code for the given ';
-COMMENT ON COLUMN ._NAME IS 'Name of the given ';
-COMMENT ON COLUMN ._DESC IS 'Description for the given ';
-COMMENT ON TABLE  IS 'Reference Table for storing  information';
-ALTER TABLE  ADD CONSTRAINT _U1 UNIQUE 
+COMMENT ON COLUMN PRI_RES_SCOPES.RES_SCOPE_ID IS 'Primary key for the Resource Scopes table';
+COMMENT ON COLUMN PRI_RES_SCOPES.SCOPE_CODE IS 'Code for the given Resource Scopes';
+COMMENT ON COLUMN PRI_RES_SCOPES.SCOPE_NAME IS 'Name of the given Resource Scopes';
+COMMENT ON COLUMN PRI_RES_SCOPES.SCOPE_DESC IS 'Description for the given Resource Scopes';
+COMMENT ON TABLE PRI_RES_SCOPES IS 'Reference Table for storing Resource Scopes information';
+ALTER TABLE PRI_RES_SCOPES ADD CONSTRAINT PRI_RES_SCOPES_U1 UNIQUE 
 (
-  _CODE 
+  SCOPE_CODE 
 )
 ENABLE;
-ALTER TABLE  ADD CONSTRAINT _U2 UNIQUE 
+ALTER TABLE PRI_RES_SCOPES ADD CONSTRAINT PRI_RES_SCOPES_U2 UNIQUE 
 (
-  _NAME 
+  SCOPE_NAME 
 )
 ENABLE;
 </v>
       </c>
       <c r="Y8" s="27" t="str">
         <f>CONCATENATE("insert into ", A8, " (", W8, "_NAME) SELECT distinct [FIELDNAME] from [TABLENAME] where [FIELDNAME] IS NOT NULL AND [FIELDNAME] &lt;&gt; 'NA';")</f>
-        <v>insert into  (_NAME) SELECT distinct [FIELDNAME] from [TABLENAME] where [FIELDNAME] IS NOT NULL AND [FIELDNAME] &lt;&gt; 'NA';</v>
+        <v>insert into PRI_RES_SCOPES (SCOPE_NAME) SELECT distinct [FIELDNAME] from [TABLENAME] where [FIELDNAME] IS NOT NULL AND [FIELDNAME] &lt;&gt; 'NA';</v>
       </c>
       <c r="Z8" s="16" t="str">
         <f t="shared" si="13"/>
-        <v>DROP TRIGGER "bi_";</v>
+        <v>DROP TRIGGER "bi_PRI_RES_SCOPES";</v>
       </c>
       <c r="AA8" s="28" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">--Define the foreign key reference from [TABLENAME] to  and associate the reference records appropriately
---Populate the foreign key reference on [TABLENAME] to the reference table 
-UPDATE [TABLENAME] SET TEMP_DATA = ,  = NULL;
+        <v xml:space="preserve">--Define the foreign key reference from [TABLENAME] to PRI_RES_SCOPES and associate the reference records appropriately
+--Populate the foreign key reference on [TABLENAME] to the reference table PRI_RES_SCOPES
+UPDATE [TABLENAME] SET TEMP_DATA = RES_SCOPE_ID, RES_SCOPE_ID = NULL;
 --modify the existing column
 ALTER TABLE [TABLENAME]  
-MODIFY ( NUMBER );
+MODIFY (RES_SCOPE_ID NUMBER );
 --create the foreign key reference index:
-CREATE INDEX [INDEXNAME] ON [TABLENAME] ();
+CREATE INDEX [INDEXNAME] ON [TABLENAME] (RES_SCOPE_ID);
 --create the foreign key constraint:
 ALTER TABLE [TABLENAME]
 ADD CONSTRAINT [FKNAME] FOREIGN KEY
 (
+  RES_SCOPE_ID
 )
-REFERENCES 
+REFERENCES PRI_RES_SCOPES
 (
+  RES_SCOPE_ID
 )
 ENABLE;
 --populate the foreign key field with the reference table relationship:
-UPDATE [TABLENAME] SET  = (SELECT  FROM  WHERE _NAME = [TABLENAME].TEMP_DATA);
+UPDATE [TABLENAME] SET RES_SCOPE_ID = (SELECT RES_SCOPE_ID FROM PRI_RES_SCOPES WHERE SCOPE_NAME = [TABLENAME].TEMP_DATA);
 </v>
       </c>
     </row>
     <row r="9" spans="1:27" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
+      <c r="A9" s="19" t="s">
+        <v>134</v>
+      </c>
       <c r="B9" s="16" t="str">
         <f t="shared" si="25"/>
         <v>Yes</v>
       </c>
-      <c r="C9" s="19"/>
+      <c r="C9" s="19" t="s">
+        <v>135</v>
+      </c>
       <c r="D9" s="16" t="str">
         <f t="shared" si="26"/>
         <v>Yes</v>
@@ -3049,51 +3466,51 @@
       <c r="E9" s="20"/>
       <c r="F9" s="16" t="str">
         <f t="shared" ref="F9" si="28">CONCATENATE(A9, "_SEQ")</f>
-        <v>_SEQ</v>
+        <v>PRI_RES_TYPES_SEQ</v>
       </c>
       <c r="G9" s="22" t="str">
         <f t="shared" ref="G9" si="29">CONCATENATE("CREATE SEQUENCE ",F9," INCREMENT BY 1 START WITH 1;")</f>
-        <v>CREATE SEQUENCE _SEQ INCREMENT BY 1 START WITH 1;</v>
+        <v>CREATE SEQUENCE PRI_RES_TYPES_SEQ INCREMENT BY 1 START WITH 1;</v>
       </c>
       <c r="H9" s="22" t="str">
         <f t="shared" ref="H9" si="30">CONCATENATE("ALTER TABLE ", A9, " ADD (CREATE_DATE DATE );")</f>
-        <v>ALTER TABLE  ADD (CREATE_DATE DATE );</v>
+        <v>ALTER TABLE PRI_RES_TYPES ADD (CREATE_DATE DATE );</v>
       </c>
       <c r="I9" s="22" t="str">
         <f t="shared" ref="I9" si="31">CONCATENATE("ALTER TABLE ",A9, " ADD (CREATED_BY VARCHAR2(30) );")</f>
-        <v>ALTER TABLE  ADD (CREATED_BY VARCHAR2(30) );</v>
+        <v>ALTER TABLE PRI_RES_TYPES ADD (CREATED_BY VARCHAR2(30) );</v>
       </c>
       <c r="J9" s="22" t="str">
         <f t="shared" ref="J9" si="32">CONCATENATE("ALTER TABLE ",A9, " ADD (LAST_MOD_DATE DATE );")</f>
-        <v>ALTER TABLE  ADD (LAST_MOD_DATE DATE );</v>
+        <v>ALTER TABLE PRI_RES_TYPES ADD (LAST_MOD_DATE DATE );</v>
       </c>
       <c r="K9" s="22" t="str">
         <f t="shared" ref="K9" si="33">CONCATENATE("ALTER TABLE ", A9, " ADD (LAST_MOD_BY VARCHAR2(30) );")</f>
-        <v>ALTER TABLE  ADD (LAST_MOD_BY VARCHAR2(30) );</v>
+        <v>ALTER TABLE PRI_RES_TYPES ADD (LAST_MOD_BY VARCHAR2(30) );</v>
       </c>
       <c r="L9" s="22" t="str">
         <f t="shared" ref="L9" si="34">CONCATENATE("COMMENT ON COLUMN ",A9, ".CREATE_DATE IS 'The date on which this record was created in the database';")</f>
-        <v>COMMENT ON COLUMN .CREATE_DATE IS 'The date on which this record was created in the database';</v>
+        <v>COMMENT ON COLUMN PRI_RES_TYPES.CREATE_DATE IS 'The date on which this record was created in the database';</v>
       </c>
       <c r="M9" s="22" t="str">
         <f t="shared" ref="M9" si="35">CONCATENATE("COMMENT ON COLUMN ",A9,".CREATED_BY IS 'The Oracle username of the person creating this record in the database';")</f>
-        <v>COMMENT ON COLUMN .CREATED_BY IS 'The Oracle username of the person creating this record in the database';</v>
+        <v>COMMENT ON COLUMN PRI_RES_TYPES.CREATED_BY IS 'The Oracle username of the person creating this record in the database';</v>
       </c>
       <c r="N9" s="22" t="str">
         <f t="shared" ref="N9" si="36">CONCATENATE("COMMENT ON COLUMN ", A9, ".LAST_MOD_DATE IS 'The last date on which any of the data in this record was changed';")</f>
-        <v>COMMENT ON COLUMN .LAST_MOD_DATE IS 'The last date on which any of the data in this record was changed';</v>
+        <v>COMMENT ON COLUMN PRI_RES_TYPES.LAST_MOD_DATE IS 'The last date on which any of the data in this record was changed';</v>
       </c>
       <c r="O9" s="22" t="str">
         <f t="shared" ref="O9" si="37">CONCATENATE("COMMENT ON COLUMN ", A9, ".LAST_MOD_BY IS 'The Oracle username of the person making the most recent change to this record';")</f>
-        <v>COMMENT ON COLUMN .LAST_MOD_BY IS 'The Oracle username of the person making the most recent change to this record';</v>
+        <v>COMMENT ON COLUMN PRI_RES_TYPES.LAST_MOD_BY IS 'The Oracle username of the person making the most recent change to this record';</v>
       </c>
       <c r="P9" s="23" t="str">
         <f t="shared" ref="P9" si="38">CONCATENATE("COMMENT ON TABLE ", A9, " IS '", SUBSTITUTE(E9, "'", "''"), "';")</f>
-        <v>COMMENT ON TABLE  IS '';</v>
+        <v>COMMENT ON TABLE PRI_RES_TYPES IS '';</v>
       </c>
       <c r="Q9" s="22" t="str">
         <f t="shared" ref="Q9" si="39">CONCATENATE("COMMENT ON COLUMN ", A9, ".", C9, " IS 'Primary Key for the ", A9, " table';")</f>
-        <v>COMMENT ON COLUMN . IS 'Primary Key for the  table';</v>
+        <v>COMMENT ON COLUMN PRI_RES_TYPES.RES_TYPE_ID IS 'Primary Key for the PRI_RES_TYPES table';</v>
       </c>
       <c r="R9" s="23" t="str">
         <f t="shared" ref="R9" si="40">CONCATENATE("create or replace TRIGGER 
@@ -3106,11 +3523,11 @@
 /
 ")</f>
         <v xml:space="preserve">create or replace TRIGGER 
-_AUTO_BRI 
-before insert on 
+PRI_RES_TYPES_AUTO_BRI 
+before insert on PRI_RES_TYPES
 for each row
 begin
-  select _SEQ.nextval into :new. from dual;
+  select PRI_RES_TYPES_SEQ.nextval into :new.RES_TYPE_ID from dual;
 end;
 /
 </v>
@@ -3126,11 +3543,11 @@
 end;
 /
 ")</f>
-        <v xml:space="preserve">create or replace TRIGGER _AUTO_BRI
-before insert on 
+        <v xml:space="preserve">create or replace TRIGGER PRI_RES_TYPES_AUTO_BRI
+before insert on PRI_RES_TYPES
 for each row
 begin
-  select _SEQ.nextval into :new. from dual;
+  select PRI_RES_TYPES_SEQ.nextval into :new.RES_TYPE_ID from dual;
   :NEW.CREATE_DATE := SYSDATE;
   :NEW.CREATED_BY := nvl(v('APP_USER'),user);
 end;
@@ -3147,9 +3564,9 @@
 END;
 /
 ")</f>
-        <v xml:space="preserve">CREATE OR REPLACE TRIGGER _AUTO_BRU BEFORE
+        <v xml:space="preserve">CREATE OR REPLACE TRIGGER PRI_RES_TYPES_AUTO_BRU BEFORE
   UPDATE
-    ON  FOR EACH ROW 
+    ON PRI_RES_TYPES FOR EACH ROW 
     BEGIN 
       :NEW.LAST_MOD_DATE := SYSDATE;
       :NEW.LAST_MOD_BY := nvl(v('APP_USER'),user);
@@ -3157,8 +3574,12 @@
 /
 </v>
       </c>
-      <c r="V9" s="19"/>
-      <c r="W9" s="19"/>
+      <c r="V9" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="W9" s="19" t="s">
+        <v>140</v>
+      </c>
       <c r="X9" s="27" t="str">
         <f t="shared" ref="X9" si="43">CONCATENATE("CREATE TABLE ", A9, " 
 (
@@ -3188,41 +3609,42 @@
 )
 ENABLE;
 ")</f>
-        <v xml:space="preserve">CREATE TABLE  
+        <v xml:space="preserve">CREATE TABLE PRI_RES_TYPES 
 (
-   NUMBER NOT NULL 
-, _CODE VARCHAR2(50) 
-, _NAME VARCHAR2(200) NOT NULL 
-, _DESC VARCHAR2(500) 
-, CONSTRAINT _PK PRIMARY KEY 
+  RES_TYPE_ID NUMBER NOT NULL 
+, TYPE_CODE VARCHAR2(50) 
+, TYPE_NAME VARCHAR2(200) NOT NULL 
+, TYPE_DESC VARCHAR2(500) 
+, CONSTRAINT PRI_RES_TYPES_PK PRIMARY KEY 
   (
+    RES_TYPE_ID 
   )
   ENABLE 
 );
-COMMENT ON COLUMN . IS 'Primary key for the  table';
-COMMENT ON COLUMN ._CODE IS 'Code for the given ';
-COMMENT ON COLUMN ._NAME IS 'Name of the given ';
-COMMENT ON COLUMN ._DESC IS 'Description for the given ';
-COMMENT ON TABLE  IS 'Reference Table for storing  information';
-ALTER TABLE  ADD CONSTRAINT _U1 UNIQUE 
+COMMENT ON COLUMN PRI_RES_TYPES.RES_TYPE_ID IS 'Primary key for the Resource Types table';
+COMMENT ON COLUMN PRI_RES_TYPES.TYPE_CODE IS 'Code for the given Resource Types';
+COMMENT ON COLUMN PRI_RES_TYPES.TYPE_NAME IS 'Name of the given Resource Types';
+COMMENT ON COLUMN PRI_RES_TYPES.TYPE_DESC IS 'Description for the given Resource Types';
+COMMENT ON TABLE PRI_RES_TYPES IS 'Reference Table for storing Resource Types information';
+ALTER TABLE PRI_RES_TYPES ADD CONSTRAINT PRI_RES_TYPES_U1 UNIQUE 
 (
-  _CODE 
+  TYPE_CODE 
 )
 ENABLE;
-ALTER TABLE  ADD CONSTRAINT _U2 UNIQUE 
+ALTER TABLE PRI_RES_TYPES ADD CONSTRAINT PRI_RES_TYPES_U2 UNIQUE 
 (
-  _NAME 
+  TYPE_NAME 
 )
 ENABLE;
 </v>
       </c>
       <c r="Y9" s="27" t="str">
         <f>CONCATENATE("insert into ", A9, " (", W9, "_NAME) SELECT distinct [FIELDNAME] from [TABLENAME] where [FIELDNAME] IS NOT NULL AND [FIELDNAME] &lt;&gt; 'NA';")</f>
-        <v>insert into  (_NAME) SELECT distinct [FIELDNAME] from [TABLENAME] where [FIELDNAME] IS NOT NULL AND [FIELDNAME] &lt;&gt; 'NA';</v>
+        <v>insert into PRI_RES_TYPES (TYPE_NAME) SELECT distinct [FIELDNAME] from [TABLENAME] where [FIELDNAME] IS NOT NULL AND [FIELDNAME] &lt;&gt; 'NA';</v>
       </c>
       <c r="Z9" s="16" t="str">
         <f t="shared" ref="Z9" si="44">CONCATENATE("DROP TRIGGER ""bi_", A9, """;")</f>
-        <v>DROP TRIGGER "bi_";</v>
+        <v>DROP TRIGGER "bi_PRI_RES_TYPES";</v>
       </c>
       <c r="AA9" s="28" t="str">
         <f t="shared" ref="AA9" si="45">CONCATENATE("--Define the foreign key reference from [TABLENAME] to ", A9, " and associate the reference records appropriately
@@ -3247,25 +3669,27 @@
 --populate the foreign key field with the reference table relationship:
 UPDATE [TABLENAME] SET ", C9, " = (SELECT ", C9, " FROM ", A9, " WHERE ", W9, "_NAME = [TABLENAME].TEMP_DATA);
 ")</f>
-        <v xml:space="preserve">--Define the foreign key reference from [TABLENAME] to  and associate the reference records appropriately
---Populate the foreign key reference on [TABLENAME] to the reference table 
-UPDATE [TABLENAME] SET TEMP_DATA = ,  = NULL;
+        <v xml:space="preserve">--Define the foreign key reference from [TABLENAME] to PRI_RES_TYPES and associate the reference records appropriately
+--Populate the foreign key reference on [TABLENAME] to the reference table PRI_RES_TYPES
+UPDATE [TABLENAME] SET TEMP_DATA = RES_TYPE_ID, RES_TYPE_ID = NULL;
 --modify the existing column
 ALTER TABLE [TABLENAME]  
-MODIFY ( NUMBER );
+MODIFY (RES_TYPE_ID NUMBER );
 --create the foreign key reference index:
-CREATE INDEX [INDEXNAME] ON [TABLENAME] ();
+CREATE INDEX [INDEXNAME] ON [TABLENAME] (RES_TYPE_ID);
 --create the foreign key constraint:
 ALTER TABLE [TABLENAME]
 ADD CONSTRAINT [FKNAME] FOREIGN KEY
 (
+  RES_TYPE_ID
 )
-REFERENCES 
+REFERENCES PRI_RES_TYPES
 (
+  RES_TYPE_ID
 )
 ENABLE;
 --populate the foreign key field with the reference table relationship:
-UPDATE [TABLENAME] SET  = (SELECT  FROM  WHERE _NAME = [TABLENAME].TEMP_DATA);
+UPDATE [TABLENAME] SET RES_TYPE_ID = (SELECT RES_TYPE_ID FROM PRI_RES_TYPES WHERE TYPE_NAME = [TABLENAME].TEMP_DATA);
 </v>
       </c>
     </row>
@@ -4085,15 +4509,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2806"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D39" sqref="D18:D39"/>
+    <sheetView tabSelected="1" topLeftCell="A239" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C253" sqref="C253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32" style="19" customWidth="1"/>
     <col min="2" max="2" width="37" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="73.5703125" style="19" customWidth="1"/>
+    <col min="3" max="3" width="134.42578125" style="19" customWidth="1"/>
     <col min="4" max="4" width="50" style="22" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4122,7 +4546,7 @@
         <v>58</v>
       </c>
       <c r="D2" s="11" t="str">
-        <f t="shared" ref="D2:D40" si="0">CONCATENATE("COMMENT ON COLUMN ",A2, ".", B2, " IS '", SUBSTITUTE(C2, "'", "''"), "';")</f>
+        <f t="shared" ref="D2:D50" si="0">CONCATENATE("COMMENT ON COLUMN ",A2, ".", B2, " IS '", SUBSTITUTE(C2, "'", "''"), "';")</f>
         <v>COMMENT ON COLUMN TABLE_A.FIELD_B IS 'Primary key for the TABLE_A table';</v>
       </c>
     </row>
@@ -4646,46 +5070,1354 @@
       </c>
     </row>
     <row r="42" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="19"/>
-      <c r="B42" s="19"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="22"/>
+      <c r="A42" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="B42" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="D42" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_RES.RES_ID IS 'Primary key for the PRI_PROJ_RES table';</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="B43" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="D43" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_RES.PROJ_ID IS 'Foreign key reference to the project record';</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="B44" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="D44" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_RES.RES_CATEGORY IS 'The resource category (free form text) - examples values include Development Tool, Data Management Tool, Centralized Database Applications';</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="B45" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="D45" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_RES.RES_SCOPE_ID IS 'Foreign key reference to the resource scope';</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="B46" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="C46" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="D46" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_RES.RES_TYPE_ID IS 'Foreign key reference to the resource type';</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="B47" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="D47" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_RES.RES_TAG_CONV IS 'Tag Naming convention used to identify the given project resource''s version';</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="B48" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="C48" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="D48" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_RES.RES_NAME IS 'The name of the project resource';</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="B49" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="C49" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="D49" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_RES.RES_COLOR_CODE IS 'The color code for the project resource';</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="B50" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="C50" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="D50" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_RES.RES_URL IS 'The URL for the project resource (this is blank when the repository URL is the same as the resource URL)';</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="B54" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="C54" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="D54" s="22" t="str">
+        <f t="shared" ref="D54:D68" si="1">CONCATENATE("COMMENT ON COLUMN ",A54, ".", B54, " IS '", SUBSTITUTE(C54, "'", "''"), "';")</f>
+        <v>COMMENT ON COLUMN PRI_PROJ_RES_V.RES_ID IS 'Primary key for the PRI_PROJ_RES table';</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="B55" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C55" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="D55" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_RES_V.PROJ_ID IS 'Foreign key reference to the project record';</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="B56" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="C56" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="D56" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_RES_V.RES_CATEGORY IS 'The resource category (free form text) - examples values include Development Tool, Data Management Tool, Centralized Database Applications';</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="B57" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="C57" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="D57" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_RES_V.RES_SCOPE_ID IS 'Foreign key reference to the resource scope';</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="B58" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="C58" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="D58" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_RES_V.RES_TYPE_ID IS 'Foreign key reference to the resource type';</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="B59" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="C59" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="D59" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_RES_V.RES_TAG_CONV IS 'Tag Naming convention used to identify the given project resource''s version.  The suffix is required to be a series of period-delimited numbers (e.g. for a naming convention of db_module_packager_v the tag value of db_module_packager_v1.13.4 is valid)';</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="B60" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="C60" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="D60" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_RES_V.RES_NAME IS 'The name of the project resource';</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="B61" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="C61" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="D61" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_RES_V.RES_COLOR_CODE IS 'The color code for the project resource';</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="B62" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="C62" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="D62" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_RES_V.RES_URL IS 'The URL for the project resource (this is blank when the repository URL is the same as the resource URL)';</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="B63" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="C63" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="D63" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_RES_V.RES_SCOPE_CODE IS 'Code for the given Resource Scope';</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="B64" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="C64" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="D64" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_RES_V.RES_SCOPE_NAME IS 'Name of the given Resource Scope';</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="B65" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="C65" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="D65" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_RES_V.RES_SCOPE_DESC IS 'Description for the given Resource Scope';</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="B66" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="C66" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="D66" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_RES_V.RES_TYPE_CODE IS 'Code for the given Resource Type';</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="B67" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="C67" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="D67" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_RES_V.RES_TYPE_NAME IS 'Name of the given Resource Type';</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="B68" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="C68" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="D68" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_RES_V.RES_TYPE_DESC IS 'Description for the given Resource Type';</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B74" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C74" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="D74" s="22" t="str">
+        <f t="shared" ref="D74:D100" si="2">CONCATENATE("COMMENT ON COLUMN ",A74, ".", B74, " IS '", SUBSTITUTE(C74, "'", "''"), "';")</f>
+        <v>COMMENT ON COLUMN PRI_PROJ_V.PROJ_ID IS 'Primary key for the PRI_PROJ table';</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B75" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C75" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D75" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_V.VC_PROJ_ID IS 'Unique numeric ID of the project in the given version control system';</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B76" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C76" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D76" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_V.PROJ_NAME IS 'Name of the project';</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B77" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C77" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D77" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_V.PROJ_DESC IS 'Description of the project';</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B78" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C78" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D78" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_V.SSH_URL IS 'SSH URL for the project';</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B79" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C79" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D79" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_V.HTTP_URL IS 'HTTP URL for the project';</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B80" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C80" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D80" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_V.README_URL IS 'Readme URL for the project';</v>
+      </c>
     </row>
     <row r="81" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="19"/>
-      <c r="B81" s="19"/>
-      <c r="C81" s="19"/>
-      <c r="D81" s="22"/>
+      <c r="A81" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B81" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C81" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="D81" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_V.AVATAR_URL IS 'Avatar URL for the project';</v>
+      </c>
     </row>
     <row r="82" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="19"/>
-      <c r="B82" s="19"/>
-      <c r="C82" s="19"/>
-      <c r="D82" s="22"/>
+      <c r="A82" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B82" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C82" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="D82" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_V.PROJ_CREATE_DTM IS 'The date/time the project was created';</v>
+      </c>
     </row>
     <row r="83" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="19"/>
-      <c r="B83" s="19"/>
-      <c r="C83" s="19"/>
-      <c r="D83" s="22"/>
+      <c r="A83" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B83" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C83" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="D83" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_V.PROJ_UPDATE_DTM IS 'The date/time the project was last updated';</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B84" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="C84" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="D84" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_V.PROJ_VISIBILITY IS 'The visibility for the project (public, internal, private)';</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B85" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="C85" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="D85" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_V.PROJ_NAME_SPACE IS 'project name including the namespace prefix';</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B86" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C86" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="D86" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_V.PROJ_SOURCE IS 'the source of the project record (e.g. PIFSC GitLab, GitHub, manual entry)';</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B87" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="C87" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="D87" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_V.RES_ID IS 'Primary key for the PRI_PROJ_RES table';</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B88" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="C88" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="D88" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_V.RES_CATEGORY IS 'The resource category (free form text) - examples values include Development Tool, Data Management Tool, Centralized Database Applications';</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B89" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="C89" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="D89" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_V.RES_TAG_CONV IS 'Tag Naming convention used to identify the given project resource''s version.  The suffix is required to be a series of period-delimited numbers (e.g. for a naming convention of db_module_packager_v the tag value of db_module_packager_v1.13.4 is valid)';</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B90" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="C90" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="D90" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_V.RES_NAME IS 'The name of the project resource';</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B91" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="C91" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="D91" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_V.RES_COLOR_CODE IS 'The color code for the project resource';</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B92" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="C92" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="D92" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_V.RES_URL IS 'The URL for the project resource (this is blank when the repository URL is the same as the resource URL)';</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B93" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="C93" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="D93" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_V.RES_SCOPE_ID IS 'Foreign key reference to the resource scope';</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B94" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="C94" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="D94" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_V.RES_SCOPE_CODE IS 'Code for the given Resource Scope';</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B95" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="C95" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="D95" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_V.RES_SCOPE_NAME IS 'Name of the given Resource Scope';</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B96" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="C96" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="D96" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_V.RES_SCOPE_DESC IS 'Description for the given Resource Scope';</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B97" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="C97" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="D97" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_V.RES_TYPE_ID IS 'Foreign key reference to the resource type';</v>
+      </c>
     </row>
     <row r="98" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="19"/>
-      <c r="B98" s="19"/>
-      <c r="C98" s="19"/>
-      <c r="D98" s="22"/>
+      <c r="A98" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B98" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="C98" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="D98" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_V.RES_TYPE_CODE IS 'Code for the given Resource Type';</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B99" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="C99" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="D99" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_V.RES_TYPE_NAME IS 'Name of the given Resource Type';</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B100" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="C100" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="D100" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_V.RES_TYPE_DESC IS 'Description for the given Resource Type';</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="B103" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C103" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="D103" s="22" t="str">
+        <f t="shared" ref="D103:D143" si="3">CONCATENATE("COMMENT ON COLUMN ",A103, ".", B103, " IS '", SUBSTITUTE(C103, "'", "''"), "';")</f>
+        <v>COMMENT ON COLUMN PRI_PROJ_MAX_VERS_V.PROJ_ID IS 'Primary key for the PRI_PROJ table';</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="B104" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C104" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D104" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_MAX_VERS_V.VC_PROJ_ID IS 'Unique numeric ID of the project in the given version control system';</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="B105" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C105" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D105" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_MAX_VERS_V.PROJ_NAME IS 'Name of the project';</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="B106" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C106" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D106" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_MAX_VERS_V.PROJ_DESC IS 'Description of the project';</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="B107" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C107" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D107" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_MAX_VERS_V.SSH_URL IS 'SSH URL for the project';</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="B108" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C108" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D108" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_MAX_VERS_V.HTTP_URL IS 'HTTP URL for the project';</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="B109" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C109" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D109" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_MAX_VERS_V.README_URL IS 'Readme URL for the project';</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="B110" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C110" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="D110" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_MAX_VERS_V.AVATAR_URL IS 'Avatar URL for the project';</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="B111" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C111" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="D111" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_MAX_VERS_V.PROJ_CREATE_DTM IS 'The date/time the project was created';</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="B112" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C112" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="D112" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_MAX_VERS_V.PROJ_UPDATE_DTM IS 'The date/time the project was last updated';</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="B113" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="C113" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="D113" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_MAX_VERS_V.PROJ_VISIBILITY IS 'The visibility for the project (public, internal, private)';</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="B114" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="C114" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="D114" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_MAX_VERS_V.PROJ_NAME_SPACE IS 'project name including the namespace prefix';</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="B115" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C115" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="D115" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_MAX_VERS_V.PROJ_SOURCE IS 'the source of the project record (e.g. PIFSC GitLab, GitHub, manual entry)';</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="B116" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="C116" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="D116" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_MAX_VERS_V.RES_ID IS 'Primary key for the PRI_PROJ_RES table';</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="B117" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="C117" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="D117" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_MAX_VERS_V.RES_CATEGORY IS 'The resource category (free form text) - examples values include Development Tool, Data Management Tool, Centralized Database Applications';</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="B118" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="C118" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="D118" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_MAX_VERS_V.RES_TAG_CONV IS 'Tag Naming convention used to identify the given project resource''s version.  The suffix is required to be a series of period-delimited numbers (e.g. for a naming convention of db_module_packager_v the tag value of db_module_packager_v1.13.4 is valid)';</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="B119" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="C119" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="D119" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_MAX_VERS_V.RES_NAME IS 'The name of the project resource';</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="B120" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="C120" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="D120" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_MAX_VERS_V.RES_COLOR_CODE IS 'The color code for the project resource';</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="B121" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="C121" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="D121" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_MAX_VERS_V.RES_URL IS 'The URL for the project resource (this is blank when the repository URL is the same as the resource URL)';</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="B122" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="C122" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="D122" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_MAX_VERS_V.RES_SCOPE_ID IS 'Foreign key reference to the resource scope';</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="B123" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="C123" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="D123" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_MAX_VERS_V.RES_SCOPE_CODE IS 'Code for the given Resource Scope';</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="B124" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="C124" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="D124" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_MAX_VERS_V.RES_SCOPE_NAME IS 'Name of the given Resource Scope';</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="B125" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="C125" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="D125" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_MAX_VERS_V.RES_SCOPE_DESC IS 'Description for the given Resource Scope';</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="B126" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="C126" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="D126" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_MAX_VERS_V.RES_TYPE_ID IS 'Foreign key reference to the resource type';</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="B127" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="C127" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="D127" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_MAX_VERS_V.RES_TYPE_CODE IS 'Code for the given Resource Type';</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="B128" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="C128" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="D128" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_MAX_VERS_V.RES_TYPE_NAME IS 'Name of the given Resource Type';</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="B129" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="C129" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="D129" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_MAX_VERS_V.RES_TYPE_DESC IS 'Description for the given Resource Type';</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="B130" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="C130" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="D130" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_MAX_VERS_V.MAX_TAG_AUTHOR IS 'The author of the commit for the current version of the resource';</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="B131" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="C131" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="D131" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_MAX_VERS_V.MAX_TAG_DTM IS 'The date/time of the commit for the current version of the resource';</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="B132" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="C132" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="D132" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_MAX_VERS_V.MAX_TAG_NAME IS 'The tag name of the commit for the current version of the resource';</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="B133" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="C133" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="D133" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_MAX_VERS_V.MAX_VERS_NUM IS 'The parsed version number of the commit for the current version of the resource';</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="B136" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C136" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="D136" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>COMMENT ON COLUMN PRI_RES_TAG_VERS_V.PROJ_ID IS 'Primary key for the PRI_PROJ table';</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="B137" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="C137" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="D137" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>COMMENT ON COLUMN PRI_RES_TAG_VERS_V.RES_ID IS 'Primary key for the PRI_PROJ_RES table';</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="B138" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="C138" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="D138" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>COMMENT ON COLUMN PRI_RES_TAG_VERS_V.RES_NAME IS 'The name of the project resource';</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="B139" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="C139" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="D139" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>COMMENT ON COLUMN PRI_RES_TAG_VERS_V.RES_TAG_CONV IS 'Tag Naming convention used to identify the given project resource''s version.  The suffix is required to be a series of period-delimited numbers (e.g. for a naming convention of db_module_packager_v the tag value of db_module_packager_v1.13.4 is valid)';</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="B140" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C140" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="D140" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>COMMENT ON COLUMN PRI_RES_TAG_VERS_V.TAG_ID IS 'Primary key for the PRI_PROJ_TAGS table';</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="B141" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="C141" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="D141" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>COMMENT ON COLUMN PRI_RES_TAG_VERS_V.TAG_NAME IS 'The name of the Git tag';</v>
+      </c>
     </row>
     <row r="142" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="19"/>
-      <c r="B142" s="19"/>
-      <c r="C142" s="19"/>
-      <c r="D142" s="22"/>
+      <c r="A142" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="B142" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="C142" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="D142" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>COMMENT ON COLUMN PRI_RES_TAG_VERS_V.VERS_NUM IS 'The parsed version number of the commit for the defined tag naming conventions for the corresponding resource';</v>
+      </c>
     </row>
     <row r="143" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="19"/>
-      <c r="B143" s="19"/>
-      <c r="C143" s="19"/>
-      <c r="D143" s="22"/>
+      <c r="A143" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="B143" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="C143" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="D143" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>COMMENT ON COLUMN PRI_RES_TAG_VERS_V.VERS_NUM_SCORE IS 'The version number score for the parsed version number of the commit for the defined tag naming conventions for the corresponding resource.  This number is used to determine the maximum (current) version of the resource';</v>
+      </c>
     </row>
     <row r="144" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="19"/>
@@ -4730,238 +6462,1912 @@
       <c r="D150" s="22"/>
     </row>
     <row r="151" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="19"/>
-      <c r="B151" s="19"/>
+      <c r="A151" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B151" s="19" t="s">
+        <v>72</v>
+      </c>
       <c r="C151" s="19"/>
-      <c r="D151" s="22"/>
+      <c r="D151" s="22" t="str">
+        <f t="shared" ref="D151:D177" si="4">CONCATENATE("COMMENT ON COLUMN ",A151, ".", B151, " IS '", SUBSTITUTE(C151, "'", "''"), "';")</f>
+        <v>COMMENT ON COLUMN PRI_PROJ_V.PROJ_ID IS '';</v>
+      </c>
     </row>
     <row r="152" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="19"/>
-      <c r="B152" s="19"/>
+      <c r="A152" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B152" s="19" t="s">
+        <v>73</v>
+      </c>
       <c r="C152" s="19"/>
-      <c r="D152" s="22"/>
+      <c r="D152" s="22" t="str">
+        <f t="shared" si="4"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_V.VC_PROJ_ID IS '';</v>
+      </c>
     </row>
     <row r="153" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="19"/>
-      <c r="B153" s="19"/>
+      <c r="A153" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B153" s="19" t="s">
+        <v>74</v>
+      </c>
       <c r="C153" s="19"/>
-      <c r="D153" s="22"/>
+      <c r="D153" s="22" t="str">
+        <f t="shared" si="4"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_V.PROJ_NAME IS '';</v>
+      </c>
     </row>
     <row r="154" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="19"/>
-      <c r="B154" s="19"/>
+      <c r="A154" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B154" s="19" t="s">
+        <v>75</v>
+      </c>
       <c r="C154" s="19"/>
-      <c r="D154" s="22"/>
+      <c r="D154" s="22" t="str">
+        <f t="shared" si="4"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_V.PROJ_DESC IS '';</v>
+      </c>
     </row>
     <row r="155" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="19"/>
-      <c r="B155" s="19"/>
+      <c r="A155" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B155" s="19" t="s">
+        <v>76</v>
+      </c>
       <c r="C155" s="19"/>
-      <c r="D155" s="22"/>
+      <c r="D155" s="22" t="str">
+        <f t="shared" si="4"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_V.SSH_URL IS '';</v>
+      </c>
     </row>
     <row r="156" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="19"/>
-      <c r="B156" s="19"/>
+      <c r="A156" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B156" s="19" t="s">
+        <v>77</v>
+      </c>
       <c r="C156" s="19"/>
-      <c r="D156" s="22"/>
+      <c r="D156" s="22" t="str">
+        <f t="shared" si="4"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_V.HTTP_URL IS '';</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B157" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="D157" s="22" t="str">
+        <f t="shared" si="4"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_V.README_URL IS '';</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B158" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D158" s="22" t="str">
+        <f t="shared" si="4"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_V.AVATAR_URL IS '';</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B159" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D159" s="22" t="str">
+        <f t="shared" si="4"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_V.PROJ_CREATE_DTM IS '';</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B160" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D160" s="22" t="str">
+        <f t="shared" si="4"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_V.PROJ_UPDATE_DTM IS '';</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B161" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="D161" s="22" t="str">
+        <f t="shared" si="4"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_V.PROJ_VISIBILITY IS '';</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B162" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="D162" s="22" t="str">
+        <f t="shared" si="4"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_V.PROJ_NAME_SPACE IS '';</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B163" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D163" s="22" t="str">
+        <f t="shared" si="4"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_V.PROJ_SOURCE IS '';</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B164" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="D164" s="22" t="str">
+        <f t="shared" si="4"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_V.RES_ID IS '';</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B165" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="D165" s="22" t="str">
+        <f t="shared" si="4"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_V.RES_CATEGORY IS '';</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B166" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="D166" s="22" t="str">
+        <f t="shared" si="4"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_V.RES_TAG_CONV IS '';</v>
+      </c>
     </row>
     <row r="167" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="19"/>
-      <c r="B167" s="19"/>
+      <c r="A167" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B167" s="19" t="s">
+        <v>123</v>
+      </c>
       <c r="C167" s="19"/>
-      <c r="D167" s="22"/>
+      <c r="D167" s="22" t="str">
+        <f t="shared" si="4"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_V.RES_NAME IS '';</v>
+      </c>
     </row>
     <row r="168" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="19"/>
-      <c r="B168" s="19"/>
+      <c r="A168" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B168" s="19" t="s">
+        <v>124</v>
+      </c>
       <c r="C168" s="19"/>
-      <c r="D168" s="22"/>
+      <c r="D168" s="22" t="str">
+        <f t="shared" si="4"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_V.RES_COLOR_CODE IS '';</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B169" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="D169" s="22" t="str">
+        <f t="shared" si="4"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_V.RES_URL IS '';</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B170" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="D170" s="22" t="str">
+        <f t="shared" si="4"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_V.RES_SCOPE_ID IS '';</v>
+      </c>
     </row>
     <row r="171" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="19"/>
-      <c r="B171" s="19"/>
+      <c r="A171" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B171" s="19" t="s">
+        <v>143</v>
+      </c>
       <c r="C171" s="19"/>
-      <c r="D171" s="22"/>
+      <c r="D171" s="22" t="str">
+        <f t="shared" si="4"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_V.RES_SCOPE_CODE IS '';</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B172" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="D172" s="22" t="str">
+        <f t="shared" si="4"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_V.RES_SCOPE_NAME IS '';</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B173" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="D173" s="22" t="str">
+        <f t="shared" si="4"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_V.RES_SCOPE_DESC IS '';</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B174" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="D174" s="22" t="str">
+        <f t="shared" si="4"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_V.RES_TYPE_ID IS '';</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B175" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="D175" s="22" t="str">
+        <f t="shared" si="4"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_V.RES_TYPE_CODE IS '';</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B176" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="D176" s="22" t="str">
+        <f t="shared" si="4"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_V.RES_TYPE_NAME IS '';</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B177" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="D177" s="22" t="str">
+        <f t="shared" si="4"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_V.RES_TYPE_DESC IS '';</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="B183" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C183" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="D183" s="22" t="str">
+        <f t="shared" ref="D183:D235" si="5">CONCATENATE("COMMENT ON COLUMN ",A183, ".", B183, " IS '", SUBSTITUTE(C183, "'", "''"), "';")</f>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_V.PROJ_ID IS 'Primary key for the PRI_PROJ table';</v>
+      </c>
     </row>
     <row r="184" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="19"/>
-      <c r="B184" s="19"/>
-      <c r="C184" s="19"/>
-      <c r="D184" s="22"/>
+      <c r="A184" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="B184" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C184" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D184" s="22" t="str">
+        <f t="shared" si="5"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_V.PROJ_NAME IS 'Name of the project';</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="B185" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="C185" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="D185" s="22" t="str">
+        <f t="shared" si="5"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_V.RES_NAME IS 'The name of the project resource';</v>
+      </c>
     </row>
     <row r="186" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="19"/>
-      <c r="B186" s="19"/>
-      <c r="C186" s="19"/>
-      <c r="D186" s="22"/>
+      <c r="A186" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="B186" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="C186" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="D186" s="22" t="str">
+        <f t="shared" si="5"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_V.RES_MAX_VERS_NUM IS 'The parsed version number for the maximum installed version of the given resource';</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="B187" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="C187" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="D187" s="22" t="str">
+        <f t="shared" si="5"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_V.CURR_VERS_COUNT IS 'The number of projects that have implemented the given resource that are the same as the current version';</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="B188" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="C188" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="D188" s="22" t="str">
+        <f t="shared" si="5"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_V.OLD_VERS_COUNT IS 'The number of projects that have implemented the given resource that are not the same as the current version';</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="B189" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="C189" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="D189" s="22" t="str">
+        <f t="shared" si="5"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_V.TOTAL_IMPL_PROJ IS 'The total number of projects that have implemented the given resource';</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="B190" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="C190" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="D190" s="22" t="str">
+        <f t="shared" si="5"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_V.ASSOC_PROJ_CD_LIST IS 'A comma-delimited list of projects and associated highest version number that have implemented the given resource';</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="B191" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C191" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="D191" s="22" t="str">
+        <f t="shared" si="5"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_V.PROJ_ID IS 'Primary key for the PRI_PROJ table';</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="B192" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C192" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D192" s="22" t="str">
+        <f t="shared" si="5"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_V.VC_PROJ_ID IS 'Unique numeric ID of the project in the given version control system';</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="B193" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C193" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D193" s="22" t="str">
+        <f t="shared" si="5"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_V.PROJ_NAME IS 'Name of the project';</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="B194" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C194" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D194" s="22" t="str">
+        <f t="shared" si="5"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_V.PROJ_DESC IS 'Description of the project';</v>
+      </c>
     </row>
     <row r="195" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="19"/>
-      <c r="B195" s="19"/>
-      <c r="C195" s="19"/>
-      <c r="D195" s="22"/>
+      <c r="A195" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="B195" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C195" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D195" s="22" t="str">
+        <f t="shared" si="5"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_V.SSH_URL IS 'SSH URL for the project';</v>
+      </c>
     </row>
     <row r="196" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="19"/>
-      <c r="B196" s="19"/>
-      <c r="C196" s="19"/>
-      <c r="D196" s="22"/>
+      <c r="A196" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="B196" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C196" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D196" s="22" t="str">
+        <f t="shared" si="5"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_V.HTTP_URL IS 'HTTP URL for the project';</v>
+      </c>
     </row>
     <row r="197" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="19"/>
-      <c r="B197" s="19"/>
-      <c r="C197" s="19"/>
-      <c r="D197" s="22"/>
+      <c r="A197" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="B197" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C197" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D197" s="22" t="str">
+        <f t="shared" si="5"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_V.README_URL IS 'Readme URL for the project';</v>
+      </c>
     </row>
     <row r="198" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="19"/>
-      <c r="B198" s="19"/>
-      <c r="C198" s="19"/>
-      <c r="D198" s="22"/>
+      <c r="A198" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="B198" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C198" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="D198" s="22" t="str">
+        <f t="shared" si="5"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_V.AVATAR_URL IS 'Avatar URL for the project';</v>
+      </c>
     </row>
     <row r="199" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="19"/>
-      <c r="B199" s="19"/>
-      <c r="C199" s="19"/>
-      <c r="D199" s="22"/>
+      <c r="A199" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="B199" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C199" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="D199" s="22" t="str">
+        <f t="shared" si="5"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_V.PROJ_CREATE_DTM IS 'The date/time the project was created';</v>
+      </c>
     </row>
     <row r="200" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="19"/>
-      <c r="B200" s="19"/>
-      <c r="C200" s="19"/>
-      <c r="D200" s="22"/>
+      <c r="A200" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="B200" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C200" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="D200" s="22" t="str">
+        <f t="shared" si="5"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_V.PROJ_UPDATE_DTM IS 'The date/time the project was last updated';</v>
+      </c>
     </row>
     <row r="201" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="19"/>
-      <c r="B201" s="19"/>
-      <c r="C201" s="19"/>
-      <c r="D201" s="22"/>
+      <c r="A201" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="B201" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="C201" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="D201" s="22" t="str">
+        <f t="shared" si="5"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_V.PROJ_VISIBILITY IS 'The visibility for the project (public, internal, private)';</v>
+      </c>
     </row>
     <row r="202" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="19"/>
-      <c r="B202" s="19"/>
-      <c r="C202" s="19"/>
-      <c r="D202" s="22"/>
+      <c r="A202" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="B202" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="C202" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="D202" s="22" t="str">
+        <f t="shared" si="5"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_V.PROJ_NAME_SPACE IS 'project name including the namespace prefix';</v>
+      </c>
     </row>
     <row r="203" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="19"/>
-      <c r="B203" s="19"/>
-      <c r="C203" s="19"/>
-      <c r="D203" s="22"/>
+      <c r="A203" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="B203" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C203" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="D203" s="22" t="str">
+        <f t="shared" si="5"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_V.PROJ_SOURCE IS 'the source of the project record (e.g. PIFSC GitLab, GitHub, manual entry)';</v>
+      </c>
     </row>
     <row r="204" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="19"/>
-      <c r="B204" s="19"/>
-      <c r="C204" s="19"/>
-      <c r="D204" s="22"/>
+      <c r="A204" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="B204" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="C204" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="D204" s="22" t="str">
+        <f t="shared" si="5"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_V.RES_ID IS 'Primary key for the PRI_PROJ_RES table';</v>
+      </c>
     </row>
     <row r="205" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="19"/>
-      <c r="B205" s="19"/>
-      <c r="C205" s="19"/>
-      <c r="D205" s="22"/>
+      <c r="A205" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="B205" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="C205" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="D205" s="22" t="str">
+        <f t="shared" si="5"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_V.RES_CATEGORY IS 'The resource category (free form text) - examples values include Development Tool, Data Management Tool, Centralized Database Applications';</v>
+      </c>
     </row>
     <row r="206" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="19"/>
-      <c r="B206" s="19"/>
-      <c r="C206" s="19"/>
-      <c r="D206" s="22"/>
+      <c r="A206" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="B206" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="C206" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="D206" s="22" t="str">
+        <f t="shared" si="5"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_V.RES_TAG_CONV IS 'Tag Naming convention used to identify the given project resource''s version.  The suffix is required to be a series of period-delimited numbers (e.g. for a naming convention of db_module_packager_v the tag value of db_module_packager_v1.13.4 is valid)';</v>
+      </c>
     </row>
     <row r="207" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="19"/>
-      <c r="B207" s="19"/>
-      <c r="C207" s="19"/>
-      <c r="D207" s="22"/>
+      <c r="A207" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="B207" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="C207" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="D207" s="22" t="str">
+        <f t="shared" si="5"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_V.RES_NAME IS 'The name of the project resource';</v>
+      </c>
     </row>
     <row r="208" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="19"/>
-      <c r="B208" s="19"/>
-      <c r="C208" s="19"/>
-      <c r="D208" s="22"/>
+      <c r="A208" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="B208" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="C208" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="D208" s="22" t="str">
+        <f t="shared" si="5"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_V.RES_COLOR_CODE IS 'The color code for the project resource';</v>
+      </c>
     </row>
     <row r="209" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="19"/>
-      <c r="B209" s="19"/>
-      <c r="C209" s="19"/>
-      <c r="D209" s="22"/>
+      <c r="A209" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="B209" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="C209" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="D209" s="22" t="str">
+        <f t="shared" si="5"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_V.RES_URL IS 'The URL for the project resource (this is blank when the repository URL is the same as the resource URL)';</v>
+      </c>
     </row>
     <row r="210" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="19"/>
-      <c r="B210" s="19"/>
-      <c r="C210" s="19"/>
-      <c r="D210" s="22"/>
+      <c r="A210" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="B210" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="C210" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="D210" s="22" t="str">
+        <f t="shared" si="5"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_V.RES_SCOPE_ID IS 'Foreign key reference to the resource scope';</v>
+      </c>
     </row>
     <row r="211" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="19"/>
-      <c r="B211" s="19"/>
-      <c r="C211" s="19"/>
-      <c r="D211" s="22"/>
+      <c r="A211" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="B211" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="C211" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="D211" s="22" t="str">
+        <f t="shared" si="5"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_V.RES_SCOPE_CODE IS 'Code for the given Resource Scope';</v>
+      </c>
     </row>
     <row r="212" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="19"/>
-      <c r="B212" s="19"/>
-      <c r="C212" s="19"/>
-      <c r="D212" s="22"/>
+      <c r="A212" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="B212" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="C212" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="D212" s="22" t="str">
+        <f t="shared" si="5"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_V.RES_SCOPE_NAME IS 'Name of the given Resource Scope';</v>
+      </c>
     </row>
     <row r="213" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="19"/>
-      <c r="B213" s="19"/>
-      <c r="C213" s="19"/>
-      <c r="D213" s="22"/>
+      <c r="A213" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="B213" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="C213" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="D213" s="22" t="str">
+        <f t="shared" si="5"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_V.RES_SCOPE_DESC IS 'Description for the given Resource Scope';</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="B214" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="C214" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="D214" s="22" t="str">
+        <f t="shared" si="5"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_V.RES_TYPE_ID IS 'Foreign key reference to the resource type';</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="B215" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="C215" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="D215" s="22" t="str">
+        <f t="shared" si="5"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_V.RES_TYPE_CODE IS 'Code for the given Resource Type';</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="B216" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="C216" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="D216" s="22" t="str">
+        <f t="shared" si="5"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_V.RES_TYPE_NAME IS 'Name of the given Resource Type';</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="B217" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="C217" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="D217" s="22" t="str">
+        <f t="shared" si="5"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_V.RES_TYPE_DESC IS 'Description for the given Resource Type';</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="B218" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="C218" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="D218" s="22" t="str">
+        <f t="shared" si="5"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_V.RES_MAX_TAG_ID IS 'The TAG_ID value associated with the highest version number of the given resource';</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A219" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="B219" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="C219" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="D219" s="22" t="str">
+        <f t="shared" si="5"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_V.RES_MAX_VERS_NUM IS 'The parsed version number for the maximum installed version of the given resource';</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A220" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="B220" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="C220" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="D220" s="22" t="str">
+        <f t="shared" si="5"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_V.TAG_PROJ_MAX_TAG_ID IS 'The TAG_ID value associated with the highest version number of the project associated with the given resource (identified by TAG_PROJ_ID)';</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A221" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="B221" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="C221" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="D221" s="22" t="str">
+        <f t="shared" si="5"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_V.TAG_PROJ_MAX_VERS_NUM IS 'The parsed version number associated with the highest version number of the project associated with the given resource (identified by TAG_PROJ_ID)';</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A222" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="B222" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="C222" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="D222" s="22" t="str">
+        <f t="shared" si="5"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_V.TAG_MAX_VERS_YN IS 'Flag to indicate if the resource''s maximum version is the same as the maximum version implemented on the associated project (Y) or not (N).  This is used to identify implementations that are out of date';</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A223" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="B223" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="C223" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="D223" s="22" t="str">
+        <f t="shared" si="5"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_V.TAG_PROJ_ID IS 'Primary key for the PRI_PROJ table for the project associated with the given resource';</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A224" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="B224" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="C224" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="D224" s="22" t="str">
+        <f t="shared" si="5"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_V.TAG_VC_PROJ_ID IS 'Unique numeric ID of the project in the given version control system for the project associated with the given resource';</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A225" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="B225" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="C225" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="D225" s="22" t="str">
+        <f t="shared" si="5"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_V.TAG_PROJ_NAME IS 'Name of the project associated with the given resource';</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A226" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="B226" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="C226" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="D226" s="22" t="str">
+        <f t="shared" si="5"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_V.TAG_PROJ_DESC IS 'Description of the project project associated with the given resource';</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A227" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="B227" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="C227" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="D227" s="22" t="str">
+        <f t="shared" si="5"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_V.TAG_SSH_URL IS 'SSH URL for the project project associated with the given resource';</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A228" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="B228" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="C228" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="D228" s="22" t="str">
+        <f t="shared" si="5"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_V.TAG_HTTP_URL IS 'HTTP URL for the project project associated with the given resource';</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A229" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="B229" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="C229" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="D229" s="22" t="str">
+        <f t="shared" si="5"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_V.TAG_README_URL IS 'Readme URL for the project project associated with the given resource';</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A230" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="B230" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="C230" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="D230" s="22" t="str">
+        <f t="shared" si="5"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_V.TAG_AVATAR_URL IS 'Avatar URL for the project project associated with the given resource';</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A231" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="B231" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="C231" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="D231" s="22" t="str">
+        <f t="shared" si="5"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_V.TAG_PROJ_CREATE_DTM IS 'The date/time the project associated with the given resource was created';</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A232" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="B232" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="C232" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="D232" s="22" t="str">
+        <f t="shared" si="5"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_V.TAG_PROJ_UPDATE_DTM IS 'The date/time the project associated with the given resource was last updated';</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A233" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="B233" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="C233" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="D233" s="22" t="str">
+        <f t="shared" si="5"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_V.TAG_PROJ_VISIBILITY IS 'The visibility for the project (public, internal, private) associated with the given resource';</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A234" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="B234" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="C234" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="D234" s="22" t="str">
+        <f t="shared" si="5"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_V.TAG_PROJ_NAME_SPACE IS 'project name including the namespace prefix associated with the given resource';</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A235" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="B235" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="C235" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="D235" s="22" t="str">
+        <f t="shared" si="5"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_V.TAG_PROJ_SOURCE IS 'the source of the project record (e.g. PIFSC GitLab, GitHub, manual entry) associated with the given resource';</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A246" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="B246" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C246" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="D246" s="22" t="str">
+        <f t="shared" ref="D246:D297" si="6">CONCATENATE("COMMENT ON COLUMN ",A246, ".", B246, " IS '", SUBSTITUTE(C246, "'", "''"), "';")</f>
+        <v>COMMENT ON COLUMN PRI_PROJ_RES_TAG_MAX_SUM_V.PROJ_ID IS 'Primary key for the PRI_PROJ table';</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A247" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="B247" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C247" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D247" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_RES_TAG_MAX_SUM_V.PROJ_NAME IS 'Name of the project';</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A248" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="B248" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="C248" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="D248" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_RES_TAG_MAX_SUM_V.CURR_VERS_COUNT IS 'The number of implemented resources that have been implemented by the project that are the same as the current version of the resource';</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A249" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="B249" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="C249" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="D249" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_RES_TAG_MAX_SUM_V.OLD_VERS_COUNT IS 'The number of implemented resources that have been implemented by the project that are not the same as the current version of the resource';</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A250" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="B250" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="C250" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="D250" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_RES_TAG_MAX_SUM_V.TOTAL_IMPL_RES IS 'The total number of project resources that have been implemented in the given project';</v>
+      </c>
     </row>
     <row r="251" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A251" s="19"/>
-      <c r="B251" s="19"/>
-      <c r="C251" s="19"/>
-      <c r="D251" s="22"/>
+      <c r="A251" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="B251" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="C251" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="D251" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_RES_TAG_MAX_SUM_V.ASSOC_RES_CD_LIST IS 'A comma-delimited list of project resources and associated highest version number that have been implemented by the project.  If the current version implemented in the project is the same as the current version of the resource the project name is preceded by a "(CV)" prefix to indicate it is the current version and if not the "(UA)" prefix is used to indicate there is an update available';</v>
+      </c>
     </row>
     <row r="252" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A252" s="19"/>
-      <c r="B252" s="19"/>
-      <c r="C252" s="19"/>
-      <c r="D252" s="22"/>
+      <c r="A252" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="B252" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C252" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="D252" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_RES_TAG_MAX_V.PROJ_ID IS 'Primary key for the PRI_PROJ table';</v>
+      </c>
     </row>
     <row r="253" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A253" s="19"/>
-      <c r="B253" s="19"/>
-      <c r="C253" s="19"/>
-      <c r="D253" s="22"/>
+      <c r="A253" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="B253" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C253" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D253" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_RES_TAG_MAX_V.VC_PROJ_ID IS 'Unique numeric ID of the project in the given version control system';</v>
+      </c>
     </row>
     <row r="254" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A254" s="19"/>
-      <c r="B254" s="19"/>
-      <c r="C254" s="19"/>
-      <c r="D254" s="22"/>
+      <c r="A254" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="B254" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C254" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D254" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_RES_TAG_MAX_V.PROJ_NAME IS 'Name of the project';</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A255" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="B255" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C255" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D255" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_RES_TAG_MAX_V.PROJ_DESC IS 'Description of the project';</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A256" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="B256" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C256" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D256" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_RES_TAG_MAX_V.SSH_URL IS 'SSH URL for the project';</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A257" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="B257" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C257" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D257" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_RES_TAG_MAX_V.HTTP_URL IS 'HTTP URL for the project';</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A258" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="B258" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C258" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D258" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_RES_TAG_MAX_V.README_URL IS 'Readme URL for the project';</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A259" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="B259" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C259" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="D259" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_RES_TAG_MAX_V.AVATAR_URL IS 'Avatar URL for the project';</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A260" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="B260" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C260" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="D260" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_RES_TAG_MAX_V.PROJ_CREATE_DTM IS 'The date/time the project was created';</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A261" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="B261" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C261" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="D261" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_RES_TAG_MAX_V.PROJ_UPDATE_DTM IS 'The date/time the project was last updated';</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A262" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="B262" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="C262" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="D262" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_RES_TAG_MAX_V.PROJ_VISIBILITY IS 'The visibility for the project (public, internal, private)';</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A263" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="B263" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="C263" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="D263" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_RES_TAG_MAX_V.PROJ_NAME_SPACE IS 'project name including the namespace prefix';</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A264" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="B264" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C264" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="D264" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_RES_TAG_MAX_V.PROJ_SOURCE IS 'the source of the project record (e.g. PIFSC GitLab, GitHub, manual entry)';</v>
+      </c>
     </row>
     <row r="265" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A265" s="19"/>
-      <c r="B265" s="19"/>
-      <c r="C265" s="19"/>
-      <c r="D265" s="22"/>
+      <c r="A265" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="B265" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="C265" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="D265" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_RES_TAG_MAX_V.RES_MAX_TAG_ID IS 'The TAG_ID value associated with the highest version number of the given resource';</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A266" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="B266" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="C266" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="D266" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_RES_TAG_MAX_V.RES_MAX_VERS_NUM IS 'The parsed version number for the maximum installed version of the given resource';</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A267" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="B267" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="C267" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="D267" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_RES_TAG_MAX_V.TAG_PROJ_MAX_TAG_ID IS 'The TAG_ID value associated with the highest version number of the project associated with the given resource (identified by TAG_PROJ_ID)';</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A268" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="B268" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="C268" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="D268" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_RES_TAG_MAX_V.TAG_PROJ_MAX_VERS_NUM IS 'The parsed version number associated with the highest version number of the project associated with the given resource (identified by TAG_PROJ_ID)';</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A269" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="B269" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="C269" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="D269" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_RES_TAG_MAX_V.TAG_MAX_VERS_YN IS 'Flag to indicate if the implemented resource version for the given project is the same as the maximum resource version (Y) or not (N).  This is used to identify implementations that are out of date';</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A270" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="B270" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="C270" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="D270" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_RES_TAG_MAX_V.RES_VERS_STATUS IS 'Flag to indicate if the implemented resource version for the given project is the same as the maximum resource version (Current Version) or not (Update Available).  This is used to identify implementations that are out of date';</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A271" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="B271" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="C271" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="D271" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_RES_TAG_MAX_V.RES_PROJ_ID IS 'Resource Project';</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A272" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="B272" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="C272" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="D272" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_RES_TAG_MAX_V.RES_VC_PROJ_ID IS 'Unique numeric ID of the resource project in the given version control system';</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A273" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="B273" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="C273" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="D273" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_RES_TAG_MAX_V.RES_PROJ_NAME IS 'Name of the resource project';</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A274" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="B274" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="C274" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="D274" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_RES_TAG_MAX_V.RES_PROJ_DESC IS 'Description of the resource project';</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A275" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="B275" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="C275" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="D275" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_RES_TAG_MAX_V.RES_SSH_URL IS 'SSH URL for the resource project';</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A276" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="B276" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="C276" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="D276" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_RES_TAG_MAX_V.RES_HTTP_URL IS 'HTTP URL for the resource project';</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A277" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="B277" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="C277" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="D277" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_RES_TAG_MAX_V.RES_README_URL IS 'Readme URL for the resource project';</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A278" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="B278" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="C278" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="D278" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_RES_TAG_MAX_V.RES_AVATAR_URL IS 'Avatar URL for the resource project';</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A279" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="B279" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C279" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="D279" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_RES_TAG_MAX_V.RES_PROJ_CREATE_DTM IS 'The date/time the resource project was created';</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A280" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="B280" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="C280" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="D280" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_RES_TAG_MAX_V.RES_PROJ_UPDATE_DTM IS 'The date/time the resource project was last updated';</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A281" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="B281" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="C281" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="D281" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_RES_TAG_MAX_V.RES_PROJ_VISIBILITY IS 'The visibility for the resource project (public, internal, private)';</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A282" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="B282" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="C282" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="D282" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_RES_TAG_MAX_V.RES_PROJ_NAME_SPACE IS 'resource project name including the namespace prefix';</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A283" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="B283" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="C283" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="D283" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_RES_TAG_MAX_V.RES_PROJ_SOURCE IS 'the source of the resource project record (e.g. PIFSC GitLab, GitHub, manual entry)';</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A284" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="B284" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="C284" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="D284" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_RES_TAG_MAX_V.RES_ID IS 'Primary key for the PRI_PROJ_RES table';</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A285" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="B285" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="C285" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="D285" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_RES_TAG_MAX_V.RES_CATEGORY IS 'The resource category (free form text) - examples values include Development Tool, Data Management Tool, Centralized Database Applications';</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A286" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="B286" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="C286" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="D286" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_RES_TAG_MAX_V.RES_TAG_CONV IS 'Tag Naming convention used to identify the given project resource''s version.  The suffix is required to be a series of period-delimited numbers (e.g. for a naming convention of db_module_packager_v the tag value of db_module_packager_v1.13.4 is valid)';</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A287" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="B287" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="C287" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="D287" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_RES_TAG_MAX_V.RES_NAME IS 'The name of the project resource';</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A288" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="B288" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="C288" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="D288" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_RES_TAG_MAX_V.RES_COLOR_CODE IS 'The color code for the project resource';</v>
+      </c>
     </row>
     <row r="289" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A289" s="19"/>
-      <c r="B289" s="19"/>
-      <c r="C289" s="19"/>
-      <c r="D289" s="22"/>
+      <c r="A289" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="B289" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="C289" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="D289" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_RES_TAG_MAX_V.RES_URL IS 'The URL for the project resource (this is blank when the repository URL is the same as the resource URL)';</v>
+      </c>
     </row>
     <row r="290" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A290" s="19"/>
-      <c r="B290" s="19"/>
-      <c r="C290" s="19"/>
-      <c r="D290" s="22"/>
+      <c r="A290" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="B290" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="C290" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="D290" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_RES_TAG_MAX_V.RES_SCOPE_ID IS 'Foreign key reference to the resource scope';</v>
+      </c>
     </row>
     <row r="291" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A291" s="19"/>
-      <c r="B291" s="19"/>
-      <c r="C291" s="19"/>
-      <c r="D291" s="22"/>
+      <c r="A291" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="B291" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="C291" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="D291" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_RES_TAG_MAX_V.RES_SCOPE_CODE IS 'Code for the given Resource Scope';</v>
+      </c>
     </row>
     <row r="292" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A292" s="19"/>
-      <c r="B292" s="19"/>
-      <c r="C292" s="19"/>
-      <c r="D292" s="22"/>
+      <c r="A292" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="B292" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="C292" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="D292" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_RES_TAG_MAX_V.RES_SCOPE_NAME IS 'Name of the given Resource Scope';</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A293" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="B293" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="C293" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="D293" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_RES_TAG_MAX_V.RES_SCOPE_DESC IS 'Description for the given Resource Scope';</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A294" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="B294" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="C294" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="D294" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_RES_TAG_MAX_V.RES_TYPE_ID IS 'Foreign key reference to the resource type';</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A295" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="B295" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="C295" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="D295" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_RES_TAG_MAX_V.RES_TYPE_CODE IS 'Code for the given Resource Type';</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A296" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="B296" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="C296" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="D296" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_RES_TAG_MAX_V.RES_TYPE_NAME IS 'Name of the given Resource Type';</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A297" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="B297" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="C297" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="D297" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_RES_TAG_MAX_V.RES_TYPE_DESC IS 'Description for the given Resource Type';</v>
+      </c>
     </row>
     <row r="320" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A320" s="19"/>
@@ -7928,10 +11334,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:C207"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C4:C26"/>
+    <sheetView topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="C181" sqref="C181:C207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7968,7 +11374,7 @@
       <c r="A3" s="18"/>
       <c r="B3" s="18"/>
       <c r="C3" s="18" t="str">
-        <f t="shared" ref="C3:C55" si="0">CONCATENATE(A3, ".", B3, ", ")</f>
+        <f t="shared" ref="C3:C78" si="0">CONCATENATE(A3, ".", B3, ", ")</f>
         <v xml:space="preserve">., </v>
       </c>
     </row>
@@ -8281,123 +11687,183 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="18"/>
-      <c r="B31" s="18"/>
+      <c r="A31" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>120</v>
+      </c>
       <c r="C31" s="18" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">., </v>
+        <v xml:space="preserve">PRI_PROJ_RES.RES_ID, </v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="18"/>
-      <c r="B32" s="18"/>
+      <c r="A32" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>72</v>
+      </c>
       <c r="C32" s="18" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">., </v>
+        <v xml:space="preserve">PRI_PROJ_RES.PROJ_ID, </v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="18"/>
-      <c r="B33" s="18"/>
+      <c r="A33" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>121</v>
+      </c>
       <c r="C33" s="18" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">., </v>
+        <v xml:space="preserve">PRI_PROJ_RES.RES_CATEGORY, </v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="18"/>
-      <c r="B34" s="18"/>
+      <c r="A34" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>136</v>
+      </c>
       <c r="C34" s="18" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">., </v>
+        <v xml:space="preserve">PRI_PROJ_RES.RES_SCOPE_ID, </v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="18"/>
-      <c r="B35" s="18"/>
+      <c r="A35" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>135</v>
+      </c>
       <c r="C35" s="18" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">., </v>
+        <v xml:space="preserve">PRI_PROJ_RES.RES_TYPE_ID, </v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="18"/>
-      <c r="B36" s="18"/>
+      <c r="A36" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>122</v>
+      </c>
       <c r="C36" s="18" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">., </v>
+        <v xml:space="preserve">PRI_PROJ_RES.RES_TAG_CONV, </v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="18"/>
-      <c r="B37" s="18"/>
+      <c r="A37" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>123</v>
+      </c>
       <c r="C37" s="18" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">., </v>
+        <v xml:space="preserve">PRI_PROJ_RES.RES_NAME, </v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="18"/>
-      <c r="B38" s="18"/>
+      <c r="A38" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>124</v>
+      </c>
       <c r="C38" s="18" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">., </v>
+        <v xml:space="preserve">PRI_PROJ_RES.RES_COLOR_CODE, </v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="18"/>
-      <c r="B39" s="18"/>
+      <c r="A39" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>125</v>
+      </c>
       <c r="C39" s="18" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">., </v>
+        <v xml:space="preserve">PRI_PROJ_RES.RES_URL, </v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="18"/>
-      <c r="B40" s="18"/>
+      <c r="A40" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>143</v>
+      </c>
       <c r="C40" s="18" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">., </v>
+        <v xml:space="preserve">PRI_RES_SCOPES.RES_SCOPE_CODE, </v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="18"/>
-      <c r="B41" s="18"/>
+      <c r="A41" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="B41" s="18" t="s">
+        <v>144</v>
+      </c>
       <c r="C41" s="18" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">., </v>
+        <v xml:space="preserve">PRI_RES_SCOPES.RES_SCOPE_NAME, </v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="18"/>
-      <c r="B42" s="18"/>
+      <c r="A42" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="B42" s="18" t="s">
+        <v>145</v>
+      </c>
       <c r="C42" s="18" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">., </v>
+        <v xml:space="preserve">PRI_RES_SCOPES.RES_SCOPE_DESC, </v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="18"/>
-      <c r="B43" s="18"/>
+      <c r="A43" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="B43" s="18" t="s">
+        <v>146</v>
+      </c>
       <c r="C43" s="18" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">., </v>
+        <v xml:space="preserve">PRI_RES_TYPES.RES_TYPE_CODE, </v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="18"/>
-      <c r="B44" s="18"/>
+      <c r="A44" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="B44" s="18" t="s">
+        <v>147</v>
+      </c>
       <c r="C44" s="18" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">., </v>
+        <v xml:space="preserve">PRI_RES_TYPES.RES_TYPE_NAME, </v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="18"/>
-      <c r="B45" s="18"/>
+      <c r="A45" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="B45" s="18" t="s">
+        <v>148</v>
+      </c>
       <c r="C45" s="18" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">., </v>
+        <v xml:space="preserve">PRI_RES_TYPES.RES_TYPE_DESC, </v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -8425,64 +11891,1725 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="18"/>
-      <c r="B49" s="18"/>
+      <c r="A49" t="s">
+        <v>92</v>
+      </c>
+      <c r="B49" t="s">
+        <v>72</v>
+      </c>
       <c r="C49" s="18" t="str">
+        <f>CONCATENATE(A49, ".", B49, ", ")</f>
+        <v xml:space="preserve">PRI_PROJ.PROJ_ID, </v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B50" t="s">
+        <v>73</v>
+      </c>
+      <c r="C50" s="18" t="str">
+        <f t="shared" ref="C50:C61" si="1">CONCATENATE(A50, ".", B50, ", ")</f>
+        <v xml:space="preserve">PRI_PROJ.VC_PROJ_ID, </v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B51" t="s">
+        <v>74</v>
+      </c>
+      <c r="C51" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">PRI_PROJ.PROJ_NAME, </v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B52" t="s">
+        <v>75</v>
+      </c>
+      <c r="C52" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">PRI_PROJ.PROJ_DESC, </v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B53" t="s">
+        <v>76</v>
+      </c>
+      <c r="C53" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">PRI_PROJ.SSH_URL, </v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B54" t="s">
+        <v>77</v>
+      </c>
+      <c r="C54" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">PRI_PROJ.HTTP_URL, </v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B55" t="s">
+        <v>78</v>
+      </c>
+      <c r="C55" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">PRI_PROJ.README_URL, </v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B56" t="s">
+        <v>79</v>
+      </c>
+      <c r="C56" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">PRI_PROJ.AVATAR_URL, </v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B57" t="s">
+        <v>80</v>
+      </c>
+      <c r="C57" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">PRI_PROJ.PROJ_CREATE_DTM, </v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B58" t="s">
+        <v>81</v>
+      </c>
+      <c r="C58" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">PRI_PROJ.PROJ_UPDATE_DTM, </v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B59" t="s">
+        <v>95</v>
+      </c>
+      <c r="C59" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">PRI_PROJ.PROJ_VISIBILITY, </v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B60" t="s">
+        <v>96</v>
+      </c>
+      <c r="C60" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">PRI_PROJ.PROJ_NAME_SPACE, </v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B61" t="s">
+        <v>97</v>
+      </c>
+      <c r="C61" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">PRI_PROJ.PROJ_SOURCE, </v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="B62" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="C62" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PRI_PROJ_RES_V.RES_ID, </v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="B63" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="C63" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PRI_PROJ_RES_V.RES_CATEGORY, </v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="B64" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C64" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PRI_PROJ_RES_V.RES_TAG_CONV, </v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="B65" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="C65" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PRI_PROJ_RES_V.RES_NAME, </v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="B66" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C66" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PRI_PROJ_RES_V.RES_COLOR_CODE, </v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="B67" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="C67" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PRI_PROJ_RES_V.RES_URL, </v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="B68" t="s">
+        <v>136</v>
+      </c>
+      <c r="C68" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PRI_PROJ_RES_V.RES_SCOPE_ID, </v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="B69" t="s">
+        <v>143</v>
+      </c>
+      <c r="C69" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PRI_PROJ_RES_V.RES_SCOPE_CODE, </v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="B70" t="s">
+        <v>144</v>
+      </c>
+      <c r="C70" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PRI_PROJ_RES_V.RES_SCOPE_NAME, </v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="B71" t="s">
+        <v>145</v>
+      </c>
+      <c r="C71" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PRI_PROJ_RES_V.RES_SCOPE_DESC, </v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="B72" t="s">
+        <v>135</v>
+      </c>
+      <c r="C72" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PRI_PROJ_RES_V.RES_TYPE_ID, </v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="B73" t="s">
+        <v>146</v>
+      </c>
+      <c r="C73" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PRI_PROJ_RES_V.RES_TYPE_CODE, </v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="B74" t="s">
+        <v>147</v>
+      </c>
+      <c r="C74" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PRI_PROJ_RES_V.RES_TYPE_NAME, </v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="B75" t="s">
+        <v>148</v>
+      </c>
+      <c r="C75" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">PRI_PROJ_RES_V.RES_TYPE_DESC, </v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C76" s="18" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">., </v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="18"/>
-      <c r="B50" s="18"/>
-      <c r="C50" s="18" t="str">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C77" s="18" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">., </v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="18"/>
-      <c r="B51" s="18"/>
-      <c r="C51" s="18" t="str">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B78" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C78" s="18" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">., </v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="18"/>
-      <c r="B52" s="18"/>
-      <c r="C52" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">., </v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="18"/>
-      <c r="B53" s="18"/>
-      <c r="C53" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">., </v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="18"/>
-      <c r="B54" s="18"/>
-      <c r="C54" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">., </v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="18"/>
-      <c r="B55" s="18"/>
-      <c r="C55" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">., </v>
+        <v xml:space="preserve">PRI_PROJ_V.PROJ_ID, </v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B79" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C79" s="18" t="str">
+        <f t="shared" ref="C79:C104" si="2">CONCATENATE(A79, ".", B79, ", ")</f>
+        <v xml:space="preserve">PRI_PROJ_V.VC_PROJ_ID, </v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B80" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C80" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">PRI_PROJ_V.PROJ_NAME, </v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B81" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C81" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">PRI_PROJ_V.PROJ_DESC, </v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B82" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C82" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">PRI_PROJ_V.SSH_URL, </v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B83" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C83" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">PRI_PROJ_V.HTTP_URL, </v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B84" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C84" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">PRI_PROJ_V.README_URL, </v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B85" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C85" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">PRI_PROJ_V.AVATAR_URL, </v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B86" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C86" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">PRI_PROJ_V.PROJ_CREATE_DTM, </v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B87" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C87" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">PRI_PROJ_V.PROJ_UPDATE_DTM, </v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B88" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="C88" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">PRI_PROJ_V.PROJ_VISIBILITY, </v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B89" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="C89" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">PRI_PROJ_V.PROJ_NAME_SPACE, </v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B90" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C90" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">PRI_PROJ_V.PROJ_SOURCE, </v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B91" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="C91" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">PRI_PROJ_V.RES_ID, </v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B92" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="C92" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">PRI_PROJ_V.RES_CATEGORY, </v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B93" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="C93" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">PRI_PROJ_V.RES_TAG_CONV, </v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B94" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="C94" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">PRI_PROJ_V.RES_NAME, </v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B95" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="C95" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">PRI_PROJ_V.RES_COLOR_CODE, </v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B96" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="C96" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">PRI_PROJ_V.RES_URL, </v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B97" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="C97" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">PRI_PROJ_V.RES_SCOPE_ID, </v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B98" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="C98" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">PRI_PROJ_V.RES_SCOPE_CODE, </v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B99" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="C99" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">PRI_PROJ_V.RES_SCOPE_NAME, </v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B100" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="C100" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">PRI_PROJ_V.RES_SCOPE_DESC, </v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B101" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="C101" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">PRI_PROJ_V.RES_TYPE_ID, </v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B102" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="C102" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">PRI_PROJ_V.RES_TYPE_CODE, </v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B103" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="C103" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">PRI_PROJ_V.RES_TYPE_NAME, </v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B104" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="C104" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">PRI_PROJ_V.RES_TYPE_DESC, </v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B110" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C110" s="18" t="str">
+        <f t="shared" ref="C110:C136" si="3">CONCATENATE(A110, ".", B110, ", ")</f>
+        <v xml:space="preserve">PRI_PROJ_V.PROJ_ID, </v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B111" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C111" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">PRI_PROJ_V.VC_PROJ_ID, </v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B112" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C112" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">PRI_PROJ_V.PROJ_NAME, </v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B113" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C113" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">PRI_PROJ_V.PROJ_DESC, </v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B114" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C114" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">PRI_PROJ_V.SSH_URL, </v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B115" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C115" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">PRI_PROJ_V.HTTP_URL, </v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B116" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C116" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">PRI_PROJ_V.README_URL, </v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B117" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C117" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">PRI_PROJ_V.AVATAR_URL, </v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B118" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C118" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">PRI_PROJ_V.PROJ_CREATE_DTM, </v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B119" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C119" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">PRI_PROJ_V.PROJ_UPDATE_DTM, </v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B120" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="C120" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">PRI_PROJ_V.PROJ_VISIBILITY, </v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B121" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="C121" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">PRI_PROJ_V.PROJ_NAME_SPACE, </v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B122" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C122" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">PRI_PROJ_V.PROJ_SOURCE, </v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B123" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="C123" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">PRI_PROJ_V.RES_ID, </v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B124" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="C124" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">PRI_PROJ_V.RES_CATEGORY, </v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B125" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="C125" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">PRI_PROJ_V.RES_TAG_CONV, </v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B126" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="C126" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">PRI_PROJ_V.RES_NAME, </v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B127" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="C127" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">PRI_PROJ_V.RES_COLOR_CODE, </v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B128" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="C128" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">PRI_PROJ_V.RES_URL, </v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B129" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="C129" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">PRI_PROJ_V.RES_SCOPE_ID, </v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B130" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="C130" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">PRI_PROJ_V.RES_SCOPE_CODE, </v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B131" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="C131" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">PRI_PROJ_V.RES_SCOPE_NAME, </v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B132" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="C132" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">PRI_PROJ_V.RES_SCOPE_DESC, </v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B133" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="C133" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">PRI_PROJ_V.RES_TYPE_ID, </v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B134" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="C134" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">PRI_PROJ_V.RES_TYPE_CODE, </v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B135" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="C135" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">PRI_PROJ_V.RES_TYPE_NAME, </v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B136" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="C136" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">PRI_PROJ_V.RES_TYPE_DESC, </v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>92</v>
+      </c>
+      <c r="B141" t="s">
+        <v>72</v>
+      </c>
+      <c r="C141" s="18" t="str">
+        <f>CONCATENATE(A141, ".", B141, " TAG_", B141, ", ")</f>
+        <v xml:space="preserve">PRI_PROJ.PROJ_ID TAG_PROJ_ID, </v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B142" t="s">
+        <v>73</v>
+      </c>
+      <c r="C142" s="18" t="str">
+        <f t="shared" ref="C142:C153" si="4">CONCATENATE(A142, ".", B142, " TAG_", B142, ", ")</f>
+        <v xml:space="preserve">PRI_PROJ.VC_PROJ_ID TAG_VC_PROJ_ID, </v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B143" t="s">
+        <v>74</v>
+      </c>
+      <c r="C143" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">PRI_PROJ.PROJ_NAME TAG_PROJ_NAME, </v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B144" t="s">
+        <v>75</v>
+      </c>
+      <c r="C144" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">PRI_PROJ.PROJ_DESC TAG_PROJ_DESC, </v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B145" t="s">
+        <v>76</v>
+      </c>
+      <c r="C145" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">PRI_PROJ.SSH_URL TAG_SSH_URL, </v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B146" t="s">
+        <v>77</v>
+      </c>
+      <c r="C146" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">PRI_PROJ.HTTP_URL TAG_HTTP_URL, </v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B147" t="s">
+        <v>78</v>
+      </c>
+      <c r="C147" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">PRI_PROJ.README_URL TAG_README_URL, </v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B148" t="s">
+        <v>79</v>
+      </c>
+      <c r="C148" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">PRI_PROJ.AVATAR_URL TAG_AVATAR_URL, </v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B149" t="s">
+        <v>80</v>
+      </c>
+      <c r="C149" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">PRI_PROJ.PROJ_CREATE_DTM TAG_PROJ_CREATE_DTM, </v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B150" t="s">
+        <v>81</v>
+      </c>
+      <c r="C150" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">PRI_PROJ.PROJ_UPDATE_DTM TAG_PROJ_UPDATE_DTM, </v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B151" t="s">
+        <v>95</v>
+      </c>
+      <c r="C151" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">PRI_PROJ.PROJ_VISIBILITY TAG_PROJ_VISIBILITY, </v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B152" t="s">
+        <v>96</v>
+      </c>
+      <c r="C152" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">PRI_PROJ.PROJ_NAME_SPACE TAG_PROJ_NAME_SPACE, </v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B153" t="s">
+        <v>97</v>
+      </c>
+      <c r="C153" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">PRI_PROJ.PROJ_SOURCE TAG_PROJ_SOURCE, </v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B156" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C156" s="18" t="str">
+        <f t="shared" ref="C156:C168" si="5">CONCATENATE(A156, ".", B156, ", ")</f>
+        <v xml:space="preserve">PRI_PROJ.PROJ_ID, </v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B157" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="C157" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">PRI_PROJ.VC_PROJ_ID, </v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B158" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C158" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">PRI_PROJ.PROJ_NAME, </v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B159" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C159" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">PRI_PROJ.PROJ_DESC, </v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B160" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C160" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">PRI_PROJ.SSH_URL, </v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B161" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C161" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">PRI_PROJ.HTTP_URL, </v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B162" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C162" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">PRI_PROJ.README_URL, </v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B163" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C163" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">PRI_PROJ.AVATAR_URL, </v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B164" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C164" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">PRI_PROJ.PROJ_CREATE_DTM, </v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B165" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C165" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">PRI_PROJ.PROJ_UPDATE_DTM, </v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B166" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="C166" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">PRI_PROJ.PROJ_VISIBILITY, </v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B167" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C167" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">PRI_PROJ.PROJ_NAME_SPACE, </v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B168" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C168" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">PRI_PROJ.PROJ_SOURCE, </v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>119</v>
+      </c>
+      <c r="B171" t="s">
+        <v>72</v>
+      </c>
+      <c r="C171" s="18" t="str">
+        <f t="shared" ref="C171:C178" si="6">CONCATENATE(A171, ".", B171, ", ")</f>
+        <v xml:space="preserve">PRI_PROJ_RES.PROJ_ID, </v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="B172" t="s">
+        <v>121</v>
+      </c>
+      <c r="C172" s="18" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">PRI_PROJ_RES.RES_CATEGORY, </v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="B173" t="s">
+        <v>136</v>
+      </c>
+      <c r="C173" s="18" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">PRI_PROJ_RES.RES_SCOPE_ID, </v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="B174" t="s">
+        <v>135</v>
+      </c>
+      <c r="C174" s="18" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">PRI_PROJ_RES.RES_TYPE_ID, </v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="B175" t="s">
+        <v>122</v>
+      </c>
+      <c r="C175" s="18" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">PRI_PROJ_RES.RES_TAG_CONV, </v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="B176" t="s">
+        <v>123</v>
+      </c>
+      <c r="C176" s="18" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">PRI_PROJ_RES.RES_NAME, </v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="B177" t="s">
+        <v>124</v>
+      </c>
+      <c r="C177" s="18" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">PRI_PROJ_RES.RES_COLOR_CODE, </v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="B178" t="s">
+        <v>125</v>
+      </c>
+      <c r="C178" s="18" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">PRI_PROJ_RES.RES_URL, </v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>157</v>
+      </c>
+      <c r="B181" t="s">
+        <v>72</v>
+      </c>
+      <c r="C181" t="str">
+        <f>CONCATENATE(A181, ".", B181, " RES_", B181, ", ")</f>
+        <v xml:space="preserve">PRI_PROJ_V.PROJ_ID RES_PROJ_ID, </v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B182" t="s">
+        <v>73</v>
+      </c>
+      <c r="C182" s="18" t="str">
+        <f t="shared" ref="C182:C207" si="7">CONCATENATE(A182, ".", B182, " RES_", B182, ", ")</f>
+        <v xml:space="preserve">PRI_PROJ_V.VC_PROJ_ID RES_VC_PROJ_ID, </v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B183" t="s">
+        <v>74</v>
+      </c>
+      <c r="C183" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">PRI_PROJ_V.PROJ_NAME RES_PROJ_NAME, </v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B184" t="s">
+        <v>75</v>
+      </c>
+      <c r="C184" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">PRI_PROJ_V.PROJ_DESC RES_PROJ_DESC, </v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B185" t="s">
+        <v>76</v>
+      </c>
+      <c r="C185" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">PRI_PROJ_V.SSH_URL RES_SSH_URL, </v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B186" t="s">
+        <v>77</v>
+      </c>
+      <c r="C186" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">PRI_PROJ_V.HTTP_URL RES_HTTP_URL, </v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B187" t="s">
+        <v>78</v>
+      </c>
+      <c r="C187" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">PRI_PROJ_V.README_URL RES_README_URL, </v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B188" t="s">
+        <v>79</v>
+      </c>
+      <c r="C188" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">PRI_PROJ_V.AVATAR_URL RES_AVATAR_URL, </v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B189" t="s">
+        <v>80</v>
+      </c>
+      <c r="C189" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">PRI_PROJ_V.PROJ_CREATE_DTM RES_PROJ_CREATE_DTM, </v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B190" t="s">
+        <v>81</v>
+      </c>
+      <c r="C190" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">PRI_PROJ_V.PROJ_UPDATE_DTM RES_PROJ_UPDATE_DTM, </v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B191" t="s">
+        <v>95</v>
+      </c>
+      <c r="C191" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">PRI_PROJ_V.PROJ_VISIBILITY RES_PROJ_VISIBILITY, </v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B192" t="s">
+        <v>96</v>
+      </c>
+      <c r="C192" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">PRI_PROJ_V.PROJ_NAME_SPACE RES_PROJ_NAME_SPACE, </v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B193" t="s">
+        <v>97</v>
+      </c>
+      <c r="C193" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">PRI_PROJ_V.PROJ_SOURCE RES_PROJ_SOURCE, </v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B194" t="s">
+        <v>120</v>
+      </c>
+      <c r="C194" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">PRI_PROJ_V.RES_ID RES_RES_ID, </v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B195" t="s">
+        <v>121</v>
+      </c>
+      <c r="C195" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">PRI_PROJ_V.RES_CATEGORY RES_RES_CATEGORY, </v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B196" t="s">
+        <v>122</v>
+      </c>
+      <c r="C196" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">PRI_PROJ_V.RES_TAG_CONV RES_RES_TAG_CONV, </v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B197" t="s">
+        <v>123</v>
+      </c>
+      <c r="C197" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">PRI_PROJ_V.RES_NAME RES_RES_NAME, </v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B198" t="s">
+        <v>124</v>
+      </c>
+      <c r="C198" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">PRI_PROJ_V.RES_COLOR_CODE RES_RES_COLOR_CODE, </v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B199" t="s">
+        <v>125</v>
+      </c>
+      <c r="C199" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">PRI_PROJ_V.RES_URL RES_RES_URL, </v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B200" t="s">
+        <v>136</v>
+      </c>
+      <c r="C200" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">PRI_PROJ_V.RES_SCOPE_ID RES_RES_SCOPE_ID, </v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B201" t="s">
+        <v>143</v>
+      </c>
+      <c r="C201" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">PRI_PROJ_V.RES_SCOPE_CODE RES_RES_SCOPE_CODE, </v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B202" t="s">
+        <v>144</v>
+      </c>
+      <c r="C202" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">PRI_PROJ_V.RES_SCOPE_NAME RES_RES_SCOPE_NAME, </v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B203" t="s">
+        <v>145</v>
+      </c>
+      <c r="C203" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">PRI_PROJ_V.RES_SCOPE_DESC RES_RES_SCOPE_DESC, </v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B204" t="s">
+        <v>135</v>
+      </c>
+      <c r="C204" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">PRI_PROJ_V.RES_TYPE_ID RES_RES_TYPE_ID, </v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B205" t="s">
+        <v>146</v>
+      </c>
+      <c r="C205" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">PRI_PROJ_V.RES_TYPE_CODE RES_RES_TYPE_CODE, </v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B206" t="s">
+        <v>147</v>
+      </c>
+      <c r="C206" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">PRI_PROJ_V.RES_TYPE_NAME RES_RES_TYPE_NAME, </v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B207" t="s">
+        <v>148</v>
+      </c>
+      <c r="C207" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">PRI_PROJ_V.RES_TYPE_DESC RES_RES_TYPE_DESC, </v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/docs/DB_DDL_helper_template.xlsx
+++ b/docs/DB_DDL_helper_template.xlsx
@@ -737,7 +737,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1189" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1504" uniqueCount="272">
   <si>
     <t>TABLE NAME</t>
   </si>
@@ -1503,6 +1503,57 @@
   </si>
   <si>
     <t>A comma-delimited list of project resources and associated highest version number that have been implemented by the project.  If the current version implemented in the project is the same as the current version of the resource the project name is preceded by a "(CV)" prefix to indicate it is the current version and if not the "(UA)" prefix is used to indicate there is an update available</t>
+  </si>
+  <si>
+    <t>RES_NAME_CD_LIST</t>
+  </si>
+  <si>
+    <t>NUM_RES</t>
+  </si>
+  <si>
+    <t>IMPL_RES_CD_LIST</t>
+  </si>
+  <si>
+    <t>PRI_PROJ_RES_TAG_MAX_SUM_ALL_V</t>
+  </si>
+  <si>
+    <t>A comma-delimited list of project resources and associated highest version number that are associated with the project</t>
+  </si>
+  <si>
+    <t>The number of associated resources with the project</t>
+  </si>
+  <si>
+    <t>A comma-delimited list of project resources and associated highest version number that have been implemented by the project.  If the current version implemented in the project is the same as the current version of the resource the project name is preceded by a "*CV" prefix to indicate it is the current version and if not the "*UA" prefix is used to indicate there is an update available</t>
+  </si>
+  <si>
+    <t>ASSOC_PROJ_BR_LIST</t>
+  </si>
+  <si>
+    <t>ASSOC_PROJ_LINK_BR_LIST</t>
+  </si>
+  <si>
+    <t>RES_DESC</t>
+  </si>
+  <si>
+    <t>RES_DEMO_URL</t>
+  </si>
+  <si>
+    <t>PRI_RES_PROJ_TAG_MAX_SUM_ALL_V</t>
+  </si>
+  <si>
+    <t>A comma-delimited list of projects and associated highest version number that have implemented the given resource.  If the current version implemented is the same as the current version of the resource the project name is preceded by a "*CV" prefix to indicate it is the current version and if not the "*UA" prefix is used to indicate there is an update available</t>
+  </si>
+  <si>
+    <t>A web line-break-delimited (&lt;BR&gt;) list of projects and associated highest version number that have implemented the given resource.  If the current version implemented is the same as the current version of the resource the project name is preceded by a "*CV" prefix to indicate it is the current version and if not the "*UA" prefix is used to indicate there is an update available</t>
+  </si>
+  <si>
+    <t>A web line-break-delimited (&lt;BR&gt;) list of projects and associated highest version number in a formatted hyperlink with a relative path to the given Resource Inventory App project that has implemented the given resource.  If the current version implemented is the same as the current version of the resource the project name is preceded by a "*CV" prefix to indicate it is the current version and if not the "*UA" prefix is used to indicate there is an update available</t>
+  </si>
+  <si>
+    <t>The description for the project resource</t>
+  </si>
+  <si>
+    <t>The live demonstration URL for the project resource</t>
   </si>
 </sst>
 </file>
@@ -4509,8 +4560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2806"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A239" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C253" sqref="C253"/>
+    <sheetView tabSelected="1" topLeftCell="A334" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D350" sqref="D350:D385"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7600,7 +7651,7 @@
         <v>82</v>
       </c>
       <c r="D246" s="22" t="str">
-        <f t="shared" ref="D246:D297" si="6">CONCATENATE("COMMENT ON COLUMN ",A246, ".", B246, " IS '", SUBSTITUTE(C246, "'", "''"), "';")</f>
+        <f t="shared" ref="D246:D309" si="6">CONCATENATE("COMMENT ON COLUMN ",A246, ".", B246, " IS '", SUBSTITUTE(C246, "'", "''"), "';")</f>
         <v>COMMENT ON COLUMN PRI_PROJ_RES_TAG_MAX_SUM_V.PROJ_ID IS 'Primary key for the PRI_PROJ table';</v>
       </c>
     </row>
@@ -8367,6 +8418,306 @@
       <c r="D297" s="22" t="str">
         <f t="shared" si="6"/>
         <v>COMMENT ON COLUMN PRI_PROJ_RES_TAG_MAX_V.RES_TYPE_DESC IS 'Description for the given Resource Type';</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A298" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="B298" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C298" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="D298" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_RES_TAG_MAX_SUM_ALL_V.PROJ_ID IS 'Primary key for the PRI_PROJ table';</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A299" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="B299" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C299" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D299" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_RES_TAG_MAX_SUM_ALL_V.PROJ_NAME IS 'Name of the project';</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A300" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="B300" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="C300" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="D300" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_RES_TAG_MAX_SUM_ALL_V.RES_NAME_CD_LIST IS 'A comma-delimited list of project resources and associated highest version number that are associated with the project';</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A301" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="B301" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="C301" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="D301" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_RES_TAG_MAX_SUM_ALL_V.NUM_RES IS 'The number of associated resources with the project';</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A302" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="B302" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="C302" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="D302" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_RES_TAG_MAX_SUM_ALL_V.CURR_VERS_COUNT IS 'The number of implemented resources that have been implemented by the project that are the same as the current version of the resource';</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A303" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="B303" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="C303" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="D303" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_RES_TAG_MAX_SUM_ALL_V.OLD_VERS_COUNT IS 'The number of implemented resources that have been implemented by the project that are not the same as the current version of the resource';</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A304" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="B304" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="C304" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="D304" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_RES_TAG_MAX_SUM_ALL_V.TOTAL_IMPL_RES IS 'The total number of project resources that have been implemented in the given project';</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A305" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="B305" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="C305" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="D305" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_RES_TAG_MAX_SUM_ALL_V.IMPL_RES_CD_LIST IS 'A comma-delimited list of project resources and associated highest version number that have been implemented by the project.  If the current version implemented in the project is the same as the current version of the resource the project name is preceded by a "*CV" prefix to indicate it is the current version and if not the "*UA" prefix is used to indicate there is an update available';</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A306" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="B306" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C306" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D306" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_RES_TAG_MAX_SUM_ALL_V.VC_PROJ_ID IS 'Unique numeric ID of the project in the given version control system';</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A307" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="B307" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C307" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D307" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_RES_TAG_MAX_SUM_ALL_V.PROJ_NAME IS 'Name of the project';</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A308" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="B308" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C308" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D308" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_RES_TAG_MAX_SUM_ALL_V.PROJ_DESC IS 'Description of the project';</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A309" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="B309" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C309" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D309" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_RES_TAG_MAX_SUM_ALL_V.SSH_URL IS 'SSH URL for the project';</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A310" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="B310" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C310" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D310" s="22" t="str">
+        <f t="shared" ref="D310:D317" si="7">CONCATENATE("COMMENT ON COLUMN ",A310, ".", B310, " IS '", SUBSTITUTE(C310, "'", "''"), "';")</f>
+        <v>COMMENT ON COLUMN PRI_PROJ_RES_TAG_MAX_SUM_ALL_V.HTTP_URL IS 'HTTP URL for the project';</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A311" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="B311" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C311" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D311" s="22" t="str">
+        <f t="shared" si="7"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_RES_TAG_MAX_SUM_ALL_V.README_URL IS 'Readme URL for the project';</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A312" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="B312" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C312" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="D312" s="22" t="str">
+        <f t="shared" si="7"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_RES_TAG_MAX_SUM_ALL_V.AVATAR_URL IS 'Avatar URL for the project';</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A313" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="B313" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C313" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="D313" s="22" t="str">
+        <f t="shared" si="7"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_RES_TAG_MAX_SUM_ALL_V.PROJ_CREATE_DTM IS 'The date/time the project was created';</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A314" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="B314" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C314" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="D314" s="22" t="str">
+        <f t="shared" si="7"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_RES_TAG_MAX_SUM_ALL_V.PROJ_UPDATE_DTM IS 'The date/time the project was last updated';</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A315" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="B315" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="C315" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="D315" s="22" t="str">
+        <f t="shared" si="7"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_RES_TAG_MAX_SUM_ALL_V.PROJ_VISIBILITY IS 'The visibility for the project (public, internal, private)';</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A316" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="B316" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="C316" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="D316" s="22" t="str">
+        <f t="shared" si="7"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_RES_TAG_MAX_SUM_ALL_V.PROJ_NAME_SPACE IS 'project name including the namespace prefix';</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A317" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="B317" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C317" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="D317" s="22" t="str">
+        <f t="shared" si="7"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_RES_TAG_MAX_SUM_ALL_V.PROJ_SOURCE IS 'the source of the project record (e.g. PIFSC GitLab, GitHub, manual entry)';</v>
       </c>
     </row>
     <row r="320" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -8375,47 +8726,920 @@
       <c r="C320" s="19"/>
       <c r="D320" s="22"/>
     </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A321" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B321" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C321" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="D321" s="22" t="str">
+        <f t="shared" ref="D321:D345" si="8">CONCATENATE("COMMENT ON COLUMN ",A321, ".", B321, " IS '", SUBSTITUTE(C321, "'", "''"), "';")</f>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.PROJ_ID IS 'Primary key for the PRI_PROJ table';</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A322" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B322" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C322" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D322" s="22" t="str">
+        <f t="shared" si="8"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.PROJ_NAME IS 'Name of the project';</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A323" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B323" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="C323" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="D323" s="22" t="str">
+        <f t="shared" si="8"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.RES_ID IS 'Primary key for the PRI_PROJ_RES table';</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A324" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B324" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="C324" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="D324" s="22" t="str">
+        <f t="shared" si="8"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.RES_NAME IS 'The name of the project resource';</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A325" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B325" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="C325" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="D325" s="22" t="str">
+        <f t="shared" si="8"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.RES_MAX_VERS_NUM IS 'The parsed version number for the maximum installed version of the given resource';</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A326" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B326" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="C326" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="D326" s="22" t="str">
+        <f t="shared" si="8"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.CURR_VERS_COUNT IS 'The number of projects that have implemented the given resource that are the same as the current version';</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A327" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B327" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="C327" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="D327" s="22" t="str">
+        <f t="shared" si="8"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.OLD_VERS_COUNT IS 'The number of projects that have implemented the given resource that are not the same as the current version';</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A328" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B328" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="C328" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="D328" s="22" t="str">
+        <f t="shared" si="8"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.TOTAL_IMPL_PROJ IS 'The total number of projects that have implemented the given resource';</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A329" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B329" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="C329" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="D329" s="22" t="str">
+        <f t="shared" si="8"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.ASSOC_PROJ_CD_LIST IS 'A comma-delimited list of projects and associated highest version number that have implemented the given resource.  If the current version implemented is the same as the current version of the resource the project name is preceded by a "*CV" prefix to indicate it is the current version and if not the "*UA" prefix is used to indicate there is an update available';</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A330" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B330" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="C330" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="D330" s="22" t="str">
+        <f t="shared" si="8"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.ASSOC_PROJ_BR_LIST IS 'A web line-break-delimited (&lt;BR&gt;) list of projects and associated highest version number that have implemented the given resource.  If the current version implemented is the same as the current version of the resource the project name is preceded by a "*CV" prefix to indicate it is the current version and if not the "*UA" prefix is used to indicate there is an update available';</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A331" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B331" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="C331" s="19" t="s">
+        <v>269</v>
+      </c>
+      <c r="D331" s="22" t="str">
+        <f t="shared" si="8"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.ASSOC_PROJ_LINK_BR_LIST IS 'A web line-break-delimited (&lt;BR&gt;) list of projects and associated highest version number in a formatted hyperlink with a relative path to the given Resource Inventory App project that has implemented the given resource.  If the current version implemented is the same as the current version of the resource the project name is preceded by a "*CV" prefix to indicate it is the current version and if not the "*UA" prefix is used to indicate there is an update available';</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A332" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B332" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="C332" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="D332" s="22" t="str">
+        <f t="shared" si="8"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.RES_CATEGORY IS 'The resource category (free form text) - examples values include Development Tool, Data Management Tool, Centralized Database Applications';</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A333" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B333" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="C333" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="D333" s="22" t="str">
+        <f t="shared" si="8"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.RES_TAG_CONV IS 'Tag Naming convention used to identify the given project resource''s version.  The suffix is required to be a series of period-delimited numbers (e.g. for a naming convention of db_module_packager_v the tag value of db_module_packager_v1.13.4 is valid)';</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A334" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B334" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="C334" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="D334" s="22" t="str">
+        <f t="shared" si="8"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.RES_COLOR_CODE IS 'The color code for the project resource';</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A335" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B335" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="C335" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="D335" s="22" t="str">
+        <f t="shared" si="8"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.RES_URL IS 'The URL for the project resource (this is blank when the repository URL is the same as the resource URL)';</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A336" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B336" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="C336" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="D336" s="22" t="str">
+        <f t="shared" si="8"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.RES_SCOPE_ID IS 'Foreign key reference to the resource scope';</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A337" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B337" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="C337" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="D337" s="22" t="str">
+        <f t="shared" si="8"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.RES_SCOPE_CODE IS 'Code for the given Resource Scope';</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A338" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B338" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="C338" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="D338" s="22" t="str">
+        <f t="shared" si="8"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.RES_SCOPE_NAME IS 'Name of the given Resource Scope';</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A339" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B339" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="C339" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="D339" s="22" t="str">
+        <f t="shared" si="8"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.RES_SCOPE_DESC IS 'Description for the given Resource Scope';</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A340" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B340" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="C340" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="D340" s="22" t="str">
+        <f t="shared" si="8"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.RES_TYPE_ID IS 'Foreign key reference to the resource type';</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A341" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B341" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="C341" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="D341" s="22" t="str">
+        <f t="shared" si="8"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.RES_TYPE_CODE IS 'Code for the given Resource Type';</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A342" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B342" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="C342" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="D342" s="22" t="str">
+        <f t="shared" si="8"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.RES_TYPE_NAME IS 'Name of the given Resource Type';</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A343" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B343" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="C343" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="D343" s="22" t="str">
+        <f t="shared" si="8"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.RES_TYPE_DESC IS 'Description for the given Resource Type';</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A344" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B344" s="19" t="s">
+        <v>264</v>
+      </c>
+      <c r="C344" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="D344" s="22" t="str">
+        <f t="shared" si="8"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.RES_DESC IS 'The description for the project resource';</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A345" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B345" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="C345" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="D345" s="22" t="str">
+        <f t="shared" si="8"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.RES_DEMO_URL IS 'The live demonstration URL for the project resource';</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A350" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B350" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C350" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="D350" s="22" t="str">
+        <f t="shared" ref="D350:D385" si="9">CONCATENATE("COMMENT ON COLUMN ",A350, ".", B350, " IS '", SUBSTITUTE(C350, "'", "''"), "';")</f>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.PROJ_ID IS 'Primary key for the PRI_PROJ table';</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A351" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B351" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C351" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D351" s="22" t="str">
+        <f t="shared" si="9"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.PROJ_NAME IS 'Name of the project';</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A352" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B352" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="C352" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="D352" s="22" t="str">
+        <f t="shared" si="9"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.RES_ID IS 'Primary key for the PRI_PROJ_RES table';</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A353" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B353" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="C353" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="D353" s="22" t="str">
+        <f t="shared" si="9"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.RES_NAME IS 'The name of the project resource';</v>
+      </c>
+    </row>
     <row r="354" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A354" s="19"/>
-      <c r="B354" s="19"/>
-      <c r="C354" s="19"/>
-      <c r="D354" s="22"/>
+      <c r="A354" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B354" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="C354" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="D354" s="22" t="str">
+        <f t="shared" si="9"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.RES_MAX_VERS_NUM IS 'The parsed version number for the maximum installed version of the given resource';</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A355" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B355" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="C355" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="D355" s="22" t="str">
+        <f t="shared" si="9"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.CURR_VERS_COUNT IS 'The number of projects that have implemented the given resource that are the same as the current version';</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A356" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B356" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="C356" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="D356" s="22" t="str">
+        <f t="shared" si="9"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.OLD_VERS_COUNT IS 'The number of projects that have implemented the given resource that are not the same as the current version';</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A357" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B357" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="C357" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="D357" s="22" t="str">
+        <f t="shared" si="9"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.TOTAL_IMPL_PROJ IS 'The total number of projects that have implemented the given resource';</v>
+      </c>
     </row>
     <row r="358" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A358" s="19"/>
-      <c r="B358" s="19"/>
-      <c r="C358" s="19"/>
-      <c r="D358" s="22"/>
+      <c r="A358" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B358" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="C358" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="D358" s="22" t="str">
+        <f t="shared" si="9"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.ASSOC_PROJ_CD_LIST IS 'A comma-delimited list of projects and associated highest version number that have implemented the given resource.  If the current version implemented is the same as the current version of the resource the project name is preceded by a "*CV" prefix to indicate it is the current version and if not the "*UA" prefix is used to indicate there is an update available';</v>
+      </c>
     </row>
     <row r="359" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A359" s="19"/>
-      <c r="B359" s="19"/>
-      <c r="C359" s="19"/>
-      <c r="D359" s="22"/>
+      <c r="A359" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B359" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="C359" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="D359" s="22" t="str">
+        <f t="shared" si="9"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.ASSOC_PROJ_BR_LIST IS 'A web line-break-delimited (&lt;BR&gt;) list of projects and associated highest version number that have implemented the given resource.  If the current version implemented is the same as the current version of the resource the project name is preceded by a "*CV" prefix to indicate it is the current version and if not the "*UA" prefix is used to indicate there is an update available';</v>
+      </c>
     </row>
     <row r="360" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A360" s="19"/>
-      <c r="B360" s="19"/>
-      <c r="C360" s="19"/>
-      <c r="D360" s="22"/>
+      <c r="A360" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B360" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="C360" s="19" t="s">
+        <v>269</v>
+      </c>
+      <c r="D360" s="22" t="str">
+        <f t="shared" si="9"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.ASSOC_PROJ_LINK_BR_LIST IS 'A web line-break-delimited (&lt;BR&gt;) list of projects and associated highest version number in a formatted hyperlink with a relative path to the given Resource Inventory App project that has implemented the given resource.  If the current version implemented is the same as the current version of the resource the project name is preceded by a "*CV" prefix to indicate it is the current version and if not the "*UA" prefix is used to indicate there is an update available';</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A361" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B361" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C361" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D361" s="22" t="str">
+        <f t="shared" si="9"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.VC_PROJ_ID IS 'Unique numeric ID of the project in the given version control system';</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A362" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B362" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C362" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D362" s="22" t="str">
+        <f t="shared" si="9"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.PROJ_DESC IS 'Description of the project';</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A363" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B363" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C363" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D363" s="22" t="str">
+        <f t="shared" si="9"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.SSH_URL IS 'SSH URL for the project';</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A364" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B364" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C364" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D364" s="22" t="str">
+        <f t="shared" si="9"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.HTTP_URL IS 'HTTP URL for the project';</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A365" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B365" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C365" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D365" s="22" t="str">
+        <f t="shared" si="9"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.README_URL IS 'Readme URL for the project';</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A366" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B366" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C366" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="D366" s="22" t="str">
+        <f t="shared" si="9"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.AVATAR_URL IS 'Avatar URL for the project';</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A367" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B367" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C367" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="D367" s="22" t="str">
+        <f t="shared" si="9"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.PROJ_CREATE_DTM IS 'The date/time the project was created';</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A368" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B368" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C368" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="D368" s="22" t="str">
+        <f t="shared" si="9"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.PROJ_UPDATE_DTM IS 'The date/time the project was last updated';</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A369" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B369" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="C369" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="D369" s="22" t="str">
+        <f t="shared" si="9"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.PROJ_VISIBILITY IS 'The visibility for the project (public, internal, private)';</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A370" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B370" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="C370" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="D370" s="22" t="str">
+        <f t="shared" si="9"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.PROJ_NAME_SPACE IS 'project name including the namespace prefix';</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A371" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B371" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C371" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="D371" s="22" t="str">
+        <f t="shared" si="9"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.PROJ_SOURCE IS 'the source of the project record (e.g. PIFSC GitLab, GitHub, manual entry)';</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A372" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B372" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="C372" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="D372" s="22" t="str">
+        <f t="shared" si="9"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.RES_CATEGORY IS 'The resource category (free form text) - examples values include Development Tool, Data Management Tool, Centralized Database Applications';</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A373" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B373" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="C373" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="D373" s="22" t="str">
+        <f t="shared" si="9"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.RES_TAG_CONV IS 'Tag Naming convention used to identify the given project resource''s version.  The suffix is required to be a series of period-delimited numbers (e.g. for a naming convention of db_module_packager_v the tag value of db_module_packager_v1.13.4 is valid)';</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A374" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B374" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="C374" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="D374" s="22" t="str">
+        <f t="shared" si="9"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.RES_COLOR_CODE IS 'The color code for the project resource';</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A375" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B375" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="C375" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="D375" s="22" t="str">
+        <f t="shared" si="9"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.RES_URL IS 'The URL for the project resource (this is blank when the repository URL is the same as the resource URL)';</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A376" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B376" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="C376" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="D376" s="22" t="str">
+        <f t="shared" si="9"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.RES_SCOPE_ID IS 'Foreign key reference to the resource scope';</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A377" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B377" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="C377" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="D377" s="22" t="str">
+        <f t="shared" si="9"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.RES_SCOPE_CODE IS 'Code for the given Resource Scope';</v>
+      </c>
     </row>
     <row r="378" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A378" s="19"/>
-      <c r="B378" s="19"/>
-      <c r="C378" s="19"/>
-      <c r="D378" s="22"/>
+      <c r="A378" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B378" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="C378" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="D378" s="22" t="str">
+        <f t="shared" si="9"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.RES_SCOPE_NAME IS 'Name of the given Resource Scope';</v>
+      </c>
     </row>
     <row r="379" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A379" s="19"/>
-      <c r="B379" s="19"/>
-      <c r="C379" s="19"/>
-      <c r="D379" s="22"/>
+      <c r="A379" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B379" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="C379" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="D379" s="22" t="str">
+        <f t="shared" si="9"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.RES_SCOPE_DESC IS 'Description for the given Resource Scope';</v>
+      </c>
     </row>
     <row r="380" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A380" s="19"/>
-      <c r="B380" s="19"/>
-      <c r="C380" s="19"/>
-      <c r="D380" s="22"/>
+      <c r="A380" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B380" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="C380" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="D380" s="22" t="str">
+        <f t="shared" si="9"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.RES_TYPE_ID IS 'Foreign key reference to the resource type';</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A381" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B381" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="C381" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="D381" s="22" t="str">
+        <f t="shared" si="9"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.RES_TYPE_CODE IS 'Code for the given Resource Type';</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A382" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B382" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="C382" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="D382" s="22" t="str">
+        <f t="shared" si="9"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.RES_TYPE_NAME IS 'Name of the given Resource Type';</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A383" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B383" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="C383" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="D383" s="22" t="str">
+        <f t="shared" si="9"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.RES_TYPE_DESC IS 'Description for the given Resource Type';</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A384" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B384" s="19" t="s">
+        <v>264</v>
+      </c>
+      <c r="C384" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="D384" s="22" t="str">
+        <f t="shared" si="9"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.RES_DESC IS 'The description for the project resource';</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A385" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B385" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="C385" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="D385" s="22" t="str">
+        <f t="shared" si="9"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.RES_DEMO_URL IS 'The live demonstration URL for the project resource';</v>
+      </c>
     </row>
     <row r="399" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A399" s="19"/>
@@ -11334,10 +12558,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C207"/>
+  <dimension ref="A1:C246"/>
   <sheetViews>
-    <sheetView topLeftCell="A193" workbookViewId="0">
-      <selection activeCell="C181" sqref="C181:C207"/>
+    <sheetView topLeftCell="A199" workbookViewId="0">
+      <selection activeCell="C222" sqref="C222:C246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13604,6 +14828,438 @@
       <c r="C207" s="18" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve">PRI_PROJ_V.RES_TYPE_DESC RES_RES_TYPE_DESC, </v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>177</v>
+      </c>
+      <c r="B211" t="s">
+        <v>72</v>
+      </c>
+      <c r="C211" s="18" t="str">
+        <f t="shared" ref="C211:C246" si="8">CONCATENATE(A211, ".", B211, ", ")</f>
+        <v xml:space="preserve">PRI_RES_PROJ_TAG_MAX_SUM_V.PROJ_ID, </v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="B212" t="s">
+        <v>74</v>
+      </c>
+      <c r="C212" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">PRI_RES_PROJ_TAG_MAX_SUM_V.PROJ_NAME, </v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="B213" t="s">
+        <v>120</v>
+      </c>
+      <c r="C213" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">PRI_RES_PROJ_TAG_MAX_SUM_V.RES_ID, </v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="B214" t="s">
+        <v>123</v>
+      </c>
+      <c r="C214" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">PRI_RES_PROJ_TAG_MAX_SUM_V.RES_NAME, </v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="B215" t="s">
+        <v>172</v>
+      </c>
+      <c r="C215" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">PRI_RES_PROJ_TAG_MAX_SUM_V.RES_MAX_VERS_NUM, </v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="B216" t="s">
+        <v>173</v>
+      </c>
+      <c r="C216" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">PRI_RES_PROJ_TAG_MAX_SUM_V.CURR_VERS_COUNT, </v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="B217" t="s">
+        <v>174</v>
+      </c>
+      <c r="C217" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">PRI_RES_PROJ_TAG_MAX_SUM_V.OLD_VERS_COUNT, </v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="B218" t="s">
+        <v>175</v>
+      </c>
+      <c r="C218" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">PRI_RES_PROJ_TAG_MAX_SUM_V.TOTAL_IMPL_PROJ, </v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="B219" t="s">
+        <v>176</v>
+      </c>
+      <c r="C219" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">PRI_RES_PROJ_TAG_MAX_SUM_V.ASSOC_PROJ_CD_LIST, </v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="B220" t="s">
+        <v>262</v>
+      </c>
+      <c r="C220" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">PRI_RES_PROJ_TAG_MAX_SUM_V.ASSOC_PROJ_BR_LIST, </v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="B221" t="s">
+        <v>263</v>
+      </c>
+      <c r="C221" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">PRI_RES_PROJ_TAG_MAX_SUM_V.ASSOC_PROJ_LINK_BR_LIST, </v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B222" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="C222" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">PRI_PROJ_V.VC_PROJ_ID, </v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B223" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C223" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">PRI_PROJ_V.PROJ_DESC, </v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B224" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C224" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">PRI_PROJ_V.SSH_URL, </v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B225" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C225" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">PRI_PROJ_V.HTTP_URL, </v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B226" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C226" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">PRI_PROJ_V.README_URL, </v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B227" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C227" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">PRI_PROJ_V.AVATAR_URL, </v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B228" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C228" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">PRI_PROJ_V.PROJ_CREATE_DTM, </v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B229" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C229" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">PRI_PROJ_V.PROJ_UPDATE_DTM, </v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B230" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="C230" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">PRI_PROJ_V.PROJ_VISIBILITY, </v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B231" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C231" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">PRI_PROJ_V.PROJ_NAME_SPACE, </v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B232" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C232" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">PRI_PROJ_V.PROJ_SOURCE, </v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B233" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="C233" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">PRI_PROJ_V.RES_CATEGORY, </v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B234" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C234" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">PRI_PROJ_V.RES_TAG_CONV, </v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B235" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C235" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">PRI_PROJ_V.RES_COLOR_CODE, </v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B236" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="C236" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">PRI_PROJ_V.RES_URL, </v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B237" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="C237" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">PRI_PROJ_V.RES_SCOPE_ID, </v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B238" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="C238" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">PRI_PROJ_V.RES_SCOPE_CODE, </v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B239" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="C239" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">PRI_PROJ_V.RES_SCOPE_NAME, </v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B240" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="C240" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">PRI_PROJ_V.RES_SCOPE_DESC, </v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B241" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="C241" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">PRI_PROJ_V.RES_TYPE_ID, </v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B242" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="C242" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">PRI_PROJ_V.RES_TYPE_CODE, </v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B243" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="C243" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">PRI_PROJ_V.RES_TYPE_NAME, </v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B244" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="C244" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">PRI_PROJ_V.RES_TYPE_DESC, </v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B245" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="C245" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">PRI_PROJ_V.RES_DESC, </v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B246" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="C246" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">PRI_PROJ_V.RES_DEMO_URL, </v>
       </c>
     </row>
   </sheetData>

--- a/docs/DB_DDL_helper_template.xlsx
+++ b/docs/DB_DDL_helper_template.xlsx
@@ -737,7 +737,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1504" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1671" uniqueCount="347">
   <si>
     <t>TABLE NAME</t>
   </si>
@@ -1554,6 +1554,232 @@
   </si>
   <si>
     <t>The live demonstration URL for the project resource</t>
+  </si>
+  <si>
+    <t>VC_OWNER_ID</t>
+  </si>
+  <si>
+    <t>VC_CREATOR_ID</t>
+  </si>
+  <si>
+    <t>VC_WEB_URL</t>
+  </si>
+  <si>
+    <t>VC_OPEN_ISSUES_COUNT</t>
+  </si>
+  <si>
+    <t>VC_COMMIT_COUNT</t>
+  </si>
+  <si>
+    <t>VC_STORAGE_SIZE</t>
+  </si>
+  <si>
+    <t>VC_REPO_SIZE</t>
+  </si>
+  <si>
+    <t>Unique numeric User ID of the project's owner in the given version control system</t>
+  </si>
+  <si>
+    <t>Unique numeric User ID of the project's creator in the given version control system</t>
+  </si>
+  <si>
+    <t>The web URL of the project in the given version control system</t>
+  </si>
+  <si>
+    <t>The number of open issues for the project in the given version control system</t>
+  </si>
+  <si>
+    <t>The total number of commits for the project in the given version control system</t>
+  </si>
+  <si>
+    <t>The total storage size for the project in the given version control system</t>
+  </si>
+  <si>
+    <t>The total repository size for the project in the given version control system</t>
+  </si>
+  <si>
+    <t>PRI_VC_USERS</t>
+  </si>
+  <si>
+    <t>USER_ID</t>
+  </si>
+  <si>
+    <t>SOURCE_ID</t>
+  </si>
+  <si>
+    <t>Data Sources</t>
+  </si>
+  <si>
+    <t>SOURCE</t>
+  </si>
+  <si>
+    <t>PRI_DATA_SOURCES</t>
+  </si>
+  <si>
+    <t>PIFSC Resource Inventory Data Sources
+This table store the data sources for the information in the PIFSC Resource Inventory Database</t>
+  </si>
+  <si>
+    <t>VC_USER_ID</t>
+  </si>
+  <si>
+    <t>USERNAME</t>
+  </si>
+  <si>
+    <t>USER_NAME</t>
+  </si>
+  <si>
+    <t>USER_EMAIL</t>
+  </si>
+  <si>
+    <t>WEB_URL</t>
+  </si>
+  <si>
+    <t>DATA_SOURCE_ID</t>
+  </si>
+  <si>
+    <t>DATA_SOURCE_CODE</t>
+  </si>
+  <si>
+    <t>DATA_SOURCE_NAME</t>
+  </si>
+  <si>
+    <t>DATA_SOURCE_DESC</t>
+  </si>
+  <si>
+    <t>Primary key for the Data Sources table</t>
+  </si>
+  <si>
+    <t>Code for the given Data Source</t>
+  </si>
+  <si>
+    <t>Name of the given Data Source</t>
+  </si>
+  <si>
+    <t>Description for the given Data Source</t>
+  </si>
+  <si>
+    <t>Primary key for the PRI_VC_USERS table</t>
+  </si>
+  <si>
+    <t>Unique User ID for user within the version control system</t>
+  </si>
+  <si>
+    <t>Login username for the user account in the version control system</t>
+  </si>
+  <si>
+    <t>Name of the user account in the version control system</t>
+  </si>
+  <si>
+    <t>Email for the user account in the version control system</t>
+  </si>
+  <si>
+    <t>Avatar URL for the user account in the version control system</t>
+  </si>
+  <si>
+    <t>Web URL for the user account in the version control system</t>
+  </si>
+  <si>
+    <t>The date on which this user was created in the database</t>
+  </si>
+  <si>
+    <t>The Oracle username of the person creating the user in the database</t>
+  </si>
+  <si>
+    <t>The last date on which any of the data in the user was changed</t>
+  </si>
+  <si>
+    <t>The Oracle username of the person making the most recent change to this user</t>
+  </si>
+  <si>
+    <t>PRI_CV_USERS_V</t>
+  </si>
+  <si>
+    <t>PRI_CV_USERS</t>
+  </si>
+  <si>
+    <t>OWNER_USER_ID</t>
+  </si>
+  <si>
+    <t>OWNER_USERNAME</t>
+  </si>
+  <si>
+    <t>OWNER_USER_NAME</t>
+  </si>
+  <si>
+    <t>OWNER_USER_EMAIL</t>
+  </si>
+  <si>
+    <t>OWNER_AVATAR_URL</t>
+  </si>
+  <si>
+    <t>OWNER_WEB_URL</t>
+  </si>
+  <si>
+    <t>CREATOR_USER_ID</t>
+  </si>
+  <si>
+    <t>CREATOR_USERNAME</t>
+  </si>
+  <si>
+    <t>CREATOR_USER_NAME</t>
+  </si>
+  <si>
+    <t>CREATOR_USER_EMAIL</t>
+  </si>
+  <si>
+    <t>CREATOR_AVATAR_URL</t>
+  </si>
+  <si>
+    <t>CREATOR_WEB_URL</t>
+  </si>
+  <si>
+    <t>The date the project record was created in the database</t>
+  </si>
+  <si>
+    <t>The Oracle username of the person that created the project record in the database</t>
+  </si>
+  <si>
+    <t>The last date on which any of the data in the project record was changed</t>
+  </si>
+  <si>
+    <t>The Oracle username of the person making the most recent change to the project record</t>
+  </si>
+  <si>
+    <t>Login username for the project owner's user account in the version control system</t>
+  </si>
+  <si>
+    <t>Name of the project owner's user account in the version control system</t>
+  </si>
+  <si>
+    <t>Email for the project owner's user account in the version control system</t>
+  </si>
+  <si>
+    <t>Avatar URL for the project owner's user account in the version control system</t>
+  </si>
+  <si>
+    <t>Web URL for the project owner's user account in the version control system</t>
+  </si>
+  <si>
+    <t>The Project Owner's User ID for the version control system</t>
+  </si>
+  <si>
+    <t>The Project Creator's User ID for the version control system</t>
+  </si>
+  <si>
+    <t>Login username for the project creator's user account in the version control system</t>
+  </si>
+  <si>
+    <t>Name of the project creator's user account in the version control system</t>
+  </si>
+  <si>
+    <t>Email for the project creator's user account in the version control system</t>
+  </si>
+  <si>
+    <t>Avatar URL for the project creator's user account in the version control system</t>
+  </si>
+  <si>
+    <t>Web URL for the project creator's user account in the version control system</t>
   </si>
 </sst>
 </file>
@@ -2004,11 +2230,11 @@
   <dimension ref="A1:AA32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="8655" ySplit="900" topLeftCell="T1" activePane="bottomRight"/>
+      <pane xSplit="8655" ySplit="900" activePane="bottomRight"/>
       <selection activeCell="G1" sqref="G1"/>
       <selection pane="topRight" activeCell="X1" sqref="X1"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="T8" sqref="T8"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3560,11 +3786,11 @@
         <v>COMMENT ON TABLE PRI_RES_TYPES IS '';</v>
       </c>
       <c r="Q9" s="22" t="str">
-        <f t="shared" ref="Q9" si="39">CONCATENATE("COMMENT ON COLUMN ", A9, ".", C9, " IS 'Primary Key for the ", A9, " table';")</f>
+        <f t="shared" ref="Q9:Q10" si="39">CONCATENATE("COMMENT ON COLUMN ", A9, ".", C9, " IS 'Primary Key for the ", A9, " table';")</f>
         <v>COMMENT ON COLUMN PRI_RES_TYPES.RES_TYPE_ID IS 'Primary Key for the PRI_RES_TYPES table';</v>
       </c>
       <c r="R9" s="23" t="str">
-        <f t="shared" ref="R9" si="40">CONCATENATE("create or replace TRIGGER 
+        <f t="shared" ref="R9:R10" si="40">CONCATENATE("create or replace TRIGGER 
 ",A9, "_AUTO_BRI 
 before insert on ",A9,"
 for each row
@@ -3584,7 +3810,7 @@
 </v>
       </c>
       <c r="S9" s="23" t="str">
-        <f t="shared" ref="S9" si="41">CONCATENATE("create or replace TRIGGER ",A9, "_AUTO_BRI
+        <f t="shared" ref="S9:S10" si="41">CONCATENATE("create or replace TRIGGER ",A9, "_AUTO_BRI
 before insert on ", A9, "
 for each row
 begin
@@ -3745,12 +3971,16 @@
       </c>
     </row>
     <row r="10" spans="1:27" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
+      <c r="A10" s="19" t="s">
+        <v>286</v>
+      </c>
       <c r="B10" s="16" t="str">
         <f t="shared" si="25"/>
         <v>Yes</v>
       </c>
-      <c r="C10" s="19"/>
+      <c r="C10" s="19" t="s">
+        <v>287</v>
+      </c>
       <c r="D10" s="16" t="str">
         <f t="shared" si="26"/>
         <v>Yes</v>
@@ -3758,61 +3988,408 @@
       <c r="E10" s="19"/>
       <c r="F10" s="16" t="str">
         <f t="shared" si="15"/>
-        <v>_SEQ</v>
-      </c>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="22"/>
-      <c r="S10" s="22"/>
-      <c r="T10" s="22"/>
-      <c r="V10" s="19"/>
-      <c r="W10" s="19"/>
-      <c r="X10" s="28"/>
-      <c r="Y10" s="28"/>
+        <v>PRI_VC_USERS_SEQ</v>
+      </c>
+      <c r="G10" s="22" t="str">
+        <f t="shared" ref="G10:G11" si="46">CONCATENATE("CREATE SEQUENCE ",F10," INCREMENT BY 1 START WITH 1;")</f>
+        <v>CREATE SEQUENCE PRI_VC_USERS_SEQ INCREMENT BY 1 START WITH 1;</v>
+      </c>
+      <c r="H10" s="22" t="str">
+        <f t="shared" ref="H10:H11" si="47">CONCATENATE("ALTER TABLE ", A10, " ADD (CREATE_DATE DATE );")</f>
+        <v>ALTER TABLE PRI_VC_USERS ADD (CREATE_DATE DATE );</v>
+      </c>
+      <c r="I10" s="22" t="str">
+        <f t="shared" ref="I10:I11" si="48">CONCATENATE("ALTER TABLE ",A10, " ADD (CREATED_BY VARCHAR2(30) );")</f>
+        <v>ALTER TABLE PRI_VC_USERS ADD (CREATED_BY VARCHAR2(30) );</v>
+      </c>
+      <c r="J10" s="22" t="str">
+        <f t="shared" ref="J10:J11" si="49">CONCATENATE("ALTER TABLE ",A10, " ADD (LAST_MOD_DATE DATE );")</f>
+        <v>ALTER TABLE PRI_VC_USERS ADD (LAST_MOD_DATE DATE );</v>
+      </c>
+      <c r="K10" s="22" t="str">
+        <f t="shared" ref="K10:K11" si="50">CONCATENATE("ALTER TABLE ", A10, " ADD (LAST_MOD_BY VARCHAR2(30) );")</f>
+        <v>ALTER TABLE PRI_VC_USERS ADD (LAST_MOD_BY VARCHAR2(30) );</v>
+      </c>
+      <c r="L10" s="22" t="str">
+        <f t="shared" ref="L10:L11" si="51">CONCATENATE("COMMENT ON COLUMN ",A10, ".CREATE_DATE IS 'The date on which this record was created in the database';")</f>
+        <v>COMMENT ON COLUMN PRI_VC_USERS.CREATE_DATE IS 'The date on which this record was created in the database';</v>
+      </c>
+      <c r="M10" s="22" t="str">
+        <f t="shared" ref="M10:M11" si="52">CONCATENATE("COMMENT ON COLUMN ",A10,".CREATED_BY IS 'The Oracle username of the person creating this record in the database';")</f>
+        <v>COMMENT ON COLUMN PRI_VC_USERS.CREATED_BY IS 'The Oracle username of the person creating this record in the database';</v>
+      </c>
+      <c r="N10" s="22" t="str">
+        <f t="shared" ref="N10:N11" si="53">CONCATENATE("COMMENT ON COLUMN ", A10, ".LAST_MOD_DATE IS 'The last date on which any of the data in this record was changed';")</f>
+        <v>COMMENT ON COLUMN PRI_VC_USERS.LAST_MOD_DATE IS 'The last date on which any of the data in this record was changed';</v>
+      </c>
+      <c r="O10" s="22" t="str">
+        <f t="shared" ref="O10:O11" si="54">CONCATENATE("COMMENT ON COLUMN ", A10, ".LAST_MOD_BY IS 'The Oracle username of the person making the most recent change to this record';")</f>
+        <v>COMMENT ON COLUMN PRI_VC_USERS.LAST_MOD_BY IS 'The Oracle username of the person making the most recent change to this record';</v>
+      </c>
+      <c r="P10" s="23" t="str">
+        <f t="shared" ref="P10:P11" si="55">CONCATENATE("COMMENT ON TABLE ", A10, " IS '", SUBSTITUTE(E10, "'", "''"), "';")</f>
+        <v>COMMENT ON TABLE PRI_VC_USERS IS '';</v>
+      </c>
+      <c r="Q10" s="22" t="str">
+        <f t="shared" ref="Q10:Q11" si="56">CONCATENATE("COMMENT ON COLUMN ", A10, ".", C10, " IS 'Primary Key for the ", A10, " table';")</f>
+        <v>COMMENT ON COLUMN PRI_VC_USERS.USER_ID IS 'Primary Key for the PRI_VC_USERS table';</v>
+      </c>
+      <c r="R10" s="23" t="str">
+        <f t="shared" ref="R10:R11" si="57">CONCATENATE("create or replace TRIGGER 
+",A10, "_AUTO_BRI 
+before insert on ",A10,"
+for each row
+begin
+  select ",A10,"_SEQ.nextval into :new.",C10," from dual;
+end;
+/
+")</f>
+        <v xml:space="preserve">create or replace TRIGGER 
+PRI_VC_USERS_AUTO_BRI 
+before insert on PRI_VC_USERS
+for each row
+begin
+  select PRI_VC_USERS_SEQ.nextval into :new.USER_ID from dual;
+end;
+/
+</v>
+      </c>
+      <c r="S10" s="23" t="str">
+        <f t="shared" ref="S10:S11" si="58">CONCATENATE("create or replace TRIGGER ",A10, "_AUTO_BRI
+before insert on ", A10, "
+for each row
+begin
+  select ", A10, "_SEQ.nextval into :new.", C10, " from dual;
+  :NEW.CREATE_DATE := SYSDATE;
+  :NEW.CREATED_BY := nvl(v('APP_USER'),user);
+end;
+/
+")</f>
+        <v xml:space="preserve">create or replace TRIGGER PRI_VC_USERS_AUTO_BRI
+before insert on PRI_VC_USERS
+for each row
+begin
+  select PRI_VC_USERS_SEQ.nextval into :new.USER_ID from dual;
+  :NEW.CREATE_DATE := SYSDATE;
+  :NEW.CREATED_BY := nvl(v('APP_USER'),user);
+end;
+/
+</v>
+      </c>
+      <c r="T10" s="23" t="str">
+        <f t="shared" ref="T10:T11" si="59">CONCATENATE("CREATE OR REPLACE TRIGGER ", A10, "_AUTO_BRU BEFORE
+  UPDATE
+    ON ", A10, " FOR EACH ROW 
+    BEGIN 
+      :NEW.LAST_MOD_DATE := SYSDATE;
+      :NEW.LAST_MOD_BY := nvl(v('APP_USER'),user);
+END;
+/
+")</f>
+        <v xml:space="preserve">CREATE OR REPLACE TRIGGER PRI_VC_USERS_AUTO_BRU BEFORE
+  UPDATE
+    ON PRI_VC_USERS FOR EACH ROW 
+    BEGIN 
+      :NEW.LAST_MOD_DATE := SYSDATE;
+      :NEW.LAST_MOD_BY := nvl(v('APP_USER'),user);
+END;
+/
+</v>
+      </c>
+      <c r="U10" s="18"/>
+      <c r="V10" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="W10" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="X10" s="27" t="str">
+        <f t="shared" ref="X10:X11" si="60">CONCATENATE("CREATE TABLE ", A10, " 
+(
+  ", C10, " NUMBER NOT NULL 
+, ", W10, "_CODE VARCHAR2(50) 
+, ", W10, "_NAME VARCHAR2(200) NOT NULL 
+, ", W10, "_DESC VARCHAR2(500) 
+, CONSTRAINT ", A10, "_PK PRIMARY KEY 
+  (
+    ", C10, " 
+  )
+  ENABLE 
+);
+COMMENT ON COLUMN ", A10, ".", C10, " IS 'Primary key for the ", V10, " table';
+COMMENT ON COLUMN ", A10, ".", W10, "_CODE IS 'Code for the given ", V10, "';
+COMMENT ON COLUMN ", A10, ".", W10, "_NAME IS 'Name of the given ", V10, "';
+COMMENT ON COLUMN ", A10, ".", W10, "_DESC IS 'Description for the given ", V10, "';
+COMMENT ON TABLE ", A10, " IS '", "Reference Table for storing ", V10, " information';
+ALTER TABLE ", A10, " ADD CONSTRAINT ", A10, "_U1 UNIQUE 
+(
+  ", W10, "_CODE 
+)
+ENABLE;
+ALTER TABLE ", A10, " ADD CONSTRAINT ", A10, "_U2 UNIQUE 
+(
+  ", W10, "_NAME 
+)
+ENABLE;
+")</f>
+        <v xml:space="preserve">CREATE TABLE PRI_VC_USERS 
+(
+  USER_ID NUMBER NOT NULL 
+, TYPE_CODE VARCHAR2(50) 
+, TYPE_NAME VARCHAR2(200) NOT NULL 
+, TYPE_DESC VARCHAR2(500) 
+, CONSTRAINT PRI_VC_USERS_PK PRIMARY KEY 
+  (
+    USER_ID 
+  )
+  ENABLE 
+);
+COMMENT ON COLUMN PRI_VC_USERS.USER_ID IS 'Primary key for the Resource Types table';
+COMMENT ON COLUMN PRI_VC_USERS.TYPE_CODE IS 'Code for the given Resource Types';
+COMMENT ON COLUMN PRI_VC_USERS.TYPE_NAME IS 'Name of the given Resource Types';
+COMMENT ON COLUMN PRI_VC_USERS.TYPE_DESC IS 'Description for the given Resource Types';
+COMMENT ON TABLE PRI_VC_USERS IS 'Reference Table for storing Resource Types information';
+ALTER TABLE PRI_VC_USERS ADD CONSTRAINT PRI_VC_USERS_U1 UNIQUE 
+(
+  TYPE_CODE 
+)
+ENABLE;
+ALTER TABLE PRI_VC_USERS ADD CONSTRAINT PRI_VC_USERS_U2 UNIQUE 
+(
+  TYPE_NAME 
+)
+ENABLE;
+</v>
+      </c>
+      <c r="Y10" s="27" t="str">
+        <f>CONCATENATE("insert into ", A10, " (", W10, "_NAME) SELECT distinct [FIELDNAME] from [TABLENAME] where [FIELDNAME] IS NOT NULL AND [FIELDNAME] &lt;&gt; 'NA';")</f>
+        <v>insert into PRI_VC_USERS (TYPE_NAME) SELECT distinct [FIELDNAME] from [TABLENAME] where [FIELDNAME] IS NOT NULL AND [FIELDNAME] &lt;&gt; 'NA';</v>
+      </c>
+      <c r="Z10" s="16" t="str">
+        <f t="shared" ref="Z10:Z11" si="61">CONCATENATE("DROP TRIGGER ""bi_", A10, """;")</f>
+        <v>DROP TRIGGER "bi_PRI_VC_USERS";</v>
+      </c>
+      <c r="AA10" s="28" t="str">
+        <f t="shared" ref="AA10:AA11" si="62">CONCATENATE("--Define the foreign key reference from [TABLENAME] to ", A10, " and associate the reference records appropriately
+--Populate the foreign key reference on [TABLENAME] to the reference table ", A10, "
+UPDATE [TABLENAME] SET TEMP_DATA = ", C10, ", ", C10, " = NULL;
+--modify the existing column
+ALTER TABLE [TABLENAME]  
+MODIFY (", C10, " NUMBER );
+--create the foreign key reference index:
+CREATE INDEX [INDEXNAME] ON [TABLENAME] (", C10, ");
+--create the foreign key constraint:
+ALTER TABLE [TABLENAME]
+ADD CONSTRAINT [FKNAME] FOREIGN KEY
+(
+  ", C10, "
+)
+REFERENCES ", A10, "
+(
+  ", C10, "
+)
+ENABLE;
+--populate the foreign key field with the reference table relationship:
+UPDATE [TABLENAME] SET ", C10, " = (SELECT ", C10, " FROM ", A10, " WHERE ", W10, "_NAME = [TABLENAME].TEMP_DATA);
+")</f>
+        <v xml:space="preserve">--Define the foreign key reference from [TABLENAME] to PRI_VC_USERS and associate the reference records appropriately
+--Populate the foreign key reference on [TABLENAME] to the reference table PRI_VC_USERS
+UPDATE [TABLENAME] SET TEMP_DATA = USER_ID, USER_ID = NULL;
+--modify the existing column
+ALTER TABLE [TABLENAME]  
+MODIFY (USER_ID NUMBER );
+--create the foreign key reference index:
+CREATE INDEX [INDEXNAME] ON [TABLENAME] (USER_ID);
+--create the foreign key constraint:
+ALTER TABLE [TABLENAME]
+ADD CONSTRAINT [FKNAME] FOREIGN KEY
+(
+  USER_ID
+)
+REFERENCES PRI_VC_USERS
+(
+  USER_ID
+)
+ENABLE;
+--populate the foreign key field with the reference table relationship:
+UPDATE [TABLENAME] SET USER_ID = (SELECT USER_ID FROM PRI_VC_USERS WHERE TYPE_NAME = [TABLENAME].TEMP_DATA);
+</v>
+      </c>
     </row>
     <row r="11" spans="1:27" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
+      <c r="A11" s="19" t="s">
+        <v>291</v>
+      </c>
       <c r="B11" s="16" t="str">
         <f t="shared" si="25"/>
         <v>Yes</v>
       </c>
-      <c r="C11" s="19"/>
+      <c r="C11" s="19" t="s">
+        <v>288</v>
+      </c>
       <c r="D11" s="16" t="str">
         <f t="shared" si="26"/>
         <v>Yes</v>
       </c>
-      <c r="E11" s="19"/>
+      <c r="E11" s="20" t="s">
+        <v>292</v>
+      </c>
       <c r="F11" s="16" t="str">
         <f t="shared" si="15"/>
-        <v>_SEQ</v>
-      </c>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="22"/>
-      <c r="S11" s="22"/>
-      <c r="T11" s="22"/>
-      <c r="V11" s="19"/>
-      <c r="W11" s="19"/>
-      <c r="X11" s="28"/>
-      <c r="Y11" s="28"/>
+        <v>PRI_DATA_SOURCES_SEQ</v>
+      </c>
+      <c r="G11" s="22" t="str">
+        <f t="shared" si="46"/>
+        <v>CREATE SEQUENCE PRI_DATA_SOURCES_SEQ INCREMENT BY 1 START WITH 1;</v>
+      </c>
+      <c r="H11" s="22" t="str">
+        <f t="shared" si="47"/>
+        <v>ALTER TABLE PRI_DATA_SOURCES ADD (CREATE_DATE DATE );</v>
+      </c>
+      <c r="I11" s="22" t="str">
+        <f t="shared" si="48"/>
+        <v>ALTER TABLE PRI_DATA_SOURCES ADD (CREATED_BY VARCHAR2(30) );</v>
+      </c>
+      <c r="J11" s="22" t="str">
+        <f t="shared" si="49"/>
+        <v>ALTER TABLE PRI_DATA_SOURCES ADD (LAST_MOD_DATE DATE );</v>
+      </c>
+      <c r="K11" s="22" t="str">
+        <f t="shared" si="50"/>
+        <v>ALTER TABLE PRI_DATA_SOURCES ADD (LAST_MOD_BY VARCHAR2(30) );</v>
+      </c>
+      <c r="L11" s="22" t="str">
+        <f t="shared" si="51"/>
+        <v>COMMENT ON COLUMN PRI_DATA_SOURCES.CREATE_DATE IS 'The date on which this record was created in the database';</v>
+      </c>
+      <c r="M11" s="22" t="str">
+        <f t="shared" si="52"/>
+        <v>COMMENT ON COLUMN PRI_DATA_SOURCES.CREATED_BY IS 'The Oracle username of the person creating this record in the database';</v>
+      </c>
+      <c r="N11" s="22" t="str">
+        <f t="shared" si="53"/>
+        <v>COMMENT ON COLUMN PRI_DATA_SOURCES.LAST_MOD_DATE IS 'The last date on which any of the data in this record was changed';</v>
+      </c>
+      <c r="O11" s="22" t="str">
+        <f t="shared" si="54"/>
+        <v>COMMENT ON COLUMN PRI_DATA_SOURCES.LAST_MOD_BY IS 'The Oracle username of the person making the most recent change to this record';</v>
+      </c>
+      <c r="P11" s="22" t="str">
+        <f t="shared" si="55"/>
+        <v>COMMENT ON TABLE PRI_DATA_SOURCES IS 'PIFSC Resource Inventory Data Sources
+This table store the data sources for the information in the PIFSC Resource Inventory Database';</v>
+      </c>
+      <c r="Q11" s="22" t="str">
+        <f t="shared" si="56"/>
+        <v>COMMENT ON COLUMN PRI_DATA_SOURCES.SOURCE_ID IS 'Primary Key for the PRI_DATA_SOURCES table';</v>
+      </c>
+      <c r="R11" s="22" t="str">
+        <f t="shared" si="57"/>
+        <v xml:space="preserve">create or replace TRIGGER 
+PRI_DATA_SOURCES_AUTO_BRI 
+before insert on PRI_DATA_SOURCES
+for each row
+begin
+  select PRI_DATA_SOURCES_SEQ.nextval into :new.SOURCE_ID from dual;
+end;
+/
+</v>
+      </c>
+      <c r="S11" s="22" t="str">
+        <f t="shared" si="58"/>
+        <v xml:space="preserve">create or replace TRIGGER PRI_DATA_SOURCES_AUTO_BRI
+before insert on PRI_DATA_SOURCES
+for each row
+begin
+  select PRI_DATA_SOURCES_SEQ.nextval into :new.SOURCE_ID from dual;
+  :NEW.CREATE_DATE := SYSDATE;
+  :NEW.CREATED_BY := nvl(v('APP_USER'),user);
+end;
+/
+</v>
+      </c>
+      <c r="T11" s="22" t="str">
+        <f t="shared" si="59"/>
+        <v xml:space="preserve">CREATE OR REPLACE TRIGGER PRI_DATA_SOURCES_AUTO_BRU BEFORE
+  UPDATE
+    ON PRI_DATA_SOURCES FOR EACH ROW 
+    BEGIN 
+      :NEW.LAST_MOD_DATE := SYSDATE;
+      :NEW.LAST_MOD_BY := nvl(v('APP_USER'),user);
+END;
+/
+</v>
+      </c>
+      <c r="V11" s="19" t="s">
+        <v>289</v>
+      </c>
+      <c r="W11" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="X11" s="28" t="str">
+        <f t="shared" si="60"/>
+        <v xml:space="preserve">CREATE TABLE PRI_DATA_SOURCES 
+(
+  SOURCE_ID NUMBER NOT NULL 
+, SOURCE_CODE VARCHAR2(50) 
+, SOURCE_NAME VARCHAR2(200) NOT NULL 
+, SOURCE_DESC VARCHAR2(500) 
+, CONSTRAINT PRI_DATA_SOURCES_PK PRIMARY KEY 
+  (
+    SOURCE_ID 
+  )
+  ENABLE 
+);
+COMMENT ON COLUMN PRI_DATA_SOURCES.SOURCE_ID IS 'Primary key for the Data Sources table';
+COMMENT ON COLUMN PRI_DATA_SOURCES.SOURCE_CODE IS 'Code for the given Data Sources';
+COMMENT ON COLUMN PRI_DATA_SOURCES.SOURCE_NAME IS 'Name of the given Data Sources';
+COMMENT ON COLUMN PRI_DATA_SOURCES.SOURCE_DESC IS 'Description for the given Data Sources';
+COMMENT ON TABLE PRI_DATA_SOURCES IS 'Reference Table for storing Data Sources information';
+ALTER TABLE PRI_DATA_SOURCES ADD CONSTRAINT PRI_DATA_SOURCES_U1 UNIQUE 
+(
+  SOURCE_CODE 
+)
+ENABLE;
+ALTER TABLE PRI_DATA_SOURCES ADD CONSTRAINT PRI_DATA_SOURCES_U2 UNIQUE 
+(
+  SOURCE_NAME 
+)
+ENABLE;
+</v>
+      </c>
+      <c r="Y11" s="28" t="str">
+        <f>CONCATENATE("insert into ", A11, " (", W11, "_NAME) SELECT distinct [FIELDNAME] from [TABLENAME] where [FIELDNAME] IS NOT NULL AND [FIELDNAME] &lt;&gt; 'NA';")</f>
+        <v>insert into PRI_DATA_SOURCES (SOURCE_NAME) SELECT distinct [FIELDNAME] from [TABLENAME] where [FIELDNAME] IS NOT NULL AND [FIELDNAME] &lt;&gt; 'NA';</v>
+      </c>
+      <c r="Z11" s="16" t="str">
+        <f t="shared" si="61"/>
+        <v>DROP TRIGGER "bi_PRI_DATA_SOURCES";</v>
+      </c>
+      <c r="AA11" s="28" t="str">
+        <f t="shared" si="62"/>
+        <v xml:space="preserve">--Define the foreign key reference from [TABLENAME] to PRI_DATA_SOURCES and associate the reference records appropriately
+--Populate the foreign key reference on [TABLENAME] to the reference table PRI_DATA_SOURCES
+UPDATE [TABLENAME] SET TEMP_DATA = SOURCE_ID, SOURCE_ID = NULL;
+--modify the existing column
+ALTER TABLE [TABLENAME]  
+MODIFY (SOURCE_ID NUMBER );
+--create the foreign key reference index:
+CREATE INDEX [INDEXNAME] ON [TABLENAME] (SOURCE_ID);
+--create the foreign key constraint:
+ALTER TABLE [TABLENAME]
+ADD CONSTRAINT [FKNAME] FOREIGN KEY
+(
+  SOURCE_ID
+)
+REFERENCES PRI_DATA_SOURCES
+(
+  SOURCE_ID
+)
+ENABLE;
+--populate the foreign key field with the reference table relationship:
+UPDATE [TABLENAME] SET SOURCE_ID = (SELECT SOURCE_ID FROM PRI_DATA_SOURCES WHERE SOURCE_NAME = [TABLENAME].TEMP_DATA);
+</v>
+      </c>
     </row>
     <row r="12" spans="1:27" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="19"/>
@@ -4560,8 +5137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2806"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A334" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D350" sqref="D350:D385"/>
+    <sheetView tabSelected="1" topLeftCell="A404" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D420" sqref="D420:D435"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9641,41 +10218,614 @@
         <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.RES_DEMO_URL IS 'The live demonstration URL for the project resource';</v>
       </c>
     </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A389" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B389" s="18" t="s">
+        <v>272</v>
+      </c>
+      <c r="C389" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="D389" s="22" t="str">
+        <f t="shared" ref="D389:D416" si="10">CONCATENATE("COMMENT ON COLUMN ",A389, ".", B389, " IS '", SUBSTITUTE(C389, "'", "''"), "';")</f>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.VC_OWNER_ID IS 'Unique numeric User ID of the project''s owner in the given version control system';</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A390" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B390" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="C390" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="D390" s="22" t="str">
+        <f t="shared" si="10"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.VC_CREATOR_ID IS 'Unique numeric User ID of the project''s creator in the given version control system';</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A391" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B391" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="C391" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="D391" s="22" t="str">
+        <f t="shared" si="10"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.VC_WEB_URL IS 'The web URL of the project in the given version control system';</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A392" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B392" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="C392" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="D392" s="22" t="str">
+        <f t="shared" si="10"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.VC_OPEN_ISSUES_COUNT IS 'The number of open issues for the project in the given version control system';</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A393" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B393" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="C393" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="D393" s="22" t="str">
+        <f t="shared" si="10"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.VC_COMMIT_COUNT IS 'The total number of commits for the project in the given version control system';</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A394" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B394" s="18" t="s">
+        <v>277</v>
+      </c>
+      <c r="C394" s="19" t="s">
+        <v>284</v>
+      </c>
+      <c r="D394" s="22" t="str">
+        <f t="shared" si="10"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.VC_STORAGE_SIZE IS 'The total storage size for the project in the given version control system';</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A395" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B395" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="C395" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="D395" s="22" t="str">
+        <f t="shared" si="10"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.VC_REPO_SIZE IS 'The total repository size for the project in the given version control system';</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D396" s="22" t="str">
+        <f t="shared" si="10"/>
+        <v>COMMENT ON COLUMN . IS '';</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D397" s="22" t="str">
+        <f t="shared" si="10"/>
+        <v>COMMENT ON COLUMN . IS '';</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D398" s="22" t="str">
+        <f t="shared" si="10"/>
+        <v>COMMENT ON COLUMN . IS '';</v>
+      </c>
+    </row>
     <row r="399" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A399" s="19"/>
       <c r="B399" s="19"/>
       <c r="C399" s="19"/>
-      <c r="D399" s="22"/>
+      <c r="D399" s="22" t="str">
+        <f t="shared" si="10"/>
+        <v>COMMENT ON COLUMN . IS '';</v>
+      </c>
     </row>
     <row r="400" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A400" s="19"/>
-      <c r="B400" s="19"/>
-      <c r="C400" s="19"/>
-      <c r="D400" s="22"/>
+      <c r="A400" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="B400" s="18" t="s">
+        <v>287</v>
+      </c>
+      <c r="C400" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="D400" s="22" t="str">
+        <f t="shared" si="10"/>
+        <v>COMMENT ON COLUMN PRI_CV_USERS_V.USER_ID IS 'Primary key for the PRI_VC_USERS table';</v>
+      </c>
     </row>
     <row r="401" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A401" s="19"/>
-      <c r="B401" s="19"/>
-      <c r="C401" s="19"/>
-      <c r="D401" s="22"/>
+      <c r="A401" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="B401" s="18" t="s">
+        <v>293</v>
+      </c>
+      <c r="C401" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="D401" s="22" t="str">
+        <f t="shared" si="10"/>
+        <v>COMMENT ON COLUMN PRI_CV_USERS_V.VC_USER_ID IS 'Unique User ID for user within the version control system';</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A402" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="B402" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="C402" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="D402" s="22" t="str">
+        <f t="shared" si="10"/>
+        <v>COMMENT ON COLUMN PRI_CV_USERS_V.USERNAME IS 'Login username for the user account in the version control system';</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A403" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="B403" s="18" t="s">
+        <v>295</v>
+      </c>
+      <c r="C403" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="D403" s="22" t="str">
+        <f t="shared" si="10"/>
+        <v>COMMENT ON COLUMN PRI_CV_USERS_V.USER_NAME IS 'Name of the user account in the version control system';</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A404" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="B404" s="18" t="s">
+        <v>296</v>
+      </c>
+      <c r="C404" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="D404" s="22" t="str">
+        <f t="shared" si="10"/>
+        <v>COMMENT ON COLUMN PRI_CV_USERS_V.USER_EMAIL IS 'Email for the user account in the version control system';</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A405" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="B405" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C405" s="18" t="s">
+        <v>311</v>
+      </c>
+      <c r="D405" s="22" t="str">
+        <f t="shared" si="10"/>
+        <v>COMMENT ON COLUMN PRI_CV_USERS_V.AVATAR_URL IS 'Avatar URL for the user account in the version control system';</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A406" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="B406" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="C406" s="18" t="s">
+        <v>312</v>
+      </c>
+      <c r="D406" s="22" t="str">
+        <f t="shared" si="10"/>
+        <v>COMMENT ON COLUMN PRI_CV_USERS_V.WEB_URL IS 'Web URL for the user account in the version control system';</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A407" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="B407" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="C407" s="18" t="s">
+        <v>302</v>
+      </c>
+      <c r="D407" s="22" t="str">
+        <f t="shared" si="10"/>
+        <v>COMMENT ON COLUMN PRI_CV_USERS_V.DATA_SOURCE_ID IS 'Primary key for the Data Sources table';</v>
+      </c>
     </row>
     <row r="408" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A408" s="19"/>
-      <c r="B408" s="19"/>
-      <c r="C408" s="19"/>
-      <c r="D408" s="22"/>
+      <c r="A408" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="B408" s="18" t="s">
+        <v>299</v>
+      </c>
+      <c r="C408" s="18" t="s">
+        <v>303</v>
+      </c>
+      <c r="D408" s="22" t="str">
+        <f t="shared" si="10"/>
+        <v>COMMENT ON COLUMN PRI_CV_USERS_V.DATA_SOURCE_CODE IS 'Code for the given Data Source';</v>
+      </c>
     </row>
     <row r="409" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A409" s="19"/>
-      <c r="B409" s="19"/>
-      <c r="C409" s="19"/>
-      <c r="D409" s="22"/>
+      <c r="A409" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="B409" s="18" t="s">
+        <v>300</v>
+      </c>
+      <c r="C409" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="D409" s="22" t="str">
+        <f t="shared" si="10"/>
+        <v>COMMENT ON COLUMN PRI_CV_USERS_V.DATA_SOURCE_NAME IS 'Name of the given Data Source';</v>
+      </c>
     </row>
     <row r="410" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A410" s="19"/>
-      <c r="B410" s="19"/>
-      <c r="C410" s="19"/>
-      <c r="D410" s="22"/>
+      <c r="A410" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="B410" s="18" t="s">
+        <v>301</v>
+      </c>
+      <c r="C410" s="18" t="s">
+        <v>305</v>
+      </c>
+      <c r="D410" s="22" t="str">
+        <f t="shared" si="10"/>
+        <v>COMMENT ON COLUMN PRI_CV_USERS_V.DATA_SOURCE_DESC IS 'Description for the given Data Source';</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A411" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="B411" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="C411" s="18" t="s">
+        <v>313</v>
+      </c>
+      <c r="D411" s="22" t="str">
+        <f t="shared" si="10"/>
+        <v>COMMENT ON COLUMN PRI_CV_USERS_V.CREATE_DATE IS 'The date on which this user was created in the database';</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A412" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="B412" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="C412" s="18" t="s">
+        <v>314</v>
+      </c>
+      <c r="D412" s="22" t="str">
+        <f t="shared" si="10"/>
+        <v>COMMENT ON COLUMN PRI_CV_USERS_V.CREATED_BY IS 'The Oracle username of the person creating the user in the database';</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A413" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="B413" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="C413" s="18" t="s">
+        <v>315</v>
+      </c>
+      <c r="D413" s="22" t="str">
+        <f t="shared" si="10"/>
+        <v>COMMENT ON COLUMN PRI_CV_USERS_V.LAST_MOD_DATE IS 'The last date on which any of the data in the user was changed';</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A414" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="B414" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="C414" s="18" t="s">
+        <v>316</v>
+      </c>
+      <c r="D414" s="22" t="str">
+        <f t="shared" si="10"/>
+        <v>COMMENT ON COLUMN PRI_CV_USERS_V.LAST_MOD_BY IS 'The Oracle username of the person making the most recent change to this user';</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D415" s="22" t="str">
+        <f t="shared" si="10"/>
+        <v>COMMENT ON COLUMN . IS '';</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D416" s="22" t="str">
+        <f t="shared" si="10"/>
+        <v>COMMENT ON COLUMN . IS '';</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A420" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="B420" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="C420" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="D420" s="22" t="str">
+        <f t="shared" ref="D420:D435" si="11">CONCATENATE("COMMENT ON COLUMN ",A420, ".", B420, " IS '", SUBSTITUTE(C420, "'", "''"), "';")</f>
+        <v>COMMENT ON COLUMN PRI_PROJ_RES_TAG_MAX_SUM_ALL_V.OWNER_USER_ID IS 'The Project Owner''s User ID for the version control system';</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A421" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="B421" s="19" t="s">
+        <v>320</v>
+      </c>
+      <c r="C421" s="19" t="s">
+        <v>335</v>
+      </c>
+      <c r="D421" s="22" t="str">
+        <f t="shared" si="11"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_RES_TAG_MAX_SUM_ALL_V.OWNER_USERNAME IS 'Login username for the project owner''s user account in the version control system';</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A422" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="B422" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="C422" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="D422" s="22" t="str">
+        <f t="shared" si="11"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_RES_TAG_MAX_SUM_ALL_V.OWNER_USER_NAME IS 'Name of the project owner''s user account in the version control system';</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A423" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="B423" s="19" t="s">
+        <v>322</v>
+      </c>
+      <c r="C423" s="19" t="s">
+        <v>337</v>
+      </c>
+      <c r="D423" s="22" t="str">
+        <f t="shared" si="11"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_RES_TAG_MAX_SUM_ALL_V.OWNER_USER_EMAIL IS 'Email for the project owner''s user account in the version control system';</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A424" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="B424" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="C424" s="19" t="s">
+        <v>338</v>
+      </c>
+      <c r="D424" s="22" t="str">
+        <f t="shared" si="11"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_RES_TAG_MAX_SUM_ALL_V.OWNER_AVATAR_URL IS 'Avatar URL for the project owner''s user account in the version control system';</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A425" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="B425" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="C425" s="19" t="s">
+        <v>339</v>
+      </c>
+      <c r="D425" s="22" t="str">
+        <f t="shared" si="11"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_RES_TAG_MAX_SUM_ALL_V.OWNER_WEB_URL IS 'Web URL for the project owner''s user account in the version control system';</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A426" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="B426" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="C426" s="19" t="s">
+        <v>341</v>
+      </c>
+      <c r="D426" s="22" t="str">
+        <f t="shared" si="11"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_RES_TAG_MAX_SUM_ALL_V.CREATOR_USER_ID IS 'The Project Creator''s User ID for the version control system';</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A427" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="B427" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="C427" s="19" t="s">
+        <v>342</v>
+      </c>
+      <c r="D427" s="22" t="str">
+        <f t="shared" si="11"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_RES_TAG_MAX_SUM_ALL_V.CREATOR_USERNAME IS 'Login username for the project creator''s user account in the version control system';</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A428" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="B428" s="19" t="s">
+        <v>327</v>
+      </c>
+      <c r="C428" s="19" t="s">
+        <v>343</v>
+      </c>
+      <c r="D428" s="22" t="str">
+        <f t="shared" si="11"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_RES_TAG_MAX_SUM_ALL_V.CREATOR_USER_NAME IS 'Name of the project creator''s user account in the version control system';</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A429" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="B429" s="19" t="s">
+        <v>328</v>
+      </c>
+      <c r="C429" s="19" t="s">
+        <v>344</v>
+      </c>
+      <c r="D429" s="22" t="str">
+        <f t="shared" si="11"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_RES_TAG_MAX_SUM_ALL_V.CREATOR_USER_EMAIL IS 'Email for the project creator''s user account in the version control system';</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A430" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="B430" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="C430" s="19" t="s">
+        <v>345</v>
+      </c>
+      <c r="D430" s="22" t="str">
+        <f t="shared" si="11"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_RES_TAG_MAX_SUM_ALL_V.CREATOR_AVATAR_URL IS 'Avatar URL for the project creator''s user account in the version control system';</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A431" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="B431" s="19" t="s">
+        <v>330</v>
+      </c>
+      <c r="C431" s="19" t="s">
+        <v>346</v>
+      </c>
+      <c r="D431" s="22" t="str">
+        <f t="shared" si="11"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_RES_TAG_MAX_SUM_ALL_V.CREATOR_WEB_URL IS 'Web URL for the project creator''s user account in the version control system';</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A432" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="B432" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="C432" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="D432" s="22" t="str">
+        <f t="shared" si="11"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_RES_TAG_MAX_SUM_ALL_V.CREATE_DATE IS 'The date the project record was created in the database';</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A433" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="B433" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="C433" s="19" t="s">
+        <v>332</v>
+      </c>
+      <c r="D433" s="22" t="str">
+        <f t="shared" si="11"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_RES_TAG_MAX_SUM_ALL_V.CREATED_BY IS 'The Oracle username of the person that created the project record in the database';</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A434" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="B434" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="C434" s="19" t="s">
+        <v>333</v>
+      </c>
+      <c r="D434" s="22" t="str">
+        <f t="shared" si="11"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_RES_TAG_MAX_SUM_ALL_V.LAST_MOD_DATE IS 'The last date on which any of the data in the project record was changed';</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A435" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="B435" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="C435" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="D435" s="22" t="str">
+        <f t="shared" si="11"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_RES_TAG_MAX_SUM_ALL_V.LAST_MOD_BY IS 'The Oracle username of the person making the most recent change to the project record';</v>
+      </c>
     </row>
     <row r="436" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A436" s="19"/>
@@ -12558,10 +13708,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C246"/>
+  <dimension ref="A1:C270"/>
   <sheetViews>
-    <sheetView topLeftCell="A199" workbookViewId="0">
-      <selection activeCell="C222" sqref="C222:C246"/>
+    <sheetView topLeftCell="A238" workbookViewId="0">
+      <selection activeCell="C263" sqref="C263:C266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14838,7 +15988,7 @@
         <v>72</v>
       </c>
       <c r="C211" s="18" t="str">
-        <f t="shared" ref="C211:C246" si="8">CONCATENATE(A211, ".", B211, ", ")</f>
+        <f t="shared" ref="C211:C253" si="8">CONCATENATE(A211, ".", B211, ", ")</f>
         <v xml:space="preserve">PRI_RES_PROJ_TAG_MAX_SUM_V.PROJ_ID, </v>
       </c>
     </row>
@@ -15260,6 +16410,270 @@
       <c r="C246" s="18" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve">PRI_PROJ_V.RES_DEMO_URL, </v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B247" t="s">
+        <v>272</v>
+      </c>
+      <c r="C247" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">PRI_PROJ_V.VC_OWNER_ID, </v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B248" t="s">
+        <v>273</v>
+      </c>
+      <c r="C248" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">PRI_PROJ_V.VC_CREATOR_ID, </v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B249" t="s">
+        <v>274</v>
+      </c>
+      <c r="C249" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">PRI_PROJ_V.VC_WEB_URL, </v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B250" t="s">
+        <v>275</v>
+      </c>
+      <c r="C250" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">PRI_PROJ_V.VC_OPEN_ISSUES_COUNT, </v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B251" t="s">
+        <v>276</v>
+      </c>
+      <c r="C251" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">PRI_PROJ_V.VC_COMMIT_COUNT, </v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B252" t="s">
+        <v>277</v>
+      </c>
+      <c r="C252" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">PRI_PROJ_V.VC_STORAGE_SIZE, </v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B253" t="s">
+        <v>278</v>
+      </c>
+      <c r="C253" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">PRI_PROJ_V.VC_REPO_SIZE, </v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="B256" t="s">
+        <v>287</v>
+      </c>
+      <c r="C256" s="18" t="str">
+        <f t="shared" ref="C256:C270" si="9">CONCATENATE(A256, ".", B256, ", ")</f>
+        <v xml:space="preserve">PRI_CV_USERS.USER_ID, </v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="B257" t="s">
+        <v>293</v>
+      </c>
+      <c r="C257" s="18" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">PRI_CV_USERS.VC_USER_ID, </v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="B258" t="s">
+        <v>294</v>
+      </c>
+      <c r="C258" s="18" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">PRI_CV_USERS.USERNAME, </v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="B259" t="s">
+        <v>295</v>
+      </c>
+      <c r="C259" s="18" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">PRI_CV_USERS.USER_NAME, </v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="B260" t="s">
+        <v>296</v>
+      </c>
+      <c r="C260" s="18" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">PRI_CV_USERS.USER_EMAIL, </v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="B261" t="s">
+        <v>79</v>
+      </c>
+      <c r="C261" s="18" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">PRI_CV_USERS.AVATAR_URL, </v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="B262" t="s">
+        <v>297</v>
+      </c>
+      <c r="C262" s="18" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">PRI_CV_USERS.WEB_URL, </v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="B263" t="s">
+        <v>298</v>
+      </c>
+      <c r="C263" s="18" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">PRI_DATA_SOURCES.DATA_SOURCE_ID, </v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="B264" t="s">
+        <v>299</v>
+      </c>
+      <c r="C264" s="18" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">PRI_DATA_SOURCES.DATA_SOURCE_CODE, </v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="B265" t="s">
+        <v>300</v>
+      </c>
+      <c r="C265" s="18" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">PRI_DATA_SOURCES.DATA_SOURCE_NAME, </v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="B266" t="s">
+        <v>301</v>
+      </c>
+      <c r="C266" s="18" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">PRI_DATA_SOURCES.DATA_SOURCE_DESC, </v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="B267" t="s">
+        <v>98</v>
+      </c>
+      <c r="C267" s="18" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">PRI_CV_USERS.CREATE_DATE, </v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="B268" t="s">
+        <v>99</v>
+      </c>
+      <c r="C268" s="18" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">PRI_CV_USERS.CREATED_BY, </v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="B269" t="s">
+        <v>100</v>
+      </c>
+      <c r="C269" s="18" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">PRI_CV_USERS.LAST_MOD_DATE, </v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="B270" t="s">
+        <v>101</v>
+      </c>
+      <c r="C270" s="18" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">PRI_CV_USERS.LAST_MOD_BY, </v>
       </c>
     </row>
   </sheetData>

--- a/docs/DB_DDL_helper_template.xlsx
+++ b/docs/DB_DDL_helper_template.xlsx
@@ -737,7 +737,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1671" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1947" uniqueCount="356">
   <si>
     <t>TABLE NAME</t>
   </si>
@@ -1780,6 +1780,33 @@
   </si>
   <si>
     <t>Web URL for the project creator's user account in the version control system</t>
+  </si>
+  <si>
+    <t>VC_REPO_SIZE_MB</t>
+  </si>
+  <si>
+    <t>PROJ_REFRESH_DATE</t>
+  </si>
+  <si>
+    <t>Primary key for the project's Data Source</t>
+  </si>
+  <si>
+    <t>Code for the given project's Data Source</t>
+  </si>
+  <si>
+    <t>Name of the given project's Data Source</t>
+  </si>
+  <si>
+    <t>Description for the given project's Data Source</t>
+  </si>
+  <si>
+    <t>The total repository size in bytes for the project in the given version control system</t>
+  </si>
+  <si>
+    <t>The total repository size in MB for the project in the given version control system</t>
+  </si>
+  <si>
+    <t>The date of the last time the project information was refreshed in the database</t>
   </si>
 </sst>
 </file>
@@ -3786,11 +3813,11 @@
         <v>COMMENT ON TABLE PRI_RES_TYPES IS '';</v>
       </c>
       <c r="Q9" s="22" t="str">
-        <f t="shared" ref="Q9:Q10" si="39">CONCATENATE("COMMENT ON COLUMN ", A9, ".", C9, " IS 'Primary Key for the ", A9, " table';")</f>
+        <f t="shared" ref="Q9" si="39">CONCATENATE("COMMENT ON COLUMN ", A9, ".", C9, " IS 'Primary Key for the ", A9, " table';")</f>
         <v>COMMENT ON COLUMN PRI_RES_TYPES.RES_TYPE_ID IS 'Primary Key for the PRI_RES_TYPES table';</v>
       </c>
       <c r="R9" s="23" t="str">
-        <f t="shared" ref="R9:R10" si="40">CONCATENATE("create or replace TRIGGER 
+        <f t="shared" ref="R9" si="40">CONCATENATE("create or replace TRIGGER 
 ",A9, "_AUTO_BRI 
 before insert on ",A9,"
 for each row
@@ -3810,7 +3837,7 @@
 </v>
       </c>
       <c r="S9" s="23" t="str">
-        <f t="shared" ref="S9:S10" si="41">CONCATENATE("create or replace TRIGGER ",A9, "_AUTO_BRI
+        <f t="shared" ref="S9" si="41">CONCATENATE("create or replace TRIGGER ",A9, "_AUTO_BRI
 before insert on ", A9, "
 for each row
 begin
@@ -5137,8 +5164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2806"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A404" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D420" sqref="D420:D435"/>
+    <sheetView tabSelected="1" topLeftCell="A438" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C449" sqref="C449"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10840,52 +10867,844 @@
       <c r="D437" s="22"/>
     </row>
     <row r="438" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A438" s="19"/>
-      <c r="B438" s="19"/>
-      <c r="C438" s="19"/>
-      <c r="D438" s="22"/>
+      <c r="A438" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B438" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C438" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="D438" s="22" t="str">
+        <f t="shared" ref="D438:D493" si="12">CONCATENATE("COMMENT ON COLUMN ",A438, ".", B438, " IS '", SUBSTITUTE(C438, "'", "''"), "';")</f>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.PROJ_ID IS 'Primary key for the PRI_PROJ table';</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A439" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B439" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="C439" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D439" s="22" t="str">
+        <f t="shared" si="12"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.VC_PROJ_ID IS 'Unique numeric ID of the project in the given version control system';</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A440" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B440" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C440" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D440" s="22" t="str">
+        <f t="shared" si="12"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.PROJ_NAME IS 'Name of the project';</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A441" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B441" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C441" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D441" s="22" t="str">
+        <f t="shared" si="12"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.PROJ_DESC IS 'Description of the project';</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A442" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B442" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C442" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D442" s="22" t="str">
+        <f t="shared" si="12"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.SSH_URL IS 'SSH URL for the project';</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A443" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B443" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C443" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D443" s="22" t="str">
+        <f t="shared" si="12"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.HTTP_URL IS 'HTTP URL for the project';</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A444" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B444" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C444" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D444" s="22" t="str">
+        <f t="shared" si="12"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.README_URL IS 'Readme URL for the project';</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A445" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B445" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C445" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="D445" s="22" t="str">
+        <f t="shared" si="12"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.AVATAR_URL IS 'Avatar URL for the project';</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A446" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B446" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C446" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="D446" s="22" t="str">
+        <f t="shared" si="12"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.PROJ_CREATE_DTM IS 'The date/time the project was created';</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A447" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B447" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C447" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="D447" s="22" t="str">
+        <f t="shared" si="12"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.PROJ_UPDATE_DTM IS 'The date/time the project was last updated';</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A448" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B448" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="C448" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="D448" s="22" t="str">
+        <f t="shared" si="12"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.PROJ_VISIBILITY IS 'The visibility for the project (public, internal, private)';</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A449" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B449" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C449" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="D449" s="22" t="str">
+        <f t="shared" si="12"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.PROJ_NAME_SPACE IS 'project name including the namespace prefix';</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A450" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B450" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="C450" s="19" t="s">
+        <v>349</v>
+      </c>
+      <c r="D450" s="22" t="str">
+        <f t="shared" si="12"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.DATA_SOURCE_ID IS 'Primary key for the project''s Data Source';</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A451" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B451" s="18" t="s">
+        <v>299</v>
+      </c>
+      <c r="C451" s="19" t="s">
+        <v>350</v>
+      </c>
+      <c r="D451" s="22" t="str">
+        <f t="shared" si="12"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.DATA_SOURCE_CODE IS 'Code for the given project''s Data Source';</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A452" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B452" s="18" t="s">
+        <v>300</v>
+      </c>
+      <c r="C452" s="19" t="s">
+        <v>351</v>
+      </c>
+      <c r="D452" s="22" t="str">
+        <f t="shared" si="12"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.DATA_SOURCE_NAME IS 'Name of the given project''s Data Source';</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A453" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B453" s="18" t="s">
+        <v>301</v>
+      </c>
+      <c r="C453" s="19" t="s">
+        <v>352</v>
+      </c>
+      <c r="D453" s="22" t="str">
+        <f t="shared" si="12"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.DATA_SOURCE_DESC IS 'Description for the given project''s Data Source';</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A454" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B454" s="18" t="s">
+        <v>272</v>
+      </c>
+      <c r="C454" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="D454" s="22" t="str">
+        <f t="shared" si="12"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.VC_OWNER_ID IS 'Unique numeric User ID of the project''s owner in the given version control system';</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A455" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B455" s="18" t="s">
+        <v>319</v>
+      </c>
+      <c r="C455" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="D455" s="22" t="str">
+        <f t="shared" si="12"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.OWNER_USER_ID IS 'The Project Owner''s User ID for the version control system';</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A456" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B456" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="C456" s="19" t="s">
+        <v>335</v>
+      </c>
+      <c r="D456" s="22" t="str">
+        <f t="shared" si="12"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.OWNER_USERNAME IS 'Login username for the project owner''s user account in the version control system';</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A457" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B457" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="C457" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="D457" s="22" t="str">
+        <f t="shared" si="12"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.OWNER_USER_NAME IS 'Name of the project owner''s user account in the version control system';</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A458" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B458" s="18" t="s">
+        <v>322</v>
+      </c>
+      <c r="C458" s="19" t="s">
+        <v>337</v>
+      </c>
+      <c r="D458" s="22" t="str">
+        <f t="shared" si="12"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.OWNER_USER_EMAIL IS 'Email for the project owner''s user account in the version control system';</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A459" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B459" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="C459" s="19" t="s">
+        <v>338</v>
+      </c>
+      <c r="D459" s="22" t="str">
+        <f t="shared" si="12"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.OWNER_AVATAR_URL IS 'Avatar URL for the project owner''s user account in the version control system';</v>
+      </c>
     </row>
     <row r="460" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A460" s="19"/>
-      <c r="B460" s="19"/>
-      <c r="C460" s="19"/>
-      <c r="D460" s="22"/>
+      <c r="A460" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B460" s="18" t="s">
+        <v>324</v>
+      </c>
+      <c r="C460" s="19" t="s">
+        <v>339</v>
+      </c>
+      <c r="D460" s="22" t="str">
+        <f t="shared" si="12"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.OWNER_WEB_URL IS 'Web URL for the project owner''s user account in the version control system';</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A461" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B461" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="C461" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="D461" s="22" t="str">
+        <f t="shared" si="12"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.VC_CREATOR_ID IS 'Unique numeric User ID of the project''s creator in the given version control system';</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A462" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B462" s="18" t="s">
+        <v>325</v>
+      </c>
+      <c r="C462" s="19" t="s">
+        <v>341</v>
+      </c>
+      <c r="D462" s="22" t="str">
+        <f t="shared" si="12"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.CREATOR_USER_ID IS 'The Project Creator''s User ID for the version control system';</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A463" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B463" s="18" t="s">
+        <v>326</v>
+      </c>
+      <c r="C463" s="19" t="s">
+        <v>342</v>
+      </c>
+      <c r="D463" s="22" t="str">
+        <f t="shared" si="12"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.CREATOR_USERNAME IS 'Login username for the project creator''s user account in the version control system';</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A464" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B464" s="18" t="s">
+        <v>327</v>
+      </c>
+      <c r="C464" s="19" t="s">
+        <v>343</v>
+      </c>
+      <c r="D464" s="22" t="str">
+        <f t="shared" si="12"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.CREATOR_USER_NAME IS 'Name of the project creator''s user account in the version control system';</v>
+      </c>
     </row>
     <row r="465" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A465" s="19"/>
-      <c r="B465" s="19"/>
-      <c r="C465" s="19"/>
-      <c r="D465" s="22"/>
+      <c r="A465" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B465" s="18" t="s">
+        <v>328</v>
+      </c>
+      <c r="C465" s="19" t="s">
+        <v>344</v>
+      </c>
+      <c r="D465" s="22" t="str">
+        <f t="shared" si="12"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.CREATOR_USER_EMAIL IS 'Email for the project creator''s user account in the version control system';</v>
+      </c>
     </row>
     <row r="466" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A466" s="19"/>
-      <c r="B466" s="19"/>
-      <c r="C466" s="19"/>
-      <c r="D466" s="22"/>
+      <c r="A466" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B466" s="18" t="s">
+        <v>329</v>
+      </c>
+      <c r="C466" s="19" t="s">
+        <v>345</v>
+      </c>
+      <c r="D466" s="22" t="str">
+        <f t="shared" si="12"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.CREATOR_AVATAR_URL IS 'Avatar URL for the project creator''s user account in the version control system';</v>
+      </c>
     </row>
     <row r="467" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A467" s="19"/>
-      <c r="B467" s="19"/>
-      <c r="C467" s="19"/>
-      <c r="D467" s="22"/>
+      <c r="A467" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B467" s="18" t="s">
+        <v>330</v>
+      </c>
+      <c r="C467" s="19" t="s">
+        <v>346</v>
+      </c>
+      <c r="D467" s="22" t="str">
+        <f t="shared" si="12"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.CREATOR_WEB_URL IS 'Web URL for the project creator''s user account in the version control system';</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A468" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B468" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="C468" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="D468" s="22" t="str">
+        <f t="shared" si="12"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.VC_WEB_URL IS 'The web URL of the project in the given version control system';</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A469" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B469" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="C469" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="D469" s="22" t="str">
+        <f t="shared" si="12"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.VC_OPEN_ISSUES_COUNT IS 'The number of open issues for the project in the given version control system';</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A470" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B470" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="C470" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="D470" s="22" t="str">
+        <f t="shared" si="12"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.VC_COMMIT_COUNT IS 'The total number of commits for the project in the given version control system';</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A471" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B471" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="C471" s="19" t="s">
+        <v>353</v>
+      </c>
+      <c r="D471" s="22" t="str">
+        <f t="shared" si="12"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.VC_REPO_SIZE IS 'The total repository size in bytes for the project in the given version control system';</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A472" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B472" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="C472" s="19" t="s">
+        <v>354</v>
+      </c>
+      <c r="D472" s="22" t="str">
+        <f t="shared" si="12"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.VC_REPO_SIZE_MB IS 'The total repository size in MB for the project in the given version control system';</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A473" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B473" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="C473" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="D473" s="22" t="str">
+        <f t="shared" si="12"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.CREATE_DATE IS 'The date the project record was created in the database';</v>
+      </c>
     </row>
     <row r="474" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A474" s="19"/>
-      <c r="B474" s="19"/>
-      <c r="C474" s="19"/>
-      <c r="D474" s="22"/>
+      <c r="A474" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B474" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="C474" s="19" t="s">
+        <v>332</v>
+      </c>
+      <c r="D474" s="22" t="str">
+        <f t="shared" si="12"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.CREATED_BY IS 'The Oracle username of the person that created the project record in the database';</v>
+      </c>
     </row>
     <row r="475" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A475" s="19"/>
-      <c r="B475" s="19"/>
-      <c r="C475" s="19"/>
-      <c r="D475" s="22"/>
+      <c r="A475" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B475" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="C475" s="19" t="s">
+        <v>333</v>
+      </c>
+      <c r="D475" s="22" t="str">
+        <f t="shared" si="12"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.LAST_MOD_DATE IS 'The last date on which any of the data in the project record was changed';</v>
+      </c>
     </row>
     <row r="476" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A476" s="19"/>
-      <c r="B476" s="19"/>
-      <c r="C476" s="19"/>
-      <c r="D476" s="22"/>
+      <c r="A476" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B476" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="C476" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="D476" s="22" t="str">
+        <f t="shared" si="12"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.LAST_MOD_BY IS 'The Oracle username of the person making the most recent change to the project record';</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A477" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B477" s="18" t="s">
+        <v>348</v>
+      </c>
+      <c r="C477" s="19" t="s">
+        <v>355</v>
+      </c>
+      <c r="D477" s="22" t="str">
+        <f t="shared" si="12"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.PROJ_REFRESH_DATE IS 'The date of the last time the project information was refreshed in the database';</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A478" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B478" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="C478" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="D478" s="22" t="str">
+        <f t="shared" si="12"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.RES_ID IS 'Primary key for the PRI_PROJ_RES table';</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A479" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B479" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="C479" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="D479" s="22" t="str">
+        <f t="shared" si="12"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.RES_CATEGORY IS 'The resource category (free form text) - examples values include Development Tool, Data Management Tool, Centralized Database Applications';</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A480" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B480" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C480" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="D480" s="22" t="str">
+        <f t="shared" si="12"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.RES_TAG_CONV IS 'Tag Naming convention used to identify the given project resource''s version.  The suffix is required to be a series of period-delimited numbers (e.g. for a naming convention of db_module_packager_v the tag value of db_module_packager_v1.13.4 is valid)';</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A481" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B481" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="C481" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="D481" s="22" t="str">
+        <f t="shared" si="12"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.RES_NAME IS 'The name of the project resource';</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A482" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B482" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C482" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="D482" s="22" t="str">
+        <f t="shared" si="12"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.RES_COLOR_CODE IS 'The color code for the project resource';</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A483" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B483" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="C483" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="D483" s="22" t="str">
+        <f t="shared" si="12"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.RES_URL IS 'The URL for the project resource (this is blank when the repository URL is the same as the resource URL)';</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A484" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B484" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="C484" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="D484" s="22" t="str">
+        <f t="shared" si="12"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.RES_SCOPE_ID IS 'Foreign key reference to the resource scope';</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A485" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B485" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="C485" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="D485" s="22" t="str">
+        <f t="shared" si="12"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.RES_SCOPE_CODE IS 'Code for the given Resource Scope';</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A486" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B486" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="C486" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="D486" s="22" t="str">
+        <f t="shared" si="12"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.RES_SCOPE_NAME IS 'Name of the given Resource Scope';</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A487" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B487" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="C487" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="D487" s="22" t="str">
+        <f t="shared" si="12"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.RES_SCOPE_DESC IS 'Description for the given Resource Scope';</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A488" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B488" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="C488" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="D488" s="22" t="str">
+        <f t="shared" si="12"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.RES_TYPE_ID IS 'Foreign key reference to the resource type';</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A489" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B489" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="C489" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="D489" s="22" t="str">
+        <f t="shared" si="12"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.RES_TYPE_CODE IS 'Code for the given Resource Type';</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A490" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B490" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="C490" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="D490" s="22" t="str">
+        <f t="shared" si="12"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.RES_TYPE_NAME IS 'Name of the given Resource Type';</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A491" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B491" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="C491" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="D491" s="22" t="str">
+        <f t="shared" si="12"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.RES_TYPE_DESC IS 'Description for the given Resource Type';</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A492" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B492" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="C492" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="D492" s="22" t="str">
+        <f t="shared" si="12"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.RES_DESC IS 'The description for the project resource';</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A493" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B493" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="C493" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="D493" s="22" t="str">
+        <f t="shared" si="12"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.RES_DEMO_URL IS 'The live demonstration URL for the project resource';</v>
+      </c>
     </row>
     <row r="511" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A511" s="19"/>
@@ -13708,10 +14527,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C270"/>
+  <dimension ref="A1:C327"/>
   <sheetViews>
-    <sheetView topLeftCell="A238" workbookViewId="0">
-      <selection activeCell="C263" sqref="C263:C266"/>
+    <sheetView topLeftCell="B295" workbookViewId="0">
+      <selection activeCell="C306" sqref="C306"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16674,6 +17493,654 @@
       <c r="C270" s="18" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve">PRI_CV_USERS.LAST_MOD_BY, </v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B274" t="s">
+        <v>73</v>
+      </c>
+      <c r="C274" s="18" t="str">
+        <f t="shared" ref="C274:C327" si="10">CONCATENATE(A274, ".", B274, ", ")</f>
+        <v xml:space="preserve">PRI_PROJ_V.VC_PROJ_ID, </v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B275" t="s">
+        <v>75</v>
+      </c>
+      <c r="C275" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">PRI_PROJ_V.PROJ_DESC, </v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B276" t="s">
+        <v>76</v>
+      </c>
+      <c r="C276" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">PRI_PROJ_V.SSH_URL, </v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B277" t="s">
+        <v>77</v>
+      </c>
+      <c r="C277" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">PRI_PROJ_V.HTTP_URL, </v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B278" t="s">
+        <v>78</v>
+      </c>
+      <c r="C278" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">PRI_PROJ_V.README_URL, </v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B279" t="s">
+        <v>79</v>
+      </c>
+      <c r="C279" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">PRI_PROJ_V.AVATAR_URL, </v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B280" t="s">
+        <v>80</v>
+      </c>
+      <c r="C280" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">PRI_PROJ_V.PROJ_CREATE_DTM, </v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B281" t="s">
+        <v>81</v>
+      </c>
+      <c r="C281" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">PRI_PROJ_V.PROJ_UPDATE_DTM, </v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B282" t="s">
+        <v>95</v>
+      </c>
+      <c r="C282" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">PRI_PROJ_V.PROJ_VISIBILITY, </v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B283" t="s">
+        <v>96</v>
+      </c>
+      <c r="C283" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">PRI_PROJ_V.PROJ_NAME_SPACE, </v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B284" t="s">
+        <v>298</v>
+      </c>
+      <c r="C284" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">PRI_PROJ_V.DATA_SOURCE_ID, </v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B285" t="s">
+        <v>299</v>
+      </c>
+      <c r="C285" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">PRI_PROJ_V.DATA_SOURCE_CODE, </v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B286" t="s">
+        <v>300</v>
+      </c>
+      <c r="C286" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">PRI_PROJ_V.DATA_SOURCE_NAME, </v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B287" t="s">
+        <v>301</v>
+      </c>
+      <c r="C287" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">PRI_PROJ_V.DATA_SOURCE_DESC, </v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B288" t="s">
+        <v>272</v>
+      </c>
+      <c r="C288" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">PRI_PROJ_V.VC_OWNER_ID, </v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B289" t="s">
+        <v>319</v>
+      </c>
+      <c r="C289" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">PRI_PROJ_V.OWNER_USER_ID, </v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B290" t="s">
+        <v>320</v>
+      </c>
+      <c r="C290" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">PRI_PROJ_V.OWNER_USERNAME, </v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B291" t="s">
+        <v>321</v>
+      </c>
+      <c r="C291" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">PRI_PROJ_V.OWNER_USER_NAME, </v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B292" t="s">
+        <v>322</v>
+      </c>
+      <c r="C292" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">PRI_PROJ_V.OWNER_USER_EMAIL, </v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B293" t="s">
+        <v>323</v>
+      </c>
+      <c r="C293" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">PRI_PROJ_V.OWNER_AVATAR_URL, </v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B294" t="s">
+        <v>324</v>
+      </c>
+      <c r="C294" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">PRI_PROJ_V.OWNER_WEB_URL, </v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B295" t="s">
+        <v>273</v>
+      </c>
+      <c r="C295" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">PRI_PROJ_V.VC_CREATOR_ID, </v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B296" t="s">
+        <v>325</v>
+      </c>
+      <c r="C296" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">PRI_PROJ_V.CREATOR_USER_ID, </v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B297" t="s">
+        <v>326</v>
+      </c>
+      <c r="C297" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">PRI_PROJ_V.CREATOR_USERNAME, </v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B298" t="s">
+        <v>327</v>
+      </c>
+      <c r="C298" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">PRI_PROJ_V.CREATOR_USER_NAME, </v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B299" t="s">
+        <v>328</v>
+      </c>
+      <c r="C299" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">PRI_PROJ_V.CREATOR_USER_EMAIL, </v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B300" t="s">
+        <v>329</v>
+      </c>
+      <c r="C300" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">PRI_PROJ_V.CREATOR_AVATAR_URL, </v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B301" t="s">
+        <v>330</v>
+      </c>
+      <c r="C301" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">PRI_PROJ_V.CREATOR_WEB_URL, </v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B302" t="s">
+        <v>274</v>
+      </c>
+      <c r="C302" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">PRI_PROJ_V.VC_WEB_URL, </v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A303" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B303" t="s">
+        <v>275</v>
+      </c>
+      <c r="C303" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">PRI_PROJ_V.VC_OPEN_ISSUES_COUNT, </v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A304" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B304" t="s">
+        <v>276</v>
+      </c>
+      <c r="C304" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">PRI_PROJ_V.VC_COMMIT_COUNT, </v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A305" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B305" t="s">
+        <v>278</v>
+      </c>
+      <c r="C305" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">PRI_PROJ_V.VC_REPO_SIZE, </v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A306" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B306" t="s">
+        <v>347</v>
+      </c>
+      <c r="C306" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">PRI_PROJ_V.VC_REPO_SIZE_MB, </v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A307" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B307" t="s">
+        <v>98</v>
+      </c>
+      <c r="C307" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">PRI_PROJ_V.CREATE_DATE, </v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A308" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B308" t="s">
+        <v>99</v>
+      </c>
+      <c r="C308" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">PRI_PROJ_V.CREATED_BY, </v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A309" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B309" t="s">
+        <v>100</v>
+      </c>
+      <c r="C309" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">PRI_PROJ_V.LAST_MOD_DATE, </v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A310" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B310" t="s">
+        <v>101</v>
+      </c>
+      <c r="C310" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">PRI_PROJ_V.LAST_MOD_BY, </v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A311" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B311" t="s">
+        <v>348</v>
+      </c>
+      <c r="C311" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">PRI_PROJ_V.PROJ_REFRESH_DATE, </v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A312" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B312" t="s">
+        <v>120</v>
+      </c>
+      <c r="C312" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">PRI_PROJ_V.RES_ID, </v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A313" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B313" t="s">
+        <v>121</v>
+      </c>
+      <c r="C313" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">PRI_PROJ_V.RES_CATEGORY, </v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A314" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B314" t="s">
+        <v>122</v>
+      </c>
+      <c r="C314" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">PRI_PROJ_V.RES_TAG_CONV, </v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A315" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B315" t="s">
+        <v>123</v>
+      </c>
+      <c r="C315" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">PRI_PROJ_V.RES_NAME, </v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A316" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B316" t="s">
+        <v>124</v>
+      </c>
+      <c r="C316" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">PRI_PROJ_V.RES_COLOR_CODE, </v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A317" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B317" t="s">
+        <v>125</v>
+      </c>
+      <c r="C317" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">PRI_PROJ_V.RES_URL, </v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A318" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B318" t="s">
+        <v>136</v>
+      </c>
+      <c r="C318" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">PRI_PROJ_V.RES_SCOPE_ID, </v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A319" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B319" t="s">
+        <v>143</v>
+      </c>
+      <c r="C319" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">PRI_PROJ_V.RES_SCOPE_CODE, </v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A320" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B320" t="s">
+        <v>144</v>
+      </c>
+      <c r="C320" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">PRI_PROJ_V.RES_SCOPE_NAME, </v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A321" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B321" t="s">
+        <v>145</v>
+      </c>
+      <c r="C321" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">PRI_PROJ_V.RES_SCOPE_DESC, </v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A322" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B322" t="s">
+        <v>135</v>
+      </c>
+      <c r="C322" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">PRI_PROJ_V.RES_TYPE_ID, </v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A323" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B323" t="s">
+        <v>146</v>
+      </c>
+      <c r="C323" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">PRI_PROJ_V.RES_TYPE_CODE, </v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A324" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B324" t="s">
+        <v>147</v>
+      </c>
+      <c r="C324" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">PRI_PROJ_V.RES_TYPE_NAME, </v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A325" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B325" t="s">
+        <v>148</v>
+      </c>
+      <c r="C325" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">PRI_PROJ_V.RES_TYPE_DESC, </v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A326" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B326" t="s">
+        <v>264</v>
+      </c>
+      <c r="C326" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">PRI_PROJ_V.RES_DESC, </v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A327" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B327" t="s">
+        <v>265</v>
+      </c>
+      <c r="C327" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">PRI_PROJ_V.RES_DEMO_URL, </v>
       </c>
     </row>
   </sheetData>

--- a/docs/DB_DDL_helper_template.xlsx
+++ b/docs/DB_DDL_helper_template.xlsx
@@ -737,7 +737,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1504" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1947" uniqueCount="356">
   <si>
     <t>TABLE NAME</t>
   </si>
@@ -1554,6 +1554,259 @@
   </si>
   <si>
     <t>The live demonstration URL for the project resource</t>
+  </si>
+  <si>
+    <t>VC_OWNER_ID</t>
+  </si>
+  <si>
+    <t>VC_CREATOR_ID</t>
+  </si>
+  <si>
+    <t>VC_WEB_URL</t>
+  </si>
+  <si>
+    <t>VC_OPEN_ISSUES_COUNT</t>
+  </si>
+  <si>
+    <t>VC_COMMIT_COUNT</t>
+  </si>
+  <si>
+    <t>VC_STORAGE_SIZE</t>
+  </si>
+  <si>
+    <t>VC_REPO_SIZE</t>
+  </si>
+  <si>
+    <t>Unique numeric User ID of the project's owner in the given version control system</t>
+  </si>
+  <si>
+    <t>Unique numeric User ID of the project's creator in the given version control system</t>
+  </si>
+  <si>
+    <t>The web URL of the project in the given version control system</t>
+  </si>
+  <si>
+    <t>The number of open issues for the project in the given version control system</t>
+  </si>
+  <si>
+    <t>The total number of commits for the project in the given version control system</t>
+  </si>
+  <si>
+    <t>The total storage size for the project in the given version control system</t>
+  </si>
+  <si>
+    <t>The total repository size for the project in the given version control system</t>
+  </si>
+  <si>
+    <t>PRI_VC_USERS</t>
+  </si>
+  <si>
+    <t>USER_ID</t>
+  </si>
+  <si>
+    <t>SOURCE_ID</t>
+  </si>
+  <si>
+    <t>Data Sources</t>
+  </si>
+  <si>
+    <t>SOURCE</t>
+  </si>
+  <si>
+    <t>PRI_DATA_SOURCES</t>
+  </si>
+  <si>
+    <t>PIFSC Resource Inventory Data Sources
+This table store the data sources for the information in the PIFSC Resource Inventory Database</t>
+  </si>
+  <si>
+    <t>VC_USER_ID</t>
+  </si>
+  <si>
+    <t>USERNAME</t>
+  </si>
+  <si>
+    <t>USER_NAME</t>
+  </si>
+  <si>
+    <t>USER_EMAIL</t>
+  </si>
+  <si>
+    <t>WEB_URL</t>
+  </si>
+  <si>
+    <t>DATA_SOURCE_ID</t>
+  </si>
+  <si>
+    <t>DATA_SOURCE_CODE</t>
+  </si>
+  <si>
+    <t>DATA_SOURCE_NAME</t>
+  </si>
+  <si>
+    <t>DATA_SOURCE_DESC</t>
+  </si>
+  <si>
+    <t>Primary key for the Data Sources table</t>
+  </si>
+  <si>
+    <t>Code for the given Data Source</t>
+  </si>
+  <si>
+    <t>Name of the given Data Source</t>
+  </si>
+  <si>
+    <t>Description for the given Data Source</t>
+  </si>
+  <si>
+    <t>Primary key for the PRI_VC_USERS table</t>
+  </si>
+  <si>
+    <t>Unique User ID for user within the version control system</t>
+  </si>
+  <si>
+    <t>Login username for the user account in the version control system</t>
+  </si>
+  <si>
+    <t>Name of the user account in the version control system</t>
+  </si>
+  <si>
+    <t>Email for the user account in the version control system</t>
+  </si>
+  <si>
+    <t>Avatar URL for the user account in the version control system</t>
+  </si>
+  <si>
+    <t>Web URL for the user account in the version control system</t>
+  </si>
+  <si>
+    <t>The date on which this user was created in the database</t>
+  </si>
+  <si>
+    <t>The Oracle username of the person creating the user in the database</t>
+  </si>
+  <si>
+    <t>The last date on which any of the data in the user was changed</t>
+  </si>
+  <si>
+    <t>The Oracle username of the person making the most recent change to this user</t>
+  </si>
+  <si>
+    <t>PRI_CV_USERS_V</t>
+  </si>
+  <si>
+    <t>PRI_CV_USERS</t>
+  </si>
+  <si>
+    <t>OWNER_USER_ID</t>
+  </si>
+  <si>
+    <t>OWNER_USERNAME</t>
+  </si>
+  <si>
+    <t>OWNER_USER_NAME</t>
+  </si>
+  <si>
+    <t>OWNER_USER_EMAIL</t>
+  </si>
+  <si>
+    <t>OWNER_AVATAR_URL</t>
+  </si>
+  <si>
+    <t>OWNER_WEB_URL</t>
+  </si>
+  <si>
+    <t>CREATOR_USER_ID</t>
+  </si>
+  <si>
+    <t>CREATOR_USERNAME</t>
+  </si>
+  <si>
+    <t>CREATOR_USER_NAME</t>
+  </si>
+  <si>
+    <t>CREATOR_USER_EMAIL</t>
+  </si>
+  <si>
+    <t>CREATOR_AVATAR_URL</t>
+  </si>
+  <si>
+    <t>CREATOR_WEB_URL</t>
+  </si>
+  <si>
+    <t>The date the project record was created in the database</t>
+  </si>
+  <si>
+    <t>The Oracle username of the person that created the project record in the database</t>
+  </si>
+  <si>
+    <t>The last date on which any of the data in the project record was changed</t>
+  </si>
+  <si>
+    <t>The Oracle username of the person making the most recent change to the project record</t>
+  </si>
+  <si>
+    <t>Login username for the project owner's user account in the version control system</t>
+  </si>
+  <si>
+    <t>Name of the project owner's user account in the version control system</t>
+  </si>
+  <si>
+    <t>Email for the project owner's user account in the version control system</t>
+  </si>
+  <si>
+    <t>Avatar URL for the project owner's user account in the version control system</t>
+  </si>
+  <si>
+    <t>Web URL for the project owner's user account in the version control system</t>
+  </si>
+  <si>
+    <t>The Project Owner's User ID for the version control system</t>
+  </si>
+  <si>
+    <t>The Project Creator's User ID for the version control system</t>
+  </si>
+  <si>
+    <t>Login username for the project creator's user account in the version control system</t>
+  </si>
+  <si>
+    <t>Name of the project creator's user account in the version control system</t>
+  </si>
+  <si>
+    <t>Email for the project creator's user account in the version control system</t>
+  </si>
+  <si>
+    <t>Avatar URL for the project creator's user account in the version control system</t>
+  </si>
+  <si>
+    <t>Web URL for the project creator's user account in the version control system</t>
+  </si>
+  <si>
+    <t>VC_REPO_SIZE_MB</t>
+  </si>
+  <si>
+    <t>PROJ_REFRESH_DATE</t>
+  </si>
+  <si>
+    <t>Primary key for the project's Data Source</t>
+  </si>
+  <si>
+    <t>Code for the given project's Data Source</t>
+  </si>
+  <si>
+    <t>Name of the given project's Data Source</t>
+  </si>
+  <si>
+    <t>Description for the given project's Data Source</t>
+  </si>
+  <si>
+    <t>The total repository size in bytes for the project in the given version control system</t>
+  </si>
+  <si>
+    <t>The total repository size in MB for the project in the given version control system</t>
+  </si>
+  <si>
+    <t>The date of the last time the project information was refreshed in the database</t>
   </si>
 </sst>
 </file>
@@ -2004,11 +2257,11 @@
   <dimension ref="A1:AA32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="8655" ySplit="900" topLeftCell="T1" activePane="bottomRight"/>
+      <pane xSplit="8655" ySplit="900" activePane="bottomRight"/>
       <selection activeCell="G1" sqref="G1"/>
       <selection pane="topRight" activeCell="X1" sqref="X1"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="T8" sqref="T8"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3745,12 +3998,16 @@
       </c>
     </row>
     <row r="10" spans="1:27" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
+      <c r="A10" s="19" t="s">
+        <v>286</v>
+      </c>
       <c r="B10" s="16" t="str">
         <f t="shared" si="25"/>
         <v>Yes</v>
       </c>
-      <c r="C10" s="19"/>
+      <c r="C10" s="19" t="s">
+        <v>287</v>
+      </c>
       <c r="D10" s="16" t="str">
         <f t="shared" si="26"/>
         <v>Yes</v>
@@ -3758,61 +4015,408 @@
       <c r="E10" s="19"/>
       <c r="F10" s="16" t="str">
         <f t="shared" si="15"/>
-        <v>_SEQ</v>
-      </c>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="22"/>
-      <c r="S10" s="22"/>
-      <c r="T10" s="22"/>
-      <c r="V10" s="19"/>
-      <c r="W10" s="19"/>
-      <c r="X10" s="28"/>
-      <c r="Y10" s="28"/>
+        <v>PRI_VC_USERS_SEQ</v>
+      </c>
+      <c r="G10" s="22" t="str">
+        <f t="shared" ref="G10:G11" si="46">CONCATENATE("CREATE SEQUENCE ",F10," INCREMENT BY 1 START WITH 1;")</f>
+        <v>CREATE SEQUENCE PRI_VC_USERS_SEQ INCREMENT BY 1 START WITH 1;</v>
+      </c>
+      <c r="H10" s="22" t="str">
+        <f t="shared" ref="H10:H11" si="47">CONCATENATE("ALTER TABLE ", A10, " ADD (CREATE_DATE DATE );")</f>
+        <v>ALTER TABLE PRI_VC_USERS ADD (CREATE_DATE DATE );</v>
+      </c>
+      <c r="I10" s="22" t="str">
+        <f t="shared" ref="I10:I11" si="48">CONCATENATE("ALTER TABLE ",A10, " ADD (CREATED_BY VARCHAR2(30) );")</f>
+        <v>ALTER TABLE PRI_VC_USERS ADD (CREATED_BY VARCHAR2(30) );</v>
+      </c>
+      <c r="J10" s="22" t="str">
+        <f t="shared" ref="J10:J11" si="49">CONCATENATE("ALTER TABLE ",A10, " ADD (LAST_MOD_DATE DATE );")</f>
+        <v>ALTER TABLE PRI_VC_USERS ADD (LAST_MOD_DATE DATE );</v>
+      </c>
+      <c r="K10" s="22" t="str">
+        <f t="shared" ref="K10:K11" si="50">CONCATENATE("ALTER TABLE ", A10, " ADD (LAST_MOD_BY VARCHAR2(30) );")</f>
+        <v>ALTER TABLE PRI_VC_USERS ADD (LAST_MOD_BY VARCHAR2(30) );</v>
+      </c>
+      <c r="L10" s="22" t="str">
+        <f t="shared" ref="L10:L11" si="51">CONCATENATE("COMMENT ON COLUMN ",A10, ".CREATE_DATE IS 'The date on which this record was created in the database';")</f>
+        <v>COMMENT ON COLUMN PRI_VC_USERS.CREATE_DATE IS 'The date on which this record was created in the database';</v>
+      </c>
+      <c r="M10" s="22" t="str">
+        <f t="shared" ref="M10:M11" si="52">CONCATENATE("COMMENT ON COLUMN ",A10,".CREATED_BY IS 'The Oracle username of the person creating this record in the database';")</f>
+        <v>COMMENT ON COLUMN PRI_VC_USERS.CREATED_BY IS 'The Oracle username of the person creating this record in the database';</v>
+      </c>
+      <c r="N10" s="22" t="str">
+        <f t="shared" ref="N10:N11" si="53">CONCATENATE("COMMENT ON COLUMN ", A10, ".LAST_MOD_DATE IS 'The last date on which any of the data in this record was changed';")</f>
+        <v>COMMENT ON COLUMN PRI_VC_USERS.LAST_MOD_DATE IS 'The last date on which any of the data in this record was changed';</v>
+      </c>
+      <c r="O10" s="22" t="str">
+        <f t="shared" ref="O10:O11" si="54">CONCATENATE("COMMENT ON COLUMN ", A10, ".LAST_MOD_BY IS 'The Oracle username of the person making the most recent change to this record';")</f>
+        <v>COMMENT ON COLUMN PRI_VC_USERS.LAST_MOD_BY IS 'The Oracle username of the person making the most recent change to this record';</v>
+      </c>
+      <c r="P10" s="23" t="str">
+        <f t="shared" ref="P10:P11" si="55">CONCATENATE("COMMENT ON TABLE ", A10, " IS '", SUBSTITUTE(E10, "'", "''"), "';")</f>
+        <v>COMMENT ON TABLE PRI_VC_USERS IS '';</v>
+      </c>
+      <c r="Q10" s="22" t="str">
+        <f t="shared" ref="Q10:Q11" si="56">CONCATENATE("COMMENT ON COLUMN ", A10, ".", C10, " IS 'Primary Key for the ", A10, " table';")</f>
+        <v>COMMENT ON COLUMN PRI_VC_USERS.USER_ID IS 'Primary Key for the PRI_VC_USERS table';</v>
+      </c>
+      <c r="R10" s="23" t="str">
+        <f t="shared" ref="R10:R11" si="57">CONCATENATE("create or replace TRIGGER 
+",A10, "_AUTO_BRI 
+before insert on ",A10,"
+for each row
+begin
+  select ",A10,"_SEQ.nextval into :new.",C10," from dual;
+end;
+/
+")</f>
+        <v xml:space="preserve">create or replace TRIGGER 
+PRI_VC_USERS_AUTO_BRI 
+before insert on PRI_VC_USERS
+for each row
+begin
+  select PRI_VC_USERS_SEQ.nextval into :new.USER_ID from dual;
+end;
+/
+</v>
+      </c>
+      <c r="S10" s="23" t="str">
+        <f t="shared" ref="S10:S11" si="58">CONCATENATE("create or replace TRIGGER ",A10, "_AUTO_BRI
+before insert on ", A10, "
+for each row
+begin
+  select ", A10, "_SEQ.nextval into :new.", C10, " from dual;
+  :NEW.CREATE_DATE := SYSDATE;
+  :NEW.CREATED_BY := nvl(v('APP_USER'),user);
+end;
+/
+")</f>
+        <v xml:space="preserve">create or replace TRIGGER PRI_VC_USERS_AUTO_BRI
+before insert on PRI_VC_USERS
+for each row
+begin
+  select PRI_VC_USERS_SEQ.nextval into :new.USER_ID from dual;
+  :NEW.CREATE_DATE := SYSDATE;
+  :NEW.CREATED_BY := nvl(v('APP_USER'),user);
+end;
+/
+</v>
+      </c>
+      <c r="T10" s="23" t="str">
+        <f t="shared" ref="T10:T11" si="59">CONCATENATE("CREATE OR REPLACE TRIGGER ", A10, "_AUTO_BRU BEFORE
+  UPDATE
+    ON ", A10, " FOR EACH ROW 
+    BEGIN 
+      :NEW.LAST_MOD_DATE := SYSDATE;
+      :NEW.LAST_MOD_BY := nvl(v('APP_USER'),user);
+END;
+/
+")</f>
+        <v xml:space="preserve">CREATE OR REPLACE TRIGGER PRI_VC_USERS_AUTO_BRU BEFORE
+  UPDATE
+    ON PRI_VC_USERS FOR EACH ROW 
+    BEGIN 
+      :NEW.LAST_MOD_DATE := SYSDATE;
+      :NEW.LAST_MOD_BY := nvl(v('APP_USER'),user);
+END;
+/
+</v>
+      </c>
+      <c r="U10" s="18"/>
+      <c r="V10" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="W10" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="X10" s="27" t="str">
+        <f t="shared" ref="X10:X11" si="60">CONCATENATE("CREATE TABLE ", A10, " 
+(
+  ", C10, " NUMBER NOT NULL 
+, ", W10, "_CODE VARCHAR2(50) 
+, ", W10, "_NAME VARCHAR2(200) NOT NULL 
+, ", W10, "_DESC VARCHAR2(500) 
+, CONSTRAINT ", A10, "_PK PRIMARY KEY 
+  (
+    ", C10, " 
+  )
+  ENABLE 
+);
+COMMENT ON COLUMN ", A10, ".", C10, " IS 'Primary key for the ", V10, " table';
+COMMENT ON COLUMN ", A10, ".", W10, "_CODE IS 'Code for the given ", V10, "';
+COMMENT ON COLUMN ", A10, ".", W10, "_NAME IS 'Name of the given ", V10, "';
+COMMENT ON COLUMN ", A10, ".", W10, "_DESC IS 'Description for the given ", V10, "';
+COMMENT ON TABLE ", A10, " IS '", "Reference Table for storing ", V10, " information';
+ALTER TABLE ", A10, " ADD CONSTRAINT ", A10, "_U1 UNIQUE 
+(
+  ", W10, "_CODE 
+)
+ENABLE;
+ALTER TABLE ", A10, " ADD CONSTRAINT ", A10, "_U2 UNIQUE 
+(
+  ", W10, "_NAME 
+)
+ENABLE;
+")</f>
+        <v xml:space="preserve">CREATE TABLE PRI_VC_USERS 
+(
+  USER_ID NUMBER NOT NULL 
+, TYPE_CODE VARCHAR2(50) 
+, TYPE_NAME VARCHAR2(200) NOT NULL 
+, TYPE_DESC VARCHAR2(500) 
+, CONSTRAINT PRI_VC_USERS_PK PRIMARY KEY 
+  (
+    USER_ID 
+  )
+  ENABLE 
+);
+COMMENT ON COLUMN PRI_VC_USERS.USER_ID IS 'Primary key for the Resource Types table';
+COMMENT ON COLUMN PRI_VC_USERS.TYPE_CODE IS 'Code for the given Resource Types';
+COMMENT ON COLUMN PRI_VC_USERS.TYPE_NAME IS 'Name of the given Resource Types';
+COMMENT ON COLUMN PRI_VC_USERS.TYPE_DESC IS 'Description for the given Resource Types';
+COMMENT ON TABLE PRI_VC_USERS IS 'Reference Table for storing Resource Types information';
+ALTER TABLE PRI_VC_USERS ADD CONSTRAINT PRI_VC_USERS_U1 UNIQUE 
+(
+  TYPE_CODE 
+)
+ENABLE;
+ALTER TABLE PRI_VC_USERS ADD CONSTRAINT PRI_VC_USERS_U2 UNIQUE 
+(
+  TYPE_NAME 
+)
+ENABLE;
+</v>
+      </c>
+      <c r="Y10" s="27" t="str">
+        <f>CONCATENATE("insert into ", A10, " (", W10, "_NAME) SELECT distinct [FIELDNAME] from [TABLENAME] where [FIELDNAME] IS NOT NULL AND [FIELDNAME] &lt;&gt; 'NA';")</f>
+        <v>insert into PRI_VC_USERS (TYPE_NAME) SELECT distinct [FIELDNAME] from [TABLENAME] where [FIELDNAME] IS NOT NULL AND [FIELDNAME] &lt;&gt; 'NA';</v>
+      </c>
+      <c r="Z10" s="16" t="str">
+        <f t="shared" ref="Z10:Z11" si="61">CONCATENATE("DROP TRIGGER ""bi_", A10, """;")</f>
+        <v>DROP TRIGGER "bi_PRI_VC_USERS";</v>
+      </c>
+      <c r="AA10" s="28" t="str">
+        <f t="shared" ref="AA10:AA11" si="62">CONCATENATE("--Define the foreign key reference from [TABLENAME] to ", A10, " and associate the reference records appropriately
+--Populate the foreign key reference on [TABLENAME] to the reference table ", A10, "
+UPDATE [TABLENAME] SET TEMP_DATA = ", C10, ", ", C10, " = NULL;
+--modify the existing column
+ALTER TABLE [TABLENAME]  
+MODIFY (", C10, " NUMBER );
+--create the foreign key reference index:
+CREATE INDEX [INDEXNAME] ON [TABLENAME] (", C10, ");
+--create the foreign key constraint:
+ALTER TABLE [TABLENAME]
+ADD CONSTRAINT [FKNAME] FOREIGN KEY
+(
+  ", C10, "
+)
+REFERENCES ", A10, "
+(
+  ", C10, "
+)
+ENABLE;
+--populate the foreign key field with the reference table relationship:
+UPDATE [TABLENAME] SET ", C10, " = (SELECT ", C10, " FROM ", A10, " WHERE ", W10, "_NAME = [TABLENAME].TEMP_DATA);
+")</f>
+        <v xml:space="preserve">--Define the foreign key reference from [TABLENAME] to PRI_VC_USERS and associate the reference records appropriately
+--Populate the foreign key reference on [TABLENAME] to the reference table PRI_VC_USERS
+UPDATE [TABLENAME] SET TEMP_DATA = USER_ID, USER_ID = NULL;
+--modify the existing column
+ALTER TABLE [TABLENAME]  
+MODIFY (USER_ID NUMBER );
+--create the foreign key reference index:
+CREATE INDEX [INDEXNAME] ON [TABLENAME] (USER_ID);
+--create the foreign key constraint:
+ALTER TABLE [TABLENAME]
+ADD CONSTRAINT [FKNAME] FOREIGN KEY
+(
+  USER_ID
+)
+REFERENCES PRI_VC_USERS
+(
+  USER_ID
+)
+ENABLE;
+--populate the foreign key field with the reference table relationship:
+UPDATE [TABLENAME] SET USER_ID = (SELECT USER_ID FROM PRI_VC_USERS WHERE TYPE_NAME = [TABLENAME].TEMP_DATA);
+</v>
+      </c>
     </row>
     <row r="11" spans="1:27" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
+      <c r="A11" s="19" t="s">
+        <v>291</v>
+      </c>
       <c r="B11" s="16" t="str">
         <f t="shared" si="25"/>
         <v>Yes</v>
       </c>
-      <c r="C11" s="19"/>
+      <c r="C11" s="19" t="s">
+        <v>288</v>
+      </c>
       <c r="D11" s="16" t="str">
         <f t="shared" si="26"/>
         <v>Yes</v>
       </c>
-      <c r="E11" s="19"/>
+      <c r="E11" s="20" t="s">
+        <v>292</v>
+      </c>
       <c r="F11" s="16" t="str">
         <f t="shared" si="15"/>
-        <v>_SEQ</v>
-      </c>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="22"/>
-      <c r="S11" s="22"/>
-      <c r="T11" s="22"/>
-      <c r="V11" s="19"/>
-      <c r="W11" s="19"/>
-      <c r="X11" s="28"/>
-      <c r="Y11" s="28"/>
+        <v>PRI_DATA_SOURCES_SEQ</v>
+      </c>
+      <c r="G11" s="22" t="str">
+        <f t="shared" si="46"/>
+        <v>CREATE SEQUENCE PRI_DATA_SOURCES_SEQ INCREMENT BY 1 START WITH 1;</v>
+      </c>
+      <c r="H11" s="22" t="str">
+        <f t="shared" si="47"/>
+        <v>ALTER TABLE PRI_DATA_SOURCES ADD (CREATE_DATE DATE );</v>
+      </c>
+      <c r="I11" s="22" t="str">
+        <f t="shared" si="48"/>
+        <v>ALTER TABLE PRI_DATA_SOURCES ADD (CREATED_BY VARCHAR2(30) );</v>
+      </c>
+      <c r="J11" s="22" t="str">
+        <f t="shared" si="49"/>
+        <v>ALTER TABLE PRI_DATA_SOURCES ADD (LAST_MOD_DATE DATE );</v>
+      </c>
+      <c r="K11" s="22" t="str">
+        <f t="shared" si="50"/>
+        <v>ALTER TABLE PRI_DATA_SOURCES ADD (LAST_MOD_BY VARCHAR2(30) );</v>
+      </c>
+      <c r="L11" s="22" t="str">
+        <f t="shared" si="51"/>
+        <v>COMMENT ON COLUMN PRI_DATA_SOURCES.CREATE_DATE IS 'The date on which this record was created in the database';</v>
+      </c>
+      <c r="M11" s="22" t="str">
+        <f t="shared" si="52"/>
+        <v>COMMENT ON COLUMN PRI_DATA_SOURCES.CREATED_BY IS 'The Oracle username of the person creating this record in the database';</v>
+      </c>
+      <c r="N11" s="22" t="str">
+        <f t="shared" si="53"/>
+        <v>COMMENT ON COLUMN PRI_DATA_SOURCES.LAST_MOD_DATE IS 'The last date on which any of the data in this record was changed';</v>
+      </c>
+      <c r="O11" s="22" t="str">
+        <f t="shared" si="54"/>
+        <v>COMMENT ON COLUMN PRI_DATA_SOURCES.LAST_MOD_BY IS 'The Oracle username of the person making the most recent change to this record';</v>
+      </c>
+      <c r="P11" s="22" t="str">
+        <f t="shared" si="55"/>
+        <v>COMMENT ON TABLE PRI_DATA_SOURCES IS 'PIFSC Resource Inventory Data Sources
+This table store the data sources for the information in the PIFSC Resource Inventory Database';</v>
+      </c>
+      <c r="Q11" s="22" t="str">
+        <f t="shared" si="56"/>
+        <v>COMMENT ON COLUMN PRI_DATA_SOURCES.SOURCE_ID IS 'Primary Key for the PRI_DATA_SOURCES table';</v>
+      </c>
+      <c r="R11" s="22" t="str">
+        <f t="shared" si="57"/>
+        <v xml:space="preserve">create or replace TRIGGER 
+PRI_DATA_SOURCES_AUTO_BRI 
+before insert on PRI_DATA_SOURCES
+for each row
+begin
+  select PRI_DATA_SOURCES_SEQ.nextval into :new.SOURCE_ID from dual;
+end;
+/
+</v>
+      </c>
+      <c r="S11" s="22" t="str">
+        <f t="shared" si="58"/>
+        <v xml:space="preserve">create or replace TRIGGER PRI_DATA_SOURCES_AUTO_BRI
+before insert on PRI_DATA_SOURCES
+for each row
+begin
+  select PRI_DATA_SOURCES_SEQ.nextval into :new.SOURCE_ID from dual;
+  :NEW.CREATE_DATE := SYSDATE;
+  :NEW.CREATED_BY := nvl(v('APP_USER'),user);
+end;
+/
+</v>
+      </c>
+      <c r="T11" s="22" t="str">
+        <f t="shared" si="59"/>
+        <v xml:space="preserve">CREATE OR REPLACE TRIGGER PRI_DATA_SOURCES_AUTO_BRU BEFORE
+  UPDATE
+    ON PRI_DATA_SOURCES FOR EACH ROW 
+    BEGIN 
+      :NEW.LAST_MOD_DATE := SYSDATE;
+      :NEW.LAST_MOD_BY := nvl(v('APP_USER'),user);
+END;
+/
+</v>
+      </c>
+      <c r="V11" s="19" t="s">
+        <v>289</v>
+      </c>
+      <c r="W11" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="X11" s="28" t="str">
+        <f t="shared" si="60"/>
+        <v xml:space="preserve">CREATE TABLE PRI_DATA_SOURCES 
+(
+  SOURCE_ID NUMBER NOT NULL 
+, SOURCE_CODE VARCHAR2(50) 
+, SOURCE_NAME VARCHAR2(200) NOT NULL 
+, SOURCE_DESC VARCHAR2(500) 
+, CONSTRAINT PRI_DATA_SOURCES_PK PRIMARY KEY 
+  (
+    SOURCE_ID 
+  )
+  ENABLE 
+);
+COMMENT ON COLUMN PRI_DATA_SOURCES.SOURCE_ID IS 'Primary key for the Data Sources table';
+COMMENT ON COLUMN PRI_DATA_SOURCES.SOURCE_CODE IS 'Code for the given Data Sources';
+COMMENT ON COLUMN PRI_DATA_SOURCES.SOURCE_NAME IS 'Name of the given Data Sources';
+COMMENT ON COLUMN PRI_DATA_SOURCES.SOURCE_DESC IS 'Description for the given Data Sources';
+COMMENT ON TABLE PRI_DATA_SOURCES IS 'Reference Table for storing Data Sources information';
+ALTER TABLE PRI_DATA_SOURCES ADD CONSTRAINT PRI_DATA_SOURCES_U1 UNIQUE 
+(
+  SOURCE_CODE 
+)
+ENABLE;
+ALTER TABLE PRI_DATA_SOURCES ADD CONSTRAINT PRI_DATA_SOURCES_U2 UNIQUE 
+(
+  SOURCE_NAME 
+)
+ENABLE;
+</v>
+      </c>
+      <c r="Y11" s="28" t="str">
+        <f>CONCATENATE("insert into ", A11, " (", W11, "_NAME) SELECT distinct [FIELDNAME] from [TABLENAME] where [FIELDNAME] IS NOT NULL AND [FIELDNAME] &lt;&gt; 'NA';")</f>
+        <v>insert into PRI_DATA_SOURCES (SOURCE_NAME) SELECT distinct [FIELDNAME] from [TABLENAME] where [FIELDNAME] IS NOT NULL AND [FIELDNAME] &lt;&gt; 'NA';</v>
+      </c>
+      <c r="Z11" s="16" t="str">
+        <f t="shared" si="61"/>
+        <v>DROP TRIGGER "bi_PRI_DATA_SOURCES";</v>
+      </c>
+      <c r="AA11" s="28" t="str">
+        <f t="shared" si="62"/>
+        <v xml:space="preserve">--Define the foreign key reference from [TABLENAME] to PRI_DATA_SOURCES and associate the reference records appropriately
+--Populate the foreign key reference on [TABLENAME] to the reference table PRI_DATA_SOURCES
+UPDATE [TABLENAME] SET TEMP_DATA = SOURCE_ID, SOURCE_ID = NULL;
+--modify the existing column
+ALTER TABLE [TABLENAME]  
+MODIFY (SOURCE_ID NUMBER );
+--create the foreign key reference index:
+CREATE INDEX [INDEXNAME] ON [TABLENAME] (SOURCE_ID);
+--create the foreign key constraint:
+ALTER TABLE [TABLENAME]
+ADD CONSTRAINT [FKNAME] FOREIGN KEY
+(
+  SOURCE_ID
+)
+REFERENCES PRI_DATA_SOURCES
+(
+  SOURCE_ID
+)
+ENABLE;
+--populate the foreign key field with the reference table relationship:
+UPDATE [TABLENAME] SET SOURCE_ID = (SELECT SOURCE_ID FROM PRI_DATA_SOURCES WHERE SOURCE_NAME = [TABLENAME].TEMP_DATA);
+</v>
+      </c>
     </row>
     <row r="12" spans="1:27" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="19"/>
@@ -4560,8 +5164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2806"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A334" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D350" sqref="D350:D385"/>
+    <sheetView tabSelected="1" topLeftCell="A438" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C449" sqref="C449"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9641,41 +10245,614 @@
         <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.RES_DEMO_URL IS 'The live demonstration URL for the project resource';</v>
       </c>
     </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A389" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B389" s="18" t="s">
+        <v>272</v>
+      </c>
+      <c r="C389" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="D389" s="22" t="str">
+        <f t="shared" ref="D389:D416" si="10">CONCATENATE("COMMENT ON COLUMN ",A389, ".", B389, " IS '", SUBSTITUTE(C389, "'", "''"), "';")</f>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.VC_OWNER_ID IS 'Unique numeric User ID of the project''s owner in the given version control system';</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A390" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B390" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="C390" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="D390" s="22" t="str">
+        <f t="shared" si="10"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.VC_CREATOR_ID IS 'Unique numeric User ID of the project''s creator in the given version control system';</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A391" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B391" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="C391" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="D391" s="22" t="str">
+        <f t="shared" si="10"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.VC_WEB_URL IS 'The web URL of the project in the given version control system';</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A392" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B392" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="C392" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="D392" s="22" t="str">
+        <f t="shared" si="10"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.VC_OPEN_ISSUES_COUNT IS 'The number of open issues for the project in the given version control system';</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A393" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B393" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="C393" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="D393" s="22" t="str">
+        <f t="shared" si="10"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.VC_COMMIT_COUNT IS 'The total number of commits for the project in the given version control system';</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A394" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B394" s="18" t="s">
+        <v>277</v>
+      </c>
+      <c r="C394" s="19" t="s">
+        <v>284</v>
+      </c>
+      <c r="D394" s="22" t="str">
+        <f t="shared" si="10"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.VC_STORAGE_SIZE IS 'The total storage size for the project in the given version control system';</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A395" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B395" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="C395" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="D395" s="22" t="str">
+        <f t="shared" si="10"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.VC_REPO_SIZE IS 'The total repository size for the project in the given version control system';</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D396" s="22" t="str">
+        <f t="shared" si="10"/>
+        <v>COMMENT ON COLUMN . IS '';</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D397" s="22" t="str">
+        <f t="shared" si="10"/>
+        <v>COMMENT ON COLUMN . IS '';</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D398" s="22" t="str">
+        <f t="shared" si="10"/>
+        <v>COMMENT ON COLUMN . IS '';</v>
+      </c>
+    </row>
     <row r="399" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A399" s="19"/>
       <c r="B399" s="19"/>
       <c r="C399" s="19"/>
-      <c r="D399" s="22"/>
+      <c r="D399" s="22" t="str">
+        <f t="shared" si="10"/>
+        <v>COMMENT ON COLUMN . IS '';</v>
+      </c>
     </row>
     <row r="400" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A400" s="19"/>
-      <c r="B400" s="19"/>
-      <c r="C400" s="19"/>
-      <c r="D400" s="22"/>
+      <c r="A400" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="B400" s="18" t="s">
+        <v>287</v>
+      </c>
+      <c r="C400" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="D400" s="22" t="str">
+        <f t="shared" si="10"/>
+        <v>COMMENT ON COLUMN PRI_CV_USERS_V.USER_ID IS 'Primary key for the PRI_VC_USERS table';</v>
+      </c>
     </row>
     <row r="401" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A401" s="19"/>
-      <c r="B401" s="19"/>
-      <c r="C401" s="19"/>
-      <c r="D401" s="22"/>
+      <c r="A401" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="B401" s="18" t="s">
+        <v>293</v>
+      </c>
+      <c r="C401" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="D401" s="22" t="str">
+        <f t="shared" si="10"/>
+        <v>COMMENT ON COLUMN PRI_CV_USERS_V.VC_USER_ID IS 'Unique User ID for user within the version control system';</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A402" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="B402" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="C402" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="D402" s="22" t="str">
+        <f t="shared" si="10"/>
+        <v>COMMENT ON COLUMN PRI_CV_USERS_V.USERNAME IS 'Login username for the user account in the version control system';</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A403" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="B403" s="18" t="s">
+        <v>295</v>
+      </c>
+      <c r="C403" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="D403" s="22" t="str">
+        <f t="shared" si="10"/>
+        <v>COMMENT ON COLUMN PRI_CV_USERS_V.USER_NAME IS 'Name of the user account in the version control system';</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A404" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="B404" s="18" t="s">
+        <v>296</v>
+      </c>
+      <c r="C404" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="D404" s="22" t="str">
+        <f t="shared" si="10"/>
+        <v>COMMENT ON COLUMN PRI_CV_USERS_V.USER_EMAIL IS 'Email for the user account in the version control system';</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A405" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="B405" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C405" s="18" t="s">
+        <v>311</v>
+      </c>
+      <c r="D405" s="22" t="str">
+        <f t="shared" si="10"/>
+        <v>COMMENT ON COLUMN PRI_CV_USERS_V.AVATAR_URL IS 'Avatar URL for the user account in the version control system';</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A406" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="B406" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="C406" s="18" t="s">
+        <v>312</v>
+      </c>
+      <c r="D406" s="22" t="str">
+        <f t="shared" si="10"/>
+        <v>COMMENT ON COLUMN PRI_CV_USERS_V.WEB_URL IS 'Web URL for the user account in the version control system';</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A407" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="B407" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="C407" s="18" t="s">
+        <v>302</v>
+      </c>
+      <c r="D407" s="22" t="str">
+        <f t="shared" si="10"/>
+        <v>COMMENT ON COLUMN PRI_CV_USERS_V.DATA_SOURCE_ID IS 'Primary key for the Data Sources table';</v>
+      </c>
     </row>
     <row r="408" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A408" s="19"/>
-      <c r="B408" s="19"/>
-      <c r="C408" s="19"/>
-      <c r="D408" s="22"/>
+      <c r="A408" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="B408" s="18" t="s">
+        <v>299</v>
+      </c>
+      <c r="C408" s="18" t="s">
+        <v>303</v>
+      </c>
+      <c r="D408" s="22" t="str">
+        <f t="shared" si="10"/>
+        <v>COMMENT ON COLUMN PRI_CV_USERS_V.DATA_SOURCE_CODE IS 'Code for the given Data Source';</v>
+      </c>
     </row>
     <row r="409" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A409" s="19"/>
-      <c r="B409" s="19"/>
-      <c r="C409" s="19"/>
-      <c r="D409" s="22"/>
+      <c r="A409" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="B409" s="18" t="s">
+        <v>300</v>
+      </c>
+      <c r="C409" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="D409" s="22" t="str">
+        <f t="shared" si="10"/>
+        <v>COMMENT ON COLUMN PRI_CV_USERS_V.DATA_SOURCE_NAME IS 'Name of the given Data Source';</v>
+      </c>
     </row>
     <row r="410" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A410" s="19"/>
-      <c r="B410" s="19"/>
-      <c r="C410" s="19"/>
-      <c r="D410" s="22"/>
+      <c r="A410" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="B410" s="18" t="s">
+        <v>301</v>
+      </c>
+      <c r="C410" s="18" t="s">
+        <v>305</v>
+      </c>
+      <c r="D410" s="22" t="str">
+        <f t="shared" si="10"/>
+        <v>COMMENT ON COLUMN PRI_CV_USERS_V.DATA_SOURCE_DESC IS 'Description for the given Data Source';</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A411" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="B411" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="C411" s="18" t="s">
+        <v>313</v>
+      </c>
+      <c r="D411" s="22" t="str">
+        <f t="shared" si="10"/>
+        <v>COMMENT ON COLUMN PRI_CV_USERS_V.CREATE_DATE IS 'The date on which this user was created in the database';</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A412" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="B412" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="C412" s="18" t="s">
+        <v>314</v>
+      </c>
+      <c r="D412" s="22" t="str">
+        <f t="shared" si="10"/>
+        <v>COMMENT ON COLUMN PRI_CV_USERS_V.CREATED_BY IS 'The Oracle username of the person creating the user in the database';</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A413" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="B413" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="C413" s="18" t="s">
+        <v>315</v>
+      </c>
+      <c r="D413" s="22" t="str">
+        <f t="shared" si="10"/>
+        <v>COMMENT ON COLUMN PRI_CV_USERS_V.LAST_MOD_DATE IS 'The last date on which any of the data in the user was changed';</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A414" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="B414" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="C414" s="18" t="s">
+        <v>316</v>
+      </c>
+      <c r="D414" s="22" t="str">
+        <f t="shared" si="10"/>
+        <v>COMMENT ON COLUMN PRI_CV_USERS_V.LAST_MOD_BY IS 'The Oracle username of the person making the most recent change to this user';</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D415" s="22" t="str">
+        <f t="shared" si="10"/>
+        <v>COMMENT ON COLUMN . IS '';</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D416" s="22" t="str">
+        <f t="shared" si="10"/>
+        <v>COMMENT ON COLUMN . IS '';</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A420" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="B420" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="C420" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="D420" s="22" t="str">
+        <f t="shared" ref="D420:D435" si="11">CONCATENATE("COMMENT ON COLUMN ",A420, ".", B420, " IS '", SUBSTITUTE(C420, "'", "''"), "';")</f>
+        <v>COMMENT ON COLUMN PRI_PROJ_RES_TAG_MAX_SUM_ALL_V.OWNER_USER_ID IS 'The Project Owner''s User ID for the version control system';</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A421" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="B421" s="19" t="s">
+        <v>320</v>
+      </c>
+      <c r="C421" s="19" t="s">
+        <v>335</v>
+      </c>
+      <c r="D421" s="22" t="str">
+        <f t="shared" si="11"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_RES_TAG_MAX_SUM_ALL_V.OWNER_USERNAME IS 'Login username for the project owner''s user account in the version control system';</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A422" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="B422" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="C422" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="D422" s="22" t="str">
+        <f t="shared" si="11"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_RES_TAG_MAX_SUM_ALL_V.OWNER_USER_NAME IS 'Name of the project owner''s user account in the version control system';</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A423" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="B423" s="19" t="s">
+        <v>322</v>
+      </c>
+      <c r="C423" s="19" t="s">
+        <v>337</v>
+      </c>
+      <c r="D423" s="22" t="str">
+        <f t="shared" si="11"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_RES_TAG_MAX_SUM_ALL_V.OWNER_USER_EMAIL IS 'Email for the project owner''s user account in the version control system';</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A424" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="B424" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="C424" s="19" t="s">
+        <v>338</v>
+      </c>
+      <c r="D424" s="22" t="str">
+        <f t="shared" si="11"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_RES_TAG_MAX_SUM_ALL_V.OWNER_AVATAR_URL IS 'Avatar URL for the project owner''s user account in the version control system';</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A425" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="B425" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="C425" s="19" t="s">
+        <v>339</v>
+      </c>
+      <c r="D425" s="22" t="str">
+        <f t="shared" si="11"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_RES_TAG_MAX_SUM_ALL_V.OWNER_WEB_URL IS 'Web URL for the project owner''s user account in the version control system';</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A426" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="B426" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="C426" s="19" t="s">
+        <v>341</v>
+      </c>
+      <c r="D426" s="22" t="str">
+        <f t="shared" si="11"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_RES_TAG_MAX_SUM_ALL_V.CREATOR_USER_ID IS 'The Project Creator''s User ID for the version control system';</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A427" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="B427" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="C427" s="19" t="s">
+        <v>342</v>
+      </c>
+      <c r="D427" s="22" t="str">
+        <f t="shared" si="11"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_RES_TAG_MAX_SUM_ALL_V.CREATOR_USERNAME IS 'Login username for the project creator''s user account in the version control system';</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A428" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="B428" s="19" t="s">
+        <v>327</v>
+      </c>
+      <c r="C428" s="19" t="s">
+        <v>343</v>
+      </c>
+      <c r="D428" s="22" t="str">
+        <f t="shared" si="11"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_RES_TAG_MAX_SUM_ALL_V.CREATOR_USER_NAME IS 'Name of the project creator''s user account in the version control system';</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A429" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="B429" s="19" t="s">
+        <v>328</v>
+      </c>
+      <c r="C429" s="19" t="s">
+        <v>344</v>
+      </c>
+      <c r="D429" s="22" t="str">
+        <f t="shared" si="11"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_RES_TAG_MAX_SUM_ALL_V.CREATOR_USER_EMAIL IS 'Email for the project creator''s user account in the version control system';</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A430" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="B430" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="C430" s="19" t="s">
+        <v>345</v>
+      </c>
+      <c r="D430" s="22" t="str">
+        <f t="shared" si="11"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_RES_TAG_MAX_SUM_ALL_V.CREATOR_AVATAR_URL IS 'Avatar URL for the project creator''s user account in the version control system';</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A431" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="B431" s="19" t="s">
+        <v>330</v>
+      </c>
+      <c r="C431" s="19" t="s">
+        <v>346</v>
+      </c>
+      <c r="D431" s="22" t="str">
+        <f t="shared" si="11"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_RES_TAG_MAX_SUM_ALL_V.CREATOR_WEB_URL IS 'Web URL for the project creator''s user account in the version control system';</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A432" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="B432" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="C432" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="D432" s="22" t="str">
+        <f t="shared" si="11"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_RES_TAG_MAX_SUM_ALL_V.CREATE_DATE IS 'The date the project record was created in the database';</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A433" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="B433" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="C433" s="19" t="s">
+        <v>332</v>
+      </c>
+      <c r="D433" s="22" t="str">
+        <f t="shared" si="11"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_RES_TAG_MAX_SUM_ALL_V.CREATED_BY IS 'The Oracle username of the person that created the project record in the database';</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A434" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="B434" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="C434" s="19" t="s">
+        <v>333</v>
+      </c>
+      <c r="D434" s="22" t="str">
+        <f t="shared" si="11"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_RES_TAG_MAX_SUM_ALL_V.LAST_MOD_DATE IS 'The last date on which any of the data in the project record was changed';</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A435" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="B435" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="C435" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="D435" s="22" t="str">
+        <f t="shared" si="11"/>
+        <v>COMMENT ON COLUMN PRI_PROJ_RES_TAG_MAX_SUM_ALL_V.LAST_MOD_BY IS 'The Oracle username of the person making the most recent change to the project record';</v>
+      </c>
     </row>
     <row r="436" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A436" s="19"/>
@@ -9690,52 +10867,844 @@
       <c r="D437" s="22"/>
     </row>
     <row r="438" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A438" s="19"/>
-      <c r="B438" s="19"/>
-      <c r="C438" s="19"/>
-      <c r="D438" s="22"/>
+      <c r="A438" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B438" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C438" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="D438" s="22" t="str">
+        <f t="shared" ref="D438:D493" si="12">CONCATENATE("COMMENT ON COLUMN ",A438, ".", B438, " IS '", SUBSTITUTE(C438, "'", "''"), "';")</f>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.PROJ_ID IS 'Primary key for the PRI_PROJ table';</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A439" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B439" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="C439" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D439" s="22" t="str">
+        <f t="shared" si="12"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.VC_PROJ_ID IS 'Unique numeric ID of the project in the given version control system';</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A440" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B440" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C440" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D440" s="22" t="str">
+        <f t="shared" si="12"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.PROJ_NAME IS 'Name of the project';</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A441" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B441" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C441" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D441" s="22" t="str">
+        <f t="shared" si="12"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.PROJ_DESC IS 'Description of the project';</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A442" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B442" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C442" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D442" s="22" t="str">
+        <f t="shared" si="12"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.SSH_URL IS 'SSH URL for the project';</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A443" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B443" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C443" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D443" s="22" t="str">
+        <f t="shared" si="12"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.HTTP_URL IS 'HTTP URL for the project';</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A444" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B444" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C444" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D444" s="22" t="str">
+        <f t="shared" si="12"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.README_URL IS 'Readme URL for the project';</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A445" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B445" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C445" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="D445" s="22" t="str">
+        <f t="shared" si="12"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.AVATAR_URL IS 'Avatar URL for the project';</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A446" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B446" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C446" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="D446" s="22" t="str">
+        <f t="shared" si="12"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.PROJ_CREATE_DTM IS 'The date/time the project was created';</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A447" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B447" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C447" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="D447" s="22" t="str">
+        <f t="shared" si="12"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.PROJ_UPDATE_DTM IS 'The date/time the project was last updated';</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A448" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B448" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="C448" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="D448" s="22" t="str">
+        <f t="shared" si="12"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.PROJ_VISIBILITY IS 'The visibility for the project (public, internal, private)';</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A449" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B449" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C449" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="D449" s="22" t="str">
+        <f t="shared" si="12"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.PROJ_NAME_SPACE IS 'project name including the namespace prefix';</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A450" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B450" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="C450" s="19" t="s">
+        <v>349</v>
+      </c>
+      <c r="D450" s="22" t="str">
+        <f t="shared" si="12"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.DATA_SOURCE_ID IS 'Primary key for the project''s Data Source';</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A451" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B451" s="18" t="s">
+        <v>299</v>
+      </c>
+      <c r="C451" s="19" t="s">
+        <v>350</v>
+      </c>
+      <c r="D451" s="22" t="str">
+        <f t="shared" si="12"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.DATA_SOURCE_CODE IS 'Code for the given project''s Data Source';</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A452" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B452" s="18" t="s">
+        <v>300</v>
+      </c>
+      <c r="C452" s="19" t="s">
+        <v>351</v>
+      </c>
+      <c r="D452" s="22" t="str">
+        <f t="shared" si="12"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.DATA_SOURCE_NAME IS 'Name of the given project''s Data Source';</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A453" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B453" s="18" t="s">
+        <v>301</v>
+      </c>
+      <c r="C453" s="19" t="s">
+        <v>352</v>
+      </c>
+      <c r="D453" s="22" t="str">
+        <f t="shared" si="12"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.DATA_SOURCE_DESC IS 'Description for the given project''s Data Source';</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A454" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B454" s="18" t="s">
+        <v>272</v>
+      </c>
+      <c r="C454" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="D454" s="22" t="str">
+        <f t="shared" si="12"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.VC_OWNER_ID IS 'Unique numeric User ID of the project''s owner in the given version control system';</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A455" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B455" s="18" t="s">
+        <v>319</v>
+      </c>
+      <c r="C455" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="D455" s="22" t="str">
+        <f t="shared" si="12"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.OWNER_USER_ID IS 'The Project Owner''s User ID for the version control system';</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A456" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B456" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="C456" s="19" t="s">
+        <v>335</v>
+      </c>
+      <c r="D456" s="22" t="str">
+        <f t="shared" si="12"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.OWNER_USERNAME IS 'Login username for the project owner''s user account in the version control system';</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A457" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B457" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="C457" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="D457" s="22" t="str">
+        <f t="shared" si="12"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.OWNER_USER_NAME IS 'Name of the project owner''s user account in the version control system';</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A458" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B458" s="18" t="s">
+        <v>322</v>
+      </c>
+      <c r="C458" s="19" t="s">
+        <v>337</v>
+      </c>
+      <c r="D458" s="22" t="str">
+        <f t="shared" si="12"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.OWNER_USER_EMAIL IS 'Email for the project owner''s user account in the version control system';</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A459" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B459" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="C459" s="19" t="s">
+        <v>338</v>
+      </c>
+      <c r="D459" s="22" t="str">
+        <f t="shared" si="12"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.OWNER_AVATAR_URL IS 'Avatar URL for the project owner''s user account in the version control system';</v>
+      </c>
     </row>
     <row r="460" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A460" s="19"/>
-      <c r="B460" s="19"/>
-      <c r="C460" s="19"/>
-      <c r="D460" s="22"/>
+      <c r="A460" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B460" s="18" t="s">
+        <v>324</v>
+      </c>
+      <c r="C460" s="19" t="s">
+        <v>339</v>
+      </c>
+      <c r="D460" s="22" t="str">
+        <f t="shared" si="12"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.OWNER_WEB_URL IS 'Web URL for the project owner''s user account in the version control system';</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A461" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B461" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="C461" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="D461" s="22" t="str">
+        <f t="shared" si="12"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.VC_CREATOR_ID IS 'Unique numeric User ID of the project''s creator in the given version control system';</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A462" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B462" s="18" t="s">
+        <v>325</v>
+      </c>
+      <c r="C462" s="19" t="s">
+        <v>341</v>
+      </c>
+      <c r="D462" s="22" t="str">
+        <f t="shared" si="12"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.CREATOR_USER_ID IS 'The Project Creator''s User ID for the version control system';</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A463" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B463" s="18" t="s">
+        <v>326</v>
+      </c>
+      <c r="C463" s="19" t="s">
+        <v>342</v>
+      </c>
+      <c r="D463" s="22" t="str">
+        <f t="shared" si="12"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.CREATOR_USERNAME IS 'Login username for the project creator''s user account in the version control system';</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A464" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B464" s="18" t="s">
+        <v>327</v>
+      </c>
+      <c r="C464" s="19" t="s">
+        <v>343</v>
+      </c>
+      <c r="D464" s="22" t="str">
+        <f t="shared" si="12"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.CREATOR_USER_NAME IS 'Name of the project creator''s user account in the version control system';</v>
+      </c>
     </row>
     <row r="465" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A465" s="19"/>
-      <c r="B465" s="19"/>
-      <c r="C465" s="19"/>
-      <c r="D465" s="22"/>
+      <c r="A465" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B465" s="18" t="s">
+        <v>328</v>
+      </c>
+      <c r="C465" s="19" t="s">
+        <v>344</v>
+      </c>
+      <c r="D465" s="22" t="str">
+        <f t="shared" si="12"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.CREATOR_USER_EMAIL IS 'Email for the project creator''s user account in the version control system';</v>
+      </c>
     </row>
     <row r="466" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A466" s="19"/>
-      <c r="B466" s="19"/>
-      <c r="C466" s="19"/>
-      <c r="D466" s="22"/>
+      <c r="A466" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B466" s="18" t="s">
+        <v>329</v>
+      </c>
+      <c r="C466" s="19" t="s">
+        <v>345</v>
+      </c>
+      <c r="D466" s="22" t="str">
+        <f t="shared" si="12"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.CREATOR_AVATAR_URL IS 'Avatar URL for the project creator''s user account in the version control system';</v>
+      </c>
     </row>
     <row r="467" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A467" s="19"/>
-      <c r="B467" s="19"/>
-      <c r="C467" s="19"/>
-      <c r="D467" s="22"/>
+      <c r="A467" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B467" s="18" t="s">
+        <v>330</v>
+      </c>
+      <c r="C467" s="19" t="s">
+        <v>346</v>
+      </c>
+      <c r="D467" s="22" t="str">
+        <f t="shared" si="12"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.CREATOR_WEB_URL IS 'Web URL for the project creator''s user account in the version control system';</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A468" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B468" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="C468" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="D468" s="22" t="str">
+        <f t="shared" si="12"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.VC_WEB_URL IS 'The web URL of the project in the given version control system';</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A469" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B469" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="C469" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="D469" s="22" t="str">
+        <f t="shared" si="12"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.VC_OPEN_ISSUES_COUNT IS 'The number of open issues for the project in the given version control system';</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A470" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B470" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="C470" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="D470" s="22" t="str">
+        <f t="shared" si="12"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.VC_COMMIT_COUNT IS 'The total number of commits for the project in the given version control system';</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A471" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B471" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="C471" s="19" t="s">
+        <v>353</v>
+      </c>
+      <c r="D471" s="22" t="str">
+        <f t="shared" si="12"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.VC_REPO_SIZE IS 'The total repository size in bytes for the project in the given version control system';</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A472" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B472" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="C472" s="19" t="s">
+        <v>354</v>
+      </c>
+      <c r="D472" s="22" t="str">
+        <f t="shared" si="12"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.VC_REPO_SIZE_MB IS 'The total repository size in MB for the project in the given version control system';</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A473" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B473" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="C473" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="D473" s="22" t="str">
+        <f t="shared" si="12"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.CREATE_DATE IS 'The date the project record was created in the database';</v>
+      </c>
     </row>
     <row r="474" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A474" s="19"/>
-      <c r="B474" s="19"/>
-      <c r="C474" s="19"/>
-      <c r="D474" s="22"/>
+      <c r="A474" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B474" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="C474" s="19" t="s">
+        <v>332</v>
+      </c>
+      <c r="D474" s="22" t="str">
+        <f t="shared" si="12"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.CREATED_BY IS 'The Oracle username of the person that created the project record in the database';</v>
+      </c>
     </row>
     <row r="475" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A475" s="19"/>
-      <c r="B475" s="19"/>
-      <c r="C475" s="19"/>
-      <c r="D475" s="22"/>
+      <c r="A475" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B475" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="C475" s="19" t="s">
+        <v>333</v>
+      </c>
+      <c r="D475" s="22" t="str">
+        <f t="shared" si="12"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.LAST_MOD_DATE IS 'The last date on which any of the data in the project record was changed';</v>
+      </c>
     </row>
     <row r="476" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A476" s="19"/>
-      <c r="B476" s="19"/>
-      <c r="C476" s="19"/>
-      <c r="D476" s="22"/>
+      <c r="A476" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B476" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="C476" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="D476" s="22" t="str">
+        <f t="shared" si="12"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.LAST_MOD_BY IS 'The Oracle username of the person making the most recent change to the project record';</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A477" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B477" s="18" t="s">
+        <v>348</v>
+      </c>
+      <c r="C477" s="19" t="s">
+        <v>355</v>
+      </c>
+      <c r="D477" s="22" t="str">
+        <f t="shared" si="12"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.PROJ_REFRESH_DATE IS 'The date of the last time the project information was refreshed in the database';</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A478" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B478" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="C478" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="D478" s="22" t="str">
+        <f t="shared" si="12"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.RES_ID IS 'Primary key for the PRI_PROJ_RES table';</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A479" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B479" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="C479" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="D479" s="22" t="str">
+        <f t="shared" si="12"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.RES_CATEGORY IS 'The resource category (free form text) - examples values include Development Tool, Data Management Tool, Centralized Database Applications';</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A480" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B480" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C480" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="D480" s="22" t="str">
+        <f t="shared" si="12"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.RES_TAG_CONV IS 'Tag Naming convention used to identify the given project resource''s version.  The suffix is required to be a series of period-delimited numbers (e.g. for a naming convention of db_module_packager_v the tag value of db_module_packager_v1.13.4 is valid)';</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A481" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B481" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="C481" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="D481" s="22" t="str">
+        <f t="shared" si="12"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.RES_NAME IS 'The name of the project resource';</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A482" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B482" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C482" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="D482" s="22" t="str">
+        <f t="shared" si="12"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.RES_COLOR_CODE IS 'The color code for the project resource';</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A483" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B483" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="C483" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="D483" s="22" t="str">
+        <f t="shared" si="12"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.RES_URL IS 'The URL for the project resource (this is blank when the repository URL is the same as the resource URL)';</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A484" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B484" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="C484" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="D484" s="22" t="str">
+        <f t="shared" si="12"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.RES_SCOPE_ID IS 'Foreign key reference to the resource scope';</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A485" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B485" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="C485" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="D485" s="22" t="str">
+        <f t="shared" si="12"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.RES_SCOPE_CODE IS 'Code for the given Resource Scope';</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A486" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B486" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="C486" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="D486" s="22" t="str">
+        <f t="shared" si="12"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.RES_SCOPE_NAME IS 'Name of the given Resource Scope';</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A487" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B487" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="C487" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="D487" s="22" t="str">
+        <f t="shared" si="12"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.RES_SCOPE_DESC IS 'Description for the given Resource Scope';</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A488" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B488" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="C488" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="D488" s="22" t="str">
+        <f t="shared" si="12"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.RES_TYPE_ID IS 'Foreign key reference to the resource type';</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A489" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B489" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="C489" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="D489" s="22" t="str">
+        <f t="shared" si="12"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.RES_TYPE_CODE IS 'Code for the given Resource Type';</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A490" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B490" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="C490" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="D490" s="22" t="str">
+        <f t="shared" si="12"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.RES_TYPE_NAME IS 'Name of the given Resource Type';</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A491" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B491" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="C491" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="D491" s="22" t="str">
+        <f t="shared" si="12"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.RES_TYPE_DESC IS 'Description for the given Resource Type';</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A492" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B492" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="C492" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="D492" s="22" t="str">
+        <f t="shared" si="12"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.RES_DESC IS 'The description for the project resource';</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A493" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B493" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="C493" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="D493" s="22" t="str">
+        <f t="shared" si="12"/>
+        <v>COMMENT ON COLUMN PRI_RES_PROJ_TAG_MAX_SUM_ALL_V.RES_DEMO_URL IS 'The live demonstration URL for the project resource';</v>
+      </c>
     </row>
     <row r="511" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A511" s="19"/>
@@ -12558,10 +14527,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C246"/>
+  <dimension ref="A1:C327"/>
   <sheetViews>
-    <sheetView topLeftCell="A199" workbookViewId="0">
-      <selection activeCell="C222" sqref="C222:C246"/>
+    <sheetView topLeftCell="B295" workbookViewId="0">
+      <selection activeCell="C306" sqref="C306"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14838,7 +16807,7 @@
         <v>72</v>
       </c>
       <c r="C211" s="18" t="str">
-        <f t="shared" ref="C211:C246" si="8">CONCATENATE(A211, ".", B211, ", ")</f>
+        <f t="shared" ref="C211:C253" si="8">CONCATENATE(A211, ".", B211, ", ")</f>
         <v xml:space="preserve">PRI_RES_PROJ_TAG_MAX_SUM_V.PROJ_ID, </v>
       </c>
     </row>
@@ -15259,6 +17228,918 @@
       </c>
       <c r="C246" s="18" t="str">
         <f t="shared" si="8"/>
+        <v xml:space="preserve">PRI_PROJ_V.RES_DEMO_URL, </v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B247" t="s">
+        <v>272</v>
+      </c>
+      <c r="C247" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">PRI_PROJ_V.VC_OWNER_ID, </v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B248" t="s">
+        <v>273</v>
+      </c>
+      <c r="C248" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">PRI_PROJ_V.VC_CREATOR_ID, </v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B249" t="s">
+        <v>274</v>
+      </c>
+      <c r="C249" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">PRI_PROJ_V.VC_WEB_URL, </v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B250" t="s">
+        <v>275</v>
+      </c>
+      <c r="C250" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">PRI_PROJ_V.VC_OPEN_ISSUES_COUNT, </v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B251" t="s">
+        <v>276</v>
+      </c>
+      <c r="C251" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">PRI_PROJ_V.VC_COMMIT_COUNT, </v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B252" t="s">
+        <v>277</v>
+      </c>
+      <c r="C252" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">PRI_PROJ_V.VC_STORAGE_SIZE, </v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B253" t="s">
+        <v>278</v>
+      </c>
+      <c r="C253" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">PRI_PROJ_V.VC_REPO_SIZE, </v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="B256" t="s">
+        <v>287</v>
+      </c>
+      <c r="C256" s="18" t="str">
+        <f t="shared" ref="C256:C270" si="9">CONCATENATE(A256, ".", B256, ", ")</f>
+        <v xml:space="preserve">PRI_CV_USERS.USER_ID, </v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="B257" t="s">
+        <v>293</v>
+      </c>
+      <c r="C257" s="18" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">PRI_CV_USERS.VC_USER_ID, </v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="B258" t="s">
+        <v>294</v>
+      </c>
+      <c r="C258" s="18" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">PRI_CV_USERS.USERNAME, </v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="B259" t="s">
+        <v>295</v>
+      </c>
+      <c r="C259" s="18" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">PRI_CV_USERS.USER_NAME, </v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="B260" t="s">
+        <v>296</v>
+      </c>
+      <c r="C260" s="18" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">PRI_CV_USERS.USER_EMAIL, </v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="B261" t="s">
+        <v>79</v>
+      </c>
+      <c r="C261" s="18" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">PRI_CV_USERS.AVATAR_URL, </v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="B262" t="s">
+        <v>297</v>
+      </c>
+      <c r="C262" s="18" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">PRI_CV_USERS.WEB_URL, </v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="B263" t="s">
+        <v>298</v>
+      </c>
+      <c r="C263" s="18" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">PRI_DATA_SOURCES.DATA_SOURCE_ID, </v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="B264" t="s">
+        <v>299</v>
+      </c>
+      <c r="C264" s="18" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">PRI_DATA_SOURCES.DATA_SOURCE_CODE, </v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="B265" t="s">
+        <v>300</v>
+      </c>
+      <c r="C265" s="18" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">PRI_DATA_SOURCES.DATA_SOURCE_NAME, </v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="B266" t="s">
+        <v>301</v>
+      </c>
+      <c r="C266" s="18" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">PRI_DATA_SOURCES.DATA_SOURCE_DESC, </v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="B267" t="s">
+        <v>98</v>
+      </c>
+      <c r="C267" s="18" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">PRI_CV_USERS.CREATE_DATE, </v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="B268" t="s">
+        <v>99</v>
+      </c>
+      <c r="C268" s="18" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">PRI_CV_USERS.CREATED_BY, </v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="B269" t="s">
+        <v>100</v>
+      </c>
+      <c r="C269" s="18" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">PRI_CV_USERS.LAST_MOD_DATE, </v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="B270" t="s">
+        <v>101</v>
+      </c>
+      <c r="C270" s="18" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">PRI_CV_USERS.LAST_MOD_BY, </v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B274" t="s">
+        <v>73</v>
+      </c>
+      <c r="C274" s="18" t="str">
+        <f t="shared" ref="C274:C327" si="10">CONCATENATE(A274, ".", B274, ", ")</f>
+        <v xml:space="preserve">PRI_PROJ_V.VC_PROJ_ID, </v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B275" t="s">
+        <v>75</v>
+      </c>
+      <c r="C275" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">PRI_PROJ_V.PROJ_DESC, </v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B276" t="s">
+        <v>76</v>
+      </c>
+      <c r="C276" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">PRI_PROJ_V.SSH_URL, </v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B277" t="s">
+        <v>77</v>
+      </c>
+      <c r="C277" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">PRI_PROJ_V.HTTP_URL, </v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B278" t="s">
+        <v>78</v>
+      </c>
+      <c r="C278" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">PRI_PROJ_V.README_URL, </v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B279" t="s">
+        <v>79</v>
+      </c>
+      <c r="C279" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">PRI_PROJ_V.AVATAR_URL, </v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B280" t="s">
+        <v>80</v>
+      </c>
+      <c r="C280" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">PRI_PROJ_V.PROJ_CREATE_DTM, </v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B281" t="s">
+        <v>81</v>
+      </c>
+      <c r="C281" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">PRI_PROJ_V.PROJ_UPDATE_DTM, </v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B282" t="s">
+        <v>95</v>
+      </c>
+      <c r="C282" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">PRI_PROJ_V.PROJ_VISIBILITY, </v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B283" t="s">
+        <v>96</v>
+      </c>
+      <c r="C283" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">PRI_PROJ_V.PROJ_NAME_SPACE, </v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B284" t="s">
+        <v>298</v>
+      </c>
+      <c r="C284" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">PRI_PROJ_V.DATA_SOURCE_ID, </v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B285" t="s">
+        <v>299</v>
+      </c>
+      <c r="C285" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">PRI_PROJ_V.DATA_SOURCE_CODE, </v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B286" t="s">
+        <v>300</v>
+      </c>
+      <c r="C286" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">PRI_PROJ_V.DATA_SOURCE_NAME, </v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B287" t="s">
+        <v>301</v>
+      </c>
+      <c r="C287" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">PRI_PROJ_V.DATA_SOURCE_DESC, </v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B288" t="s">
+        <v>272</v>
+      </c>
+      <c r="C288" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">PRI_PROJ_V.VC_OWNER_ID, </v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B289" t="s">
+        <v>319</v>
+      </c>
+      <c r="C289" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">PRI_PROJ_V.OWNER_USER_ID, </v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B290" t="s">
+        <v>320</v>
+      </c>
+      <c r="C290" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">PRI_PROJ_V.OWNER_USERNAME, </v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B291" t="s">
+        <v>321</v>
+      </c>
+      <c r="C291" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">PRI_PROJ_V.OWNER_USER_NAME, </v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B292" t="s">
+        <v>322</v>
+      </c>
+      <c r="C292" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">PRI_PROJ_V.OWNER_USER_EMAIL, </v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B293" t="s">
+        <v>323</v>
+      </c>
+      <c r="C293" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">PRI_PROJ_V.OWNER_AVATAR_URL, </v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B294" t="s">
+        <v>324</v>
+      </c>
+      <c r="C294" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">PRI_PROJ_V.OWNER_WEB_URL, </v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B295" t="s">
+        <v>273</v>
+      </c>
+      <c r="C295" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">PRI_PROJ_V.VC_CREATOR_ID, </v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B296" t="s">
+        <v>325</v>
+      </c>
+      <c r="C296" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">PRI_PROJ_V.CREATOR_USER_ID, </v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B297" t="s">
+        <v>326</v>
+      </c>
+      <c r="C297" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">PRI_PROJ_V.CREATOR_USERNAME, </v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B298" t="s">
+        <v>327</v>
+      </c>
+      <c r="C298" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">PRI_PROJ_V.CREATOR_USER_NAME, </v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B299" t="s">
+        <v>328</v>
+      </c>
+      <c r="C299" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">PRI_PROJ_V.CREATOR_USER_EMAIL, </v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B300" t="s">
+        <v>329</v>
+      </c>
+      <c r="C300" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">PRI_PROJ_V.CREATOR_AVATAR_URL, </v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B301" t="s">
+        <v>330</v>
+      </c>
+      <c r="C301" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">PRI_PROJ_V.CREATOR_WEB_URL, </v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B302" t="s">
+        <v>274</v>
+      </c>
+      <c r="C302" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">PRI_PROJ_V.VC_WEB_URL, </v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A303" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B303" t="s">
+        <v>275</v>
+      </c>
+      <c r="C303" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">PRI_PROJ_V.VC_OPEN_ISSUES_COUNT, </v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A304" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B304" t="s">
+        <v>276</v>
+      </c>
+      <c r="C304" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">PRI_PROJ_V.VC_COMMIT_COUNT, </v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A305" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B305" t="s">
+        <v>278</v>
+      </c>
+      <c r="C305" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">PRI_PROJ_V.VC_REPO_SIZE, </v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A306" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B306" t="s">
+        <v>347</v>
+      </c>
+      <c r="C306" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">PRI_PROJ_V.VC_REPO_SIZE_MB, </v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A307" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B307" t="s">
+        <v>98</v>
+      </c>
+      <c r="C307" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">PRI_PROJ_V.CREATE_DATE, </v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A308" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B308" t="s">
+        <v>99</v>
+      </c>
+      <c r="C308" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">PRI_PROJ_V.CREATED_BY, </v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A309" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B309" t="s">
+        <v>100</v>
+      </c>
+      <c r="C309" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">PRI_PROJ_V.LAST_MOD_DATE, </v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A310" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B310" t="s">
+        <v>101</v>
+      </c>
+      <c r="C310" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">PRI_PROJ_V.LAST_MOD_BY, </v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A311" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B311" t="s">
+        <v>348</v>
+      </c>
+      <c r="C311" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">PRI_PROJ_V.PROJ_REFRESH_DATE, </v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A312" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B312" t="s">
+        <v>120</v>
+      </c>
+      <c r="C312" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">PRI_PROJ_V.RES_ID, </v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A313" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B313" t="s">
+        <v>121</v>
+      </c>
+      <c r="C313" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">PRI_PROJ_V.RES_CATEGORY, </v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A314" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B314" t="s">
+        <v>122</v>
+      </c>
+      <c r="C314" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">PRI_PROJ_V.RES_TAG_CONV, </v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A315" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B315" t="s">
+        <v>123</v>
+      </c>
+      <c r="C315" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">PRI_PROJ_V.RES_NAME, </v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A316" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B316" t="s">
+        <v>124</v>
+      </c>
+      <c r="C316" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">PRI_PROJ_V.RES_COLOR_CODE, </v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A317" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B317" t="s">
+        <v>125</v>
+      </c>
+      <c r="C317" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">PRI_PROJ_V.RES_URL, </v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A318" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B318" t="s">
+        <v>136</v>
+      </c>
+      <c r="C318" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">PRI_PROJ_V.RES_SCOPE_ID, </v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A319" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B319" t="s">
+        <v>143</v>
+      </c>
+      <c r="C319" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">PRI_PROJ_V.RES_SCOPE_CODE, </v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A320" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B320" t="s">
+        <v>144</v>
+      </c>
+      <c r="C320" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">PRI_PROJ_V.RES_SCOPE_NAME, </v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A321" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B321" t="s">
+        <v>145</v>
+      </c>
+      <c r="C321" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">PRI_PROJ_V.RES_SCOPE_DESC, </v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A322" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B322" t="s">
+        <v>135</v>
+      </c>
+      <c r="C322" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">PRI_PROJ_V.RES_TYPE_ID, </v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A323" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B323" t="s">
+        <v>146</v>
+      </c>
+      <c r="C323" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">PRI_PROJ_V.RES_TYPE_CODE, </v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A324" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B324" t="s">
+        <v>147</v>
+      </c>
+      <c r="C324" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">PRI_PROJ_V.RES_TYPE_NAME, </v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A325" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B325" t="s">
+        <v>148</v>
+      </c>
+      <c r="C325" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">PRI_PROJ_V.RES_TYPE_DESC, </v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A326" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B326" t="s">
+        <v>264</v>
+      </c>
+      <c r="C326" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">PRI_PROJ_V.RES_DESC, </v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A327" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B327" t="s">
+        <v>265</v>
+      </c>
+      <c r="C327" s="18" t="str">
+        <f t="shared" si="10"/>
         <v xml:space="preserve">PRI_PROJ_V.RES_DEMO_URL, </v>
       </c>
     </row>
